--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072D767-E59E-4B8D-823C-49F5F7C8E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E64DA-8249-4AAF-9280-30A81C84229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="375">
   <si>
     <t>TestCases</t>
   </si>
@@ -776,18 +776,6 @@
     <t>room_number</t>
   </si>
   <si>
-    <t>335577017025042669</t>
-  </si>
-  <si>
-    <t>ICIC84482941142</t>
-  </si>
-  <si>
-    <t>335577016161535088</t>
-  </si>
-  <si>
-    <t>ICIC93202670782</t>
-  </si>
-  <si>
     <t>sunil Chatla</t>
   </si>
   <si>
@@ -797,73 +785,391 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>Chhaya</t>
-  </si>
-  <si>
-    <t>KoushtubhAcharya55708@example.net</t>
-  </si>
-  <si>
-    <t>1970-10-27</t>
-  </si>
-  <si>
-    <t>6796489035</t>
-  </si>
-  <si>
-    <t>Payal</t>
-  </si>
-  <si>
-    <t>EkbalPant67574@example.net</t>
-  </si>
-  <si>
-    <t>1979-03-05</t>
-  </si>
-  <si>
-    <t>741880661635648</t>
-  </si>
-  <si>
-    <t>66c2361e59fbfed5</t>
-  </si>
-  <si>
-    <t>273747813671126</t>
-  </si>
-  <si>
-    <t>IDEP261784217538YRK3</t>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>BNPL3176651422684175</t>
+  </si>
+  <si>
+    <t>59999519948</t>
+  </si>
+  <si>
+    <t>MGRTKB</t>
+  </si>
+  <si>
+    <t>335577019036707837</t>
+  </si>
+  <si>
+    <t>ICIC99956045699</t>
+  </si>
+  <si>
+    <t>ICIC94402083923</t>
+  </si>
+  <si>
+    <t>6959299811</t>
+  </si>
+  <si>
+    <t>SushantParikh33391@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-14</t>
+  </si>
+  <si>
+    <t>849353618219149</t>
+  </si>
+  <si>
+    <t>a0b3417e6839e7de</t>
+  </si>
+  <si>
+    <t>094687011915601</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IDEP376149482988UBED</t>
+  </si>
+  <si>
+    <t>8651233111</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>DaanishKunda48111@example.net</t>
+  </si>
+  <si>
+    <t>1976-06-18</t>
+  </si>
+  <si>
+    <t>050197754480245</t>
+  </si>
+  <si>
+    <t>0d47c1d56e51e1bf</t>
+  </si>
+  <si>
+    <t>234754504014424</t>
+  </si>
+  <si>
+    <t>IDEP371649937791UIPH</t>
+  </si>
+  <si>
+    <t>9789694184</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>VikrantPersaud16378@example.net</t>
+  </si>
+  <si>
+    <t>1993-10-23</t>
+  </si>
+  <si>
+    <t>309813726227410</t>
+  </si>
+  <si>
+    <t>07f2c55036286484</t>
+  </si>
+  <si>
+    <t>356626778432262</t>
+  </si>
+  <si>
+    <t>IDEP763122443793WK6N</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>59999524741</t>
-  </si>
-  <si>
-    <t>QQUGEP</t>
-  </si>
-  <si>
-    <t>6410996992</t>
-  </si>
-  <si>
-    <t>Niyati</t>
-  </si>
-  <si>
-    <t>OmarMorar70703@example.net</t>
-  </si>
-  <si>
-    <t>1978-06-28</t>
-  </si>
-  <si>
-    <t>706669600189202</t>
-  </si>
-  <si>
-    <t>671d100ffa28fb49</t>
-  </si>
-  <si>
-    <t>195412881686812</t>
-  </si>
-  <si>
-    <t>IDEP617285859149GLNE</t>
-  </si>
-  <si>
-    <t>4215434</t>
+    <t>158</t>
+  </si>
+  <si>
+    <t>59999701541</t>
+  </si>
+  <si>
+    <t>FRAKNO</t>
+  </si>
+  <si>
+    <t>59999979383</t>
+  </si>
+  <si>
+    <t>MBUOGG</t>
+  </si>
+  <si>
+    <t>59999443135</t>
+  </si>
+  <si>
+    <t>UEIOHA</t>
+  </si>
+  <si>
+    <t>59999368096</t>
+  </si>
+  <si>
+    <t>DIKHJM</t>
+  </si>
+  <si>
+    <t>59999225420</t>
+  </si>
+  <si>
+    <t>UQATEI</t>
+  </si>
+  <si>
+    <t>59999331239</t>
+  </si>
+  <si>
+    <t>ICKQHT</t>
+  </si>
+  <si>
+    <t>59999388126</t>
+  </si>
+  <si>
+    <t>ORRUKI</t>
+  </si>
+  <si>
+    <t>59999180569</t>
+  </si>
+  <si>
+    <t>PISAOJ</t>
+  </si>
+  <si>
+    <t>59999332874</t>
+  </si>
+  <si>
+    <t>GRFORA</t>
+  </si>
+  <si>
+    <t>59999332302</t>
+  </si>
+  <si>
+    <t>SFDPNJ</t>
+  </si>
+  <si>
+    <t>9373143226</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>TaahidPau98969@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-18</t>
+  </si>
+  <si>
+    <t>004951467777108</t>
+  </si>
+  <si>
+    <t>6bf13daf60eaba73</t>
+  </si>
+  <si>
+    <t>927564495921228</t>
+  </si>
+  <si>
+    <t>IDEP371623953248YA3X</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>59999892072</t>
+  </si>
+  <si>
+    <t>OFSPOL</t>
+  </si>
+  <si>
+    <t>59999335140</t>
+  </si>
+  <si>
+    <t>MTQNOM</t>
+  </si>
+  <si>
+    <t>59999384322</t>
+  </si>
+  <si>
+    <t>RQASNF</t>
+  </si>
+  <si>
+    <t>59999545923</t>
+  </si>
+  <si>
+    <t>MHSIAM</t>
+  </si>
+  <si>
+    <t>59999470103</t>
+  </si>
+  <si>
+    <t>QLCGRP</t>
+  </si>
+  <si>
+    <t>59999699575</t>
+  </si>
+  <si>
+    <t>BBFJOJ</t>
+  </si>
+  <si>
+    <t>59999691080</t>
+  </si>
+  <si>
+    <t>GHUKRT</t>
+  </si>
+  <si>
+    <t>59999773375</t>
+  </si>
+  <si>
+    <t>PIRUDF</t>
+  </si>
+  <si>
+    <t>59999457691</t>
+  </si>
+  <si>
+    <t>GIQFQE</t>
+  </si>
+  <si>
+    <t>59999032400</t>
+  </si>
+  <si>
+    <t>JJRHCD</t>
+  </si>
+  <si>
+    <t>8086231690</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>FerozParikh26058@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-23</t>
+  </si>
+  <si>
+    <t>677372113053461</t>
+  </si>
+  <si>
+    <t>72433e1e260bf3d8</t>
+  </si>
+  <si>
+    <t>019210724838218</t>
+  </si>
+  <si>
+    <t>IDEP3617259388269SVA</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>59999468154</t>
+  </si>
+  <si>
+    <t>QUUAKC</t>
+  </si>
+  <si>
+    <t>BNPL6713261441489157</t>
+  </si>
+  <si>
+    <t>59999656957</t>
+  </si>
+  <si>
+    <t>LEMAMM</t>
+  </si>
+  <si>
+    <t>59999599988</t>
+  </si>
+  <si>
+    <t>HRQISJ</t>
+  </si>
+  <si>
+    <t>59999237894</t>
+  </si>
+  <si>
+    <t>CAHFHA</t>
+  </si>
+  <si>
+    <t>59999222006</t>
+  </si>
+  <si>
+    <t>QTDBBU</t>
+  </si>
+  <si>
+    <t>59999598233</t>
+  </si>
+  <si>
+    <t>ECARJU</t>
+  </si>
+  <si>
+    <t>59999057538</t>
+  </si>
+  <si>
+    <t>IPCTAR</t>
+  </si>
+  <si>
+    <t>59999475564</t>
+  </si>
+  <si>
+    <t>TBIDBL</t>
+  </si>
+  <si>
+    <t>59999818988</t>
+  </si>
+  <si>
+    <t>SCLAIL</t>
+  </si>
+  <si>
+    <t>59999944245</t>
+  </si>
+  <si>
+    <t>OIKCDN</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>335577018086231690</t>
+  </si>
+  <si>
+    <t>ICIC90598674480</t>
+  </si>
+  <si>
+    <t>ICIC96321386502</t>
   </si>
 </sst>
 </file>
@@ -871,7 +1177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,6 +1263,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1003,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,6 +1362,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1334,7 +1647,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1430,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,22 +1796,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1809,7 +2122,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,6 +2146,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>352</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -1929,16 +2245,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2041,7 +2357,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2053,7 +2369,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2061,8 +2377,8 @@
       <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>178.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2154,13 +2470,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2446,7 +2762,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2509,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2824,13 +3140,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -2860,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2924,13 +3240,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2939,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>219</v>
@@ -3239,13 +3555,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3254,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>219</v>
@@ -3364,7 +3680,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3376,7 +3692,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3384,8 +3700,8 @@
       <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>178.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3430,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3512,10 +3828,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3527,7 +3843,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3535,11 +3851,11 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>4215444.0</v>
+      <c r="L2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4217289.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3565,7 +3881,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3577,7 +3893,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3585,11 +3901,11 @@
       <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>4215444.0</v>
+      <c r="L3" t="s">
+        <v>345</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4215852</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3649,7 +3965,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3666,7 +3982,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3683,7 +3999,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3700,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3717,7 +4033,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3795,7 +4111,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3886,7 +4202,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4130,7 +4446,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4288,7 +4604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9325354-18E9-40BC-AC1A-FA9D8FF4BC79}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4345,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4427,8 +4743,8 @@
       <c r="A2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>271</v>
+      <c r="B2" t="s">
+        <v>345</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4690,7 +5006,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4726,7 +5042,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4735,7 +5051,7 @@
         <v>215</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>213</v>
@@ -4746,7 +5062,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4755,7 +5071,7 @@
         <v>215</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>213</v>
@@ -4766,16 +5082,16 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C4">
-        <v>645</v>
+        <v>590</v>
       </c>
       <c r="D4" t="s">
         <v>215</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -4786,7 +5102,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4795,7 +5111,7 @@
         <v>215</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
         <v>213</v>
@@ -4806,7 +5122,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4815,7 +5131,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
         <v>213</v>
@@ -4826,7 +5142,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4835,7 +5151,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
@@ -4846,7 +5162,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4905,7 +5221,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -4919,7 +5235,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="620">
   <si>
     <t>TestCases</t>
   </si>
@@ -1170,6 +1170,741 @@
   </si>
   <si>
     <t>ICIC96321386502</t>
+  </si>
+  <si>
+    <t>7585883598</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>VarunShah78135@example.net</t>
+  </si>
+  <si>
+    <t>1981-11-01</t>
+  </si>
+  <si>
+    <t>575971175523064</t>
+  </si>
+  <si>
+    <t>09a4d621d306aa63</t>
+  </si>
+  <si>
+    <t>400762375843118</t>
+  </si>
+  <si>
+    <t>7086510160</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>KushalDhaliwal77677@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-05</t>
+  </si>
+  <si>
+    <t>499024733523573</t>
+  </si>
+  <si>
+    <t>672338b73f38ae00</t>
+  </si>
+  <si>
+    <t>770652336985375</t>
+  </si>
+  <si>
+    <t>7401685493</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>MalikRamanathan79901@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-10</t>
+  </si>
+  <si>
+    <t>361762283359386</t>
+  </si>
+  <si>
+    <t>880b39bb991d338e</t>
+  </si>
+  <si>
+    <t>053145387481467</t>
+  </si>
+  <si>
+    <t>6737005713</t>
+  </si>
+  <si>
+    <t>Himani</t>
+  </si>
+  <si>
+    <t>AbhinavShukla22583@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-01</t>
+  </si>
+  <si>
+    <t>268330478939661</t>
+  </si>
+  <si>
+    <t>faebf8047b817b24</t>
+  </si>
+  <si>
+    <t>768347749614134</t>
+  </si>
+  <si>
+    <t>8574648625</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>NaseerParmar72064@example.net</t>
+  </si>
+  <si>
+    <t>1979-09-10</t>
+  </si>
+  <si>
+    <t>731750867332344</t>
+  </si>
+  <si>
+    <t>755758c6d31f98ea</t>
+  </si>
+  <si>
+    <t>915705873829590</t>
+  </si>
+  <si>
+    <t>7402353866</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>MohitPrakash29742@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-08</t>
+  </si>
+  <si>
+    <t>183685690768533</t>
+  </si>
+  <si>
+    <t>dea0a5dfe0b38410</t>
+  </si>
+  <si>
+    <t>286666806829811</t>
+  </si>
+  <si>
+    <t>8719265420</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>RahimChad36540@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-08</t>
+  </si>
+  <si>
+    <t>240975622698648</t>
+  </si>
+  <si>
+    <t>7b7426896627c786</t>
+  </si>
+  <si>
+    <t>709262820187193</t>
+  </si>
+  <si>
+    <t>6386825279</t>
+  </si>
+  <si>
+    <t>Navami</t>
+  </si>
+  <si>
+    <t>TusharPatla70147@example.net</t>
+  </si>
+  <si>
+    <t>1971-05-07</t>
+  </si>
+  <si>
+    <t>559028426566762</t>
+  </si>
+  <si>
+    <t>1d9330b1dd87de49</t>
+  </si>
+  <si>
+    <t>988144465630251</t>
+  </si>
+  <si>
+    <t>9282463291</t>
+  </si>
+  <si>
+    <t>8939245983</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>KartikBawa56296@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-05</t>
+  </si>
+  <si>
+    <t>880115655811231</t>
+  </si>
+  <si>
+    <t>a5e3ff4509954be4</t>
+  </si>
+  <si>
+    <t>615506154730082</t>
+  </si>
+  <si>
+    <t>8906313006</t>
+  </si>
+  <si>
+    <t>MowgliDial96317@example.net</t>
+  </si>
+  <si>
+    <t>1975-08-28</t>
+  </si>
+  <si>
+    <t>474575047592652</t>
+  </si>
+  <si>
+    <t>c0a0bd2b9f5411d7</t>
+  </si>
+  <si>
+    <t>885437767172673</t>
+  </si>
+  <si>
+    <t>6622362196</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>UsmanGill92015@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-08</t>
+  </si>
+  <si>
+    <t>095111324386359</t>
+  </si>
+  <si>
+    <t>d114b73c83894efe</t>
+  </si>
+  <si>
+    <t>707816297816345</t>
+  </si>
+  <si>
+    <t>8843228904</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>HanumanDash38977@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-11</t>
+  </si>
+  <si>
+    <t>233990376483351</t>
+  </si>
+  <si>
+    <t>de529a488e110f29</t>
+  </si>
+  <si>
+    <t>916907984777564</t>
+  </si>
+  <si>
+    <t>6096044403</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>QaboolTailor62860@example.net</t>
+  </si>
+  <si>
+    <t>1981-05-22</t>
+  </si>
+  <si>
+    <t>147440436115390</t>
+  </si>
+  <si>
+    <t>953f3009249306a7</t>
+  </si>
+  <si>
+    <t>839074443159951</t>
+  </si>
+  <si>
+    <t>8494532829</t>
+  </si>
+  <si>
+    <t>Avantika</t>
+  </si>
+  <si>
+    <t>NatwarKapoor39632@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-17</t>
+  </si>
+  <si>
+    <t>510178297308857</t>
+  </si>
+  <si>
+    <t>df8a91691fcaeefd</t>
+  </si>
+  <si>
+    <t>509727940955853</t>
+  </si>
+  <si>
+    <t>6554243500</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>EkbalAmin15990@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-04</t>
+  </si>
+  <si>
+    <t>115024919674418</t>
+  </si>
+  <si>
+    <t>380f08e75eced493</t>
+  </si>
+  <si>
+    <t>640420848212045</t>
+  </si>
+  <si>
+    <t>6997588746</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>AbdulLal95101@example.net</t>
+  </si>
+  <si>
+    <t>1981-07-04</t>
+  </si>
+  <si>
+    <t>980453076033823</t>
+  </si>
+  <si>
+    <t>ab44be8136e512df</t>
+  </si>
+  <si>
+    <t>868705755079485</t>
+  </si>
+  <si>
+    <t>9366138767</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>DeepeshSeshadri58958@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-13</t>
+  </si>
+  <si>
+    <t>450628477177821</t>
+  </si>
+  <si>
+    <t>0ec6c92b0e7d062e</t>
+  </si>
+  <si>
+    <t>345661749122266</t>
+  </si>
+  <si>
+    <t>6999078825</t>
+  </si>
+  <si>
+    <t>Rohini</t>
+  </si>
+  <si>
+    <t>DhirajVenkatesh22750@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-14</t>
+  </si>
+  <si>
+    <t>025373535891040</t>
+  </si>
+  <si>
+    <t>a25152caaaf3960b</t>
+  </si>
+  <si>
+    <t>484254236276265</t>
+  </si>
+  <si>
+    <t>7622709191</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>AslamDeep13460@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-23</t>
+  </si>
+  <si>
+    <t>881604287822376</t>
+  </si>
+  <si>
+    <t>ed2aaad1947dfedd</t>
+  </si>
+  <si>
+    <t>946147100355714</t>
+  </si>
+  <si>
+    <t>6540906034</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>AneesNaik62742@example.net</t>
+  </si>
+  <si>
+    <t>1984-11-30</t>
+  </si>
+  <si>
+    <t>345626736820966</t>
+  </si>
+  <si>
+    <t>02432a7ba5b4ac49</t>
+  </si>
+  <si>
+    <t>276475565575124</t>
+  </si>
+  <si>
+    <t>9916408797</t>
+  </si>
+  <si>
+    <t>Alaknanda</t>
+  </si>
+  <si>
+    <t>HemendraVig75759@example.net</t>
+  </si>
+  <si>
+    <t>1972-04-30</t>
+  </si>
+  <si>
+    <t>257201917865804</t>
+  </si>
+  <si>
+    <t>e61b5d74b4a65b77</t>
+  </si>
+  <si>
+    <t>118658710671094</t>
+  </si>
+  <si>
+    <t>IDEP731631315913XI8L</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999254916</t>
+  </si>
+  <si>
+    <t>JRNEBG</t>
+  </si>
+  <si>
+    <t>59999696557</t>
+  </si>
+  <si>
+    <t>QRLFAE</t>
+  </si>
+  <si>
+    <t>59999626238</t>
+  </si>
+  <si>
+    <t>FFRUSO</t>
+  </si>
+  <si>
+    <t>59999153758</t>
+  </si>
+  <si>
+    <t>QNQFBI</t>
+  </si>
+  <si>
+    <t>59999548842</t>
+  </si>
+  <si>
+    <t>OLMEPD</t>
+  </si>
+  <si>
+    <t>59999125808</t>
+  </si>
+  <si>
+    <t>HRMJDL</t>
+  </si>
+  <si>
+    <t>59999388891</t>
+  </si>
+  <si>
+    <t>SLJFOL</t>
+  </si>
+  <si>
+    <t>59999516482</t>
+  </si>
+  <si>
+    <t>UUKDDQ</t>
+  </si>
+  <si>
+    <t>59999919556</t>
+  </si>
+  <si>
+    <t>JNRMES</t>
+  </si>
+  <si>
+    <t>59999068414</t>
+  </si>
+  <si>
+    <t>KSQDKS</t>
+  </si>
+  <si>
+    <t>8668609420</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>BrockMohan56655@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-17</t>
+  </si>
+  <si>
+    <t>534629600574561</t>
+  </si>
+  <si>
+    <t>10bef80236cc6a77</t>
+  </si>
+  <si>
+    <t>382665356700466</t>
+  </si>
+  <si>
+    <t>IDEP361731674842GJY6</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>59999781667</t>
+  </si>
+  <si>
+    <t>QFICKJ</t>
+  </si>
+  <si>
+    <t>59999166765</t>
+  </si>
+  <si>
+    <t>AMQNRK</t>
+  </si>
+  <si>
+    <t>59999540020</t>
+  </si>
+  <si>
+    <t>DABQIT</t>
+  </si>
+  <si>
+    <t>59999046497</t>
+  </si>
+  <si>
+    <t>TELOUL</t>
+  </si>
+  <si>
+    <t>59999974751</t>
+  </si>
+  <si>
+    <t>JCMNRG</t>
+  </si>
+  <si>
+    <t>59999617242</t>
+  </si>
+  <si>
+    <t>KQQAPS</t>
+  </si>
+  <si>
+    <t>59999133359</t>
+  </si>
+  <si>
+    <t>TMIOHO</t>
+  </si>
+  <si>
+    <t>59999164065</t>
+  </si>
+  <si>
+    <t>ADLKRO</t>
+  </si>
+  <si>
+    <t>59999137339</t>
+  </si>
+  <si>
+    <t>OBECAN</t>
+  </si>
+  <si>
+    <t>59999356060</t>
+  </si>
+  <si>
+    <t>SDQTHD</t>
+  </si>
+  <si>
+    <t>9633114756</t>
+  </si>
+  <si>
+    <t>Nishi</t>
+  </si>
+  <si>
+    <t>ChandTara76953@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-10</t>
+  </si>
+  <si>
+    <t>224102490357138</t>
+  </si>
+  <si>
+    <t>f10e1884b56c66a7</t>
+  </si>
+  <si>
+    <t>561270092606714</t>
+  </si>
+  <si>
+    <t>IDEP761332144278DWHX</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999013088</t>
+  </si>
+  <si>
+    <t>NKEGHQ</t>
+  </si>
+  <si>
+    <t>BNPL3671323648836381</t>
+  </si>
+  <si>
+    <t>59999650636</t>
+  </si>
+  <si>
+    <t>MQQQKD</t>
+  </si>
+  <si>
+    <t>59999731434</t>
+  </si>
+  <si>
+    <t>DSDKRC</t>
+  </si>
+  <si>
+    <t>59999271334</t>
+  </si>
+  <si>
+    <t>TRBBLB</t>
+  </si>
+  <si>
+    <t>59999248625</t>
+  </si>
+  <si>
+    <t>COSDJC</t>
+  </si>
+  <si>
+    <t>59999010043</t>
+  </si>
+  <si>
+    <t>QEBPPR</t>
+  </si>
+  <si>
+    <t>59999624818</t>
+  </si>
+  <si>
+    <t>KSKORD</t>
+  </si>
+  <si>
+    <t>59999536518</t>
+  </si>
+  <si>
+    <t>LBKLLT</t>
+  </si>
+  <si>
+    <t>59999188080</t>
+  </si>
+  <si>
+    <t>JDBIPR</t>
+  </si>
+  <si>
+    <t>59999877111</t>
+  </si>
+  <si>
+    <t>LLAAIE</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>335577019633114756</t>
+  </si>
+  <si>
+    <t>ICIC99662815434</t>
+  </si>
+  <si>
+    <t>ICIC95513702231</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1796,22 +2531,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>614</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>615</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2148,7 +2883,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>597</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2245,16 +2980,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2357,7 +3092,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>617</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2369,7 +3104,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>618</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2378,7 +3113,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>178.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2470,13 +3205,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2825,13 +3560,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3140,13 +3875,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3154,7 +3889,7 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" t="s">
         <v>228</v>
       </c>
       <c r="J11" s="16" t="s">
@@ -3240,13 +3975,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3555,13 +4290,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3680,7 +4415,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>617</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3692,7 +4427,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3701,7 +4436,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>178.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3828,10 +4563,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>584</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3843,7 +4578,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3852,10 +4587,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="M2" t="n">
-        <v>4217289.0</v>
+        <v>4217901.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3902,7 +4637,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -3965,7 +4700,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3982,7 +4717,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3999,7 +4734,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4016,7 +4751,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4033,7 +4768,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4202,7 +4937,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4446,7 +5181,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4661,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4744,7 +5479,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5042,7 +5777,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5062,7 +5797,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5082,7 +5817,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5102,7 +5837,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5122,7 +5857,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5142,7 +5877,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5162,7 +5897,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5221,7 +5956,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>594</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5235,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>594</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E64DA-8249-4AAF-9280-30A81C84229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF6691-DF21-4B0E-85B0-152C219D0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="376">
   <si>
     <t>TestCases</t>
   </si>
@@ -785,1126 +785,394 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>Pushpa</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>BNPL3176651422684175</t>
-  </si>
-  <si>
-    <t>59999519948</t>
-  </si>
-  <si>
-    <t>MGRTKB</t>
-  </si>
-  <si>
-    <t>335577019036707837</t>
-  </si>
-  <si>
-    <t>ICIC99956045699</t>
-  </si>
-  <si>
-    <t>ICIC94402083923</t>
-  </si>
-  <si>
-    <t>6959299811</t>
-  </si>
-  <si>
-    <t>SushantParikh33391@example.net</t>
-  </si>
-  <si>
-    <t>1982-12-14</t>
-  </si>
-  <si>
-    <t>849353618219149</t>
-  </si>
-  <si>
-    <t>a0b3417e6839e7de</t>
-  </si>
-  <si>
-    <t>094687011915601</t>
+    <t>158</t>
+  </si>
+  <si>
+    <t>FerozParikh26058@example.net</t>
+  </si>
+  <si>
+    <t>677372113053461</t>
+  </si>
+  <si>
+    <t>BNPL7316696785863956</t>
+  </si>
+  <si>
+    <t>59999219026</t>
+  </si>
+  <si>
+    <t>QTNOQM</t>
+  </si>
+  <si>
+    <t>335577016689955436</t>
+  </si>
+  <si>
+    <t>ICIC95657160608</t>
+  </si>
+  <si>
+    <t>ICIC83035284804</t>
+  </si>
+  <si>
+    <t>9271824326</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>EliasLad85379@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-14</t>
+  </si>
+  <si>
+    <t>874522619241934</t>
+  </si>
+  <si>
+    <t>f2478db920f757df</t>
+  </si>
+  <si>
+    <t>571874345256538</t>
+  </si>
+  <si>
+    <t>IDEP317634379983YFK1</t>
+  </si>
+  <si>
+    <t>9710303281</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>HariBakshi49749@example.net</t>
+  </si>
+  <si>
+    <t>1978-12-12</t>
+  </si>
+  <si>
+    <t>988640417333928</t>
+  </si>
+  <si>
+    <t>382953cbcde71fee</t>
+  </si>
+  <si>
+    <t>884810284577056</t>
+  </si>
+  <si>
+    <t>IDEP716335761629N13B</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>IDEP376149482988UBED</t>
-  </si>
-  <si>
-    <t>8651233111</t>
-  </si>
-  <si>
-    <t>Tulsi</t>
-  </si>
-  <si>
-    <t>DaanishKunda48111@example.net</t>
-  </si>
-  <si>
-    <t>1976-06-18</t>
-  </si>
-  <si>
-    <t>050197754480245</t>
-  </si>
-  <si>
-    <t>0d47c1d56e51e1bf</t>
-  </si>
-  <si>
-    <t>234754504014424</t>
-  </si>
-  <si>
-    <t>IDEP371649937791UIPH</t>
-  </si>
-  <si>
-    <t>9789694184</t>
-  </si>
-  <si>
-    <t>Munni</t>
-  </si>
-  <si>
-    <t>VikrantPersaud16378@example.net</t>
-  </si>
-  <si>
-    <t>1993-10-23</t>
-  </si>
-  <si>
-    <t>309813726227410</t>
-  </si>
-  <si>
-    <t>07f2c55036286484</t>
-  </si>
-  <si>
-    <t>356626778432262</t>
-  </si>
-  <si>
-    <t>IDEP763122443793WK6N</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>59999701541</t>
-  </si>
-  <si>
-    <t>FRAKNO</t>
-  </si>
-  <si>
-    <t>59999979383</t>
-  </si>
-  <si>
-    <t>MBUOGG</t>
-  </si>
-  <si>
-    <t>59999443135</t>
-  </si>
-  <si>
-    <t>UEIOHA</t>
-  </si>
-  <si>
-    <t>59999368096</t>
-  </si>
-  <si>
-    <t>DIKHJM</t>
-  </si>
-  <si>
-    <t>59999225420</t>
-  </si>
-  <si>
-    <t>UQATEI</t>
-  </si>
-  <si>
-    <t>59999331239</t>
-  </si>
-  <si>
-    <t>ICKQHT</t>
-  </si>
-  <si>
-    <t>59999388126</t>
-  </si>
-  <si>
-    <t>ORRUKI</t>
-  </si>
-  <si>
-    <t>59999180569</t>
-  </si>
-  <si>
-    <t>PISAOJ</t>
-  </si>
-  <si>
-    <t>59999332874</t>
-  </si>
-  <si>
-    <t>GRFORA</t>
-  </si>
-  <si>
-    <t>59999332302</t>
-  </si>
-  <si>
-    <t>SFDPNJ</t>
-  </si>
-  <si>
-    <t>9373143226</t>
-  </si>
-  <si>
-    <t>Aarti</t>
-  </si>
-  <si>
-    <t>TaahidPau98969@example.net</t>
-  </si>
-  <si>
-    <t>1986-02-18</t>
-  </si>
-  <si>
-    <t>004951467777108</t>
-  </si>
-  <si>
-    <t>6bf13daf60eaba73</t>
-  </si>
-  <si>
-    <t>927564495921228</t>
-  </si>
-  <si>
-    <t>IDEP371623953248YA3X</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>59999892072</t>
-  </si>
-  <si>
-    <t>OFSPOL</t>
-  </si>
-  <si>
-    <t>59999335140</t>
-  </si>
-  <si>
-    <t>MTQNOM</t>
-  </si>
-  <si>
-    <t>59999384322</t>
-  </si>
-  <si>
-    <t>RQASNF</t>
-  </si>
-  <si>
-    <t>59999545923</t>
-  </si>
-  <si>
-    <t>MHSIAM</t>
-  </si>
-  <si>
-    <t>59999470103</t>
-  </si>
-  <si>
-    <t>QLCGRP</t>
-  </si>
-  <si>
-    <t>59999699575</t>
-  </si>
-  <si>
-    <t>BBFJOJ</t>
-  </si>
-  <si>
-    <t>59999691080</t>
-  </si>
-  <si>
-    <t>GHUKRT</t>
-  </si>
-  <si>
-    <t>59999773375</t>
-  </si>
-  <si>
-    <t>PIRUDF</t>
-  </si>
-  <si>
-    <t>59999457691</t>
-  </si>
-  <si>
-    <t>GIQFQE</t>
-  </si>
-  <si>
-    <t>59999032400</t>
-  </si>
-  <si>
-    <t>JJRHCD</t>
-  </si>
-  <si>
-    <t>8086231690</t>
-  </si>
-  <si>
-    <t>Aisha</t>
-  </si>
-  <si>
-    <t>FerozParikh26058@example.net</t>
-  </si>
-  <si>
-    <t>1971-11-23</t>
-  </si>
-  <si>
-    <t>677372113053461</t>
-  </si>
-  <si>
-    <t>72433e1e260bf3d8</t>
-  </si>
-  <si>
-    <t>019210724838218</t>
-  </si>
-  <si>
-    <t>IDEP3617259388269SVA</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>176</t>
+    <t>164</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>59999227045</t>
+  </si>
+  <si>
+    <t>SHGFBR</t>
+  </si>
+  <si>
+    <t>59999225575</t>
+  </si>
+  <si>
+    <t>HLICHF</t>
+  </si>
+  <si>
+    <t>59999787066</t>
+  </si>
+  <si>
+    <t>TOJASN</t>
+  </si>
+  <si>
+    <t>59999446254</t>
+  </si>
+  <si>
+    <t>QUTLSG</t>
+  </si>
+  <si>
+    <t>59999632337</t>
+  </si>
+  <si>
+    <t>DTDOBF</t>
+  </si>
+  <si>
+    <t>59999474135</t>
+  </si>
+  <si>
+    <t>QGRFEF</t>
+  </si>
+  <si>
+    <t>59999409624</t>
+  </si>
+  <si>
+    <t>HHTQBA</t>
+  </si>
+  <si>
+    <t>59999980458</t>
+  </si>
+  <si>
+    <t>DMKNBI</t>
+  </si>
+  <si>
+    <t>59999175746</t>
+  </si>
+  <si>
+    <t>CMKKUJ</t>
+  </si>
+  <si>
+    <t>59999526468</t>
+  </si>
+  <si>
+    <t>QBRIDK</t>
+  </si>
+  <si>
+    <t>9577823122</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>IqbalDas74314@example.net</t>
+  </si>
+  <si>
+    <t>1992-02-29</t>
+  </si>
+  <si>
+    <t>731797524975304</t>
+  </si>
+  <si>
+    <t>eac79e123fc90cb3</t>
+  </si>
+  <si>
+    <t>654091870949631</t>
+  </si>
+  <si>
+    <t>IDEP6137364892172FSJ</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>161</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>59999468154</t>
-  </si>
-  <si>
-    <t>QUUAKC</t>
-  </si>
-  <si>
-    <t>BNPL6713261441489157</t>
-  </si>
-  <si>
-    <t>59999656957</t>
-  </si>
-  <si>
-    <t>LEMAMM</t>
-  </si>
-  <si>
-    <t>59999599988</t>
-  </si>
-  <si>
-    <t>HRQISJ</t>
-  </si>
-  <si>
-    <t>59999237894</t>
-  </si>
-  <si>
-    <t>CAHFHA</t>
-  </si>
-  <si>
-    <t>59999222006</t>
-  </si>
-  <si>
-    <t>QTDBBU</t>
-  </si>
-  <si>
-    <t>59999598233</t>
-  </si>
-  <si>
-    <t>ECARJU</t>
-  </si>
-  <si>
-    <t>59999057538</t>
-  </si>
-  <si>
-    <t>IPCTAR</t>
-  </si>
-  <si>
-    <t>59999475564</t>
-  </si>
-  <si>
-    <t>TBIDBL</t>
-  </si>
-  <si>
-    <t>59999818988</t>
-  </si>
-  <si>
-    <t>SCLAIL</t>
-  </si>
-  <si>
-    <t>59999944245</t>
-  </si>
-  <si>
-    <t>OIKCDN</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>335577018086231690</t>
-  </si>
-  <si>
-    <t>ICIC90598674480</t>
-  </si>
-  <si>
-    <t>ICIC96321386502</t>
-  </si>
-  <si>
-    <t>7585883598</t>
-  </si>
-  <si>
-    <t>Gunjan</t>
-  </si>
-  <si>
-    <t>VarunShah78135@example.net</t>
-  </si>
-  <si>
-    <t>1981-11-01</t>
-  </si>
-  <si>
-    <t>575971175523064</t>
-  </si>
-  <si>
-    <t>09a4d621d306aa63</t>
-  </si>
-  <si>
-    <t>400762375843118</t>
-  </si>
-  <si>
-    <t>7086510160</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>KushalDhaliwal77677@example.net</t>
-  </si>
-  <si>
-    <t>1973-01-05</t>
-  </si>
-  <si>
-    <t>499024733523573</t>
-  </si>
-  <si>
-    <t>672338b73f38ae00</t>
-  </si>
-  <si>
-    <t>770652336985375</t>
-  </si>
-  <si>
-    <t>7401685493</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>MalikRamanathan79901@example.net</t>
-  </si>
-  <si>
-    <t>1985-05-10</t>
-  </si>
-  <si>
-    <t>361762283359386</t>
-  </si>
-  <si>
-    <t>880b39bb991d338e</t>
-  </si>
-  <si>
-    <t>053145387481467</t>
-  </si>
-  <si>
-    <t>6737005713</t>
-  </si>
-  <si>
-    <t>Himani</t>
-  </si>
-  <si>
-    <t>AbhinavShukla22583@example.net</t>
-  </si>
-  <si>
-    <t>1978-02-01</t>
-  </si>
-  <si>
-    <t>268330478939661</t>
-  </si>
-  <si>
-    <t>faebf8047b817b24</t>
-  </si>
-  <si>
-    <t>768347749614134</t>
-  </si>
-  <si>
-    <t>8574648625</t>
-  </si>
-  <si>
-    <t>Vineeta</t>
-  </si>
-  <si>
-    <t>NaseerParmar72064@example.net</t>
-  </si>
-  <si>
-    <t>1979-09-10</t>
-  </si>
-  <si>
-    <t>731750867332344</t>
-  </si>
-  <si>
-    <t>755758c6d31f98ea</t>
-  </si>
-  <si>
-    <t>915705873829590</t>
-  </si>
-  <si>
-    <t>7402353866</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>MohitPrakash29742@example.net</t>
-  </si>
-  <si>
-    <t>1995-05-08</t>
-  </si>
-  <si>
-    <t>183685690768533</t>
-  </si>
-  <si>
-    <t>dea0a5dfe0b38410</t>
-  </si>
-  <si>
-    <t>286666806829811</t>
-  </si>
-  <si>
-    <t>8719265420</t>
-  </si>
-  <si>
-    <t>Indrani</t>
-  </si>
-  <si>
-    <t>RahimChad36540@example.net</t>
-  </si>
-  <si>
-    <t>1972-06-08</t>
-  </si>
-  <si>
-    <t>240975622698648</t>
-  </si>
-  <si>
-    <t>7b7426896627c786</t>
-  </si>
-  <si>
-    <t>709262820187193</t>
-  </si>
-  <si>
-    <t>6386825279</t>
-  </si>
-  <si>
-    <t>Navami</t>
-  </si>
-  <si>
-    <t>TusharPatla70147@example.net</t>
-  </si>
-  <si>
-    <t>1971-05-07</t>
-  </si>
-  <si>
-    <t>559028426566762</t>
-  </si>
-  <si>
-    <t>1d9330b1dd87de49</t>
-  </si>
-  <si>
-    <t>988144465630251</t>
-  </si>
-  <si>
-    <t>9282463291</t>
-  </si>
-  <si>
-    <t>8939245983</t>
-  </si>
-  <si>
-    <t>Basanti</t>
-  </si>
-  <si>
-    <t>KartikBawa56296@example.net</t>
-  </si>
-  <si>
-    <t>1987-04-05</t>
-  </si>
-  <si>
-    <t>880115655811231</t>
-  </si>
-  <si>
-    <t>a5e3ff4509954be4</t>
-  </si>
-  <si>
-    <t>615506154730082</t>
-  </si>
-  <si>
-    <t>8906313006</t>
-  </si>
-  <si>
-    <t>MowgliDial96317@example.net</t>
-  </si>
-  <si>
-    <t>1975-08-28</t>
-  </si>
-  <si>
-    <t>474575047592652</t>
-  </si>
-  <si>
-    <t>c0a0bd2b9f5411d7</t>
-  </si>
-  <si>
-    <t>885437767172673</t>
-  </si>
-  <si>
-    <t>6622362196</t>
-  </si>
-  <si>
-    <t>Madhu</t>
-  </si>
-  <si>
-    <t>UsmanGill92015@example.net</t>
-  </si>
-  <si>
-    <t>1990-07-08</t>
-  </si>
-  <si>
-    <t>095111324386359</t>
-  </si>
-  <si>
-    <t>d114b73c83894efe</t>
-  </si>
-  <si>
-    <t>707816297816345</t>
-  </si>
-  <si>
-    <t>8843228904</t>
-  </si>
-  <si>
-    <t>Anshula</t>
-  </si>
-  <si>
-    <t>HanumanDash38977@example.net</t>
-  </si>
-  <si>
-    <t>1977-06-11</t>
-  </si>
-  <si>
-    <t>233990376483351</t>
-  </si>
-  <si>
-    <t>de529a488e110f29</t>
-  </si>
-  <si>
-    <t>916907984777564</t>
-  </si>
-  <si>
-    <t>6096044403</t>
-  </si>
-  <si>
-    <t>Aruna</t>
-  </si>
-  <si>
-    <t>QaboolTailor62860@example.net</t>
-  </si>
-  <si>
-    <t>1981-05-22</t>
-  </si>
-  <si>
-    <t>147440436115390</t>
-  </si>
-  <si>
-    <t>953f3009249306a7</t>
-  </si>
-  <si>
-    <t>839074443159951</t>
-  </si>
-  <si>
-    <t>8494532829</t>
-  </si>
-  <si>
-    <t>Avantika</t>
-  </si>
-  <si>
-    <t>NatwarKapoor39632@example.net</t>
-  </si>
-  <si>
-    <t>1971-11-17</t>
-  </si>
-  <si>
-    <t>510178297308857</t>
-  </si>
-  <si>
-    <t>df8a91691fcaeefd</t>
-  </si>
-  <si>
-    <t>509727940955853</t>
-  </si>
-  <si>
-    <t>6554243500</t>
-  </si>
-  <si>
-    <t>Aabha</t>
-  </si>
-  <si>
-    <t>EkbalAmin15990@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-04</t>
-  </si>
-  <si>
-    <t>115024919674418</t>
-  </si>
-  <si>
-    <t>380f08e75eced493</t>
-  </si>
-  <si>
-    <t>640420848212045</t>
-  </si>
-  <si>
-    <t>6997588746</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>AbdulLal95101@example.net</t>
-  </si>
-  <si>
-    <t>1981-07-04</t>
-  </si>
-  <si>
-    <t>980453076033823</t>
-  </si>
-  <si>
-    <t>ab44be8136e512df</t>
-  </si>
-  <si>
-    <t>868705755079485</t>
-  </si>
-  <si>
-    <t>9366138767</t>
-  </si>
-  <si>
-    <t>Bagwati</t>
-  </si>
-  <si>
-    <t>DeepeshSeshadri58958@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-13</t>
-  </si>
-  <si>
-    <t>450628477177821</t>
-  </si>
-  <si>
-    <t>0ec6c92b0e7d062e</t>
-  </si>
-  <si>
-    <t>345661749122266</t>
-  </si>
-  <si>
-    <t>6999078825</t>
-  </si>
-  <si>
-    <t>Rohini</t>
-  </si>
-  <si>
-    <t>DhirajVenkatesh22750@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-14</t>
-  </si>
-  <si>
-    <t>025373535891040</t>
-  </si>
-  <si>
-    <t>a25152caaaf3960b</t>
-  </si>
-  <si>
-    <t>484254236276265</t>
-  </si>
-  <si>
-    <t>7622709191</t>
-  </si>
-  <si>
-    <t>Kamini</t>
-  </si>
-  <si>
-    <t>AslamDeep13460@example.net</t>
-  </si>
-  <si>
-    <t>1973-12-23</t>
-  </si>
-  <si>
-    <t>881604287822376</t>
-  </si>
-  <si>
-    <t>ed2aaad1947dfedd</t>
-  </si>
-  <si>
-    <t>946147100355714</t>
-  </si>
-  <si>
-    <t>6540906034</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>AneesNaik62742@example.net</t>
-  </si>
-  <si>
-    <t>1984-11-30</t>
-  </si>
-  <si>
-    <t>345626736820966</t>
-  </si>
-  <si>
-    <t>02432a7ba5b4ac49</t>
-  </si>
-  <si>
-    <t>276475565575124</t>
-  </si>
-  <si>
-    <t>9916408797</t>
-  </si>
-  <si>
-    <t>Alaknanda</t>
-  </si>
-  <si>
-    <t>HemendraVig75759@example.net</t>
-  </si>
-  <si>
-    <t>1972-04-30</t>
-  </si>
-  <si>
-    <t>257201917865804</t>
-  </si>
-  <si>
-    <t>e61b5d74b4a65b77</t>
-  </si>
-  <si>
-    <t>118658710671094</t>
-  </si>
-  <si>
-    <t>IDEP731631315913XI8L</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999254916</t>
-  </si>
-  <si>
-    <t>JRNEBG</t>
-  </si>
-  <si>
-    <t>59999696557</t>
-  </si>
-  <si>
-    <t>QRLFAE</t>
-  </si>
-  <si>
-    <t>59999626238</t>
-  </si>
-  <si>
-    <t>FFRUSO</t>
-  </si>
-  <si>
-    <t>59999153758</t>
-  </si>
-  <si>
-    <t>QNQFBI</t>
-  </si>
-  <si>
-    <t>59999548842</t>
-  </si>
-  <si>
-    <t>OLMEPD</t>
-  </si>
-  <si>
-    <t>59999125808</t>
-  </si>
-  <si>
-    <t>HRMJDL</t>
-  </si>
-  <si>
-    <t>59999388891</t>
-  </si>
-  <si>
-    <t>SLJFOL</t>
-  </si>
-  <si>
-    <t>59999516482</t>
-  </si>
-  <si>
-    <t>UUKDDQ</t>
-  </si>
-  <si>
-    <t>59999919556</t>
-  </si>
-  <si>
-    <t>JNRMES</t>
-  </si>
-  <si>
-    <t>59999068414</t>
-  </si>
-  <si>
-    <t>KSQDKS</t>
-  </si>
-  <si>
-    <t>8668609420</t>
-  </si>
-  <si>
-    <t>Sameera</t>
-  </si>
-  <si>
-    <t>BrockMohan56655@example.net</t>
-  </si>
-  <si>
-    <t>1986-08-17</t>
-  </si>
-  <si>
-    <t>534629600574561</t>
-  </si>
-  <si>
-    <t>10bef80236cc6a77</t>
-  </si>
-  <si>
-    <t>382665356700466</t>
-  </si>
-  <si>
-    <t>IDEP361731674842GJY6</t>
-  </si>
-  <si>
-    <t>166</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>59999013955</t>
+  </si>
+  <si>
+    <t>JEIOPG</t>
+  </si>
+  <si>
+    <t>BNPL7613366883966215</t>
+  </si>
+  <si>
+    <t>59999353150</t>
+  </si>
+  <si>
+    <t>SGDHSP</t>
+  </si>
+  <si>
+    <t>59999109870</t>
+  </si>
+  <si>
+    <t>DENSEQ</t>
+  </si>
+  <si>
+    <t>59999926050</t>
+  </si>
+  <si>
+    <t>RDTSJE</t>
+  </si>
+  <si>
+    <t>59999500978</t>
+  </si>
+  <si>
+    <t>OGKIMF</t>
+  </si>
+  <si>
+    <t>59999101214</t>
+  </si>
+  <si>
+    <t>DJDPMN</t>
+  </si>
+  <si>
+    <t>59999704173</t>
+  </si>
+  <si>
+    <t>TLUGDQ</t>
+  </si>
+  <si>
+    <t>59999332520</t>
+  </si>
+  <si>
+    <t>OUQBMK</t>
+  </si>
+  <si>
+    <t>59999834195</t>
+  </si>
+  <si>
+    <t>BCOREJ</t>
+  </si>
+  <si>
+    <t>59999748209</t>
+  </si>
+  <si>
+    <t>NAFSIQ</t>
+  </si>
+  <si>
+    <t>335577019577823122</t>
+  </si>
+  <si>
+    <t>ICIC91354973128</t>
+  </si>
+  <si>
+    <t>ICIC85057497618</t>
+  </si>
+  <si>
+    <t>6025680843</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>PravinZacharia61303@example.net</t>
+  </si>
+  <si>
+    <t>1990-06-04</t>
+  </si>
+  <si>
+    <t>520678901536668</t>
+  </si>
+  <si>
+    <t>dc08e6a8dfdb44ff</t>
+  </si>
+  <si>
+    <t>835836064278698</t>
+  </si>
+  <si>
+    <t>IDEP1736389896875163</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>185</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>59999781667</t>
-  </si>
-  <si>
-    <t>QFICKJ</t>
-  </si>
-  <si>
-    <t>59999166765</t>
-  </si>
-  <si>
-    <t>AMQNRK</t>
-  </si>
-  <si>
-    <t>59999540020</t>
-  </si>
-  <si>
-    <t>DABQIT</t>
-  </si>
-  <si>
-    <t>59999046497</t>
-  </si>
-  <si>
-    <t>TELOUL</t>
-  </si>
-  <si>
-    <t>59999974751</t>
-  </si>
-  <si>
-    <t>JCMNRG</t>
-  </si>
-  <si>
-    <t>59999617242</t>
-  </si>
-  <si>
-    <t>KQQAPS</t>
-  </si>
-  <si>
-    <t>59999133359</t>
-  </si>
-  <si>
-    <t>TMIOHO</t>
-  </si>
-  <si>
-    <t>59999164065</t>
-  </si>
-  <si>
-    <t>ADLKRO</t>
-  </si>
-  <si>
-    <t>59999137339</t>
-  </si>
-  <si>
-    <t>OBECAN</t>
-  </si>
-  <si>
-    <t>59999356060</t>
-  </si>
-  <si>
-    <t>SDQTHD</t>
-  </si>
-  <si>
-    <t>9633114756</t>
-  </si>
-  <si>
-    <t>Nishi</t>
-  </si>
-  <si>
-    <t>ChandTara76953@example.net</t>
-  </si>
-  <si>
-    <t>1973-03-10</t>
-  </si>
-  <si>
-    <t>224102490357138</t>
-  </si>
-  <si>
-    <t>f10e1884b56c66a7</t>
-  </si>
-  <si>
-    <t>561270092606714</t>
-  </si>
-  <si>
-    <t>IDEP761332144278DWHX</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>59999013088</t>
-  </si>
-  <si>
-    <t>NKEGHQ</t>
-  </si>
-  <si>
-    <t>BNPL3671323648836381</t>
-  </si>
-  <si>
-    <t>59999650636</t>
-  </si>
-  <si>
-    <t>MQQQKD</t>
-  </si>
-  <si>
-    <t>59999731434</t>
-  </si>
-  <si>
-    <t>DSDKRC</t>
-  </si>
-  <si>
-    <t>59999271334</t>
-  </si>
-  <si>
-    <t>TRBBLB</t>
-  </si>
-  <si>
-    <t>59999248625</t>
-  </si>
-  <si>
-    <t>COSDJC</t>
-  </si>
-  <si>
-    <t>59999010043</t>
-  </si>
-  <si>
-    <t>QEBPPR</t>
-  </si>
-  <si>
-    <t>59999624818</t>
-  </si>
-  <si>
-    <t>KSKORD</t>
-  </si>
-  <si>
-    <t>59999536518</t>
-  </si>
-  <si>
-    <t>LBKLLT</t>
-  </si>
-  <si>
-    <t>59999188080</t>
-  </si>
-  <si>
-    <t>JDBIPR</t>
-  </si>
-  <si>
-    <t>59999877111</t>
-  </si>
-  <si>
-    <t>LLAAIE</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>335577019633114756</t>
-  </si>
-  <si>
-    <t>ICIC99662815434</t>
-  </si>
-  <si>
-    <t>ICIC95513702231</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>59999420576</t>
+  </si>
+  <si>
+    <t>GMRFQF</t>
+  </si>
+  <si>
+    <t>BNPL7136391877883865</t>
+  </si>
+  <si>
+    <t>59999662504</t>
+  </si>
+  <si>
+    <t>QLAASM</t>
+  </si>
+  <si>
+    <t>59999080940</t>
+  </si>
+  <si>
+    <t>IMPRLU</t>
+  </si>
+  <si>
+    <t>59999018282</t>
+  </si>
+  <si>
+    <t>NBROFH</t>
+  </si>
+  <si>
+    <t>59999898003</t>
+  </si>
+  <si>
+    <t>NGTSDC</t>
+  </si>
+  <si>
+    <t>59999876820</t>
+  </si>
+  <si>
+    <t>OQLPLP</t>
+  </si>
+  <si>
+    <t>59999473314</t>
+  </si>
+  <si>
+    <t>DSTSSK</t>
+  </si>
+  <si>
+    <t>59999780714</t>
+  </si>
+  <si>
+    <t>TIUBIH</t>
+  </si>
+  <si>
+    <t>59999389060</t>
+  </si>
+  <si>
+    <t>NAUBJP</t>
+  </si>
+  <si>
+    <t>59999853401</t>
+  </si>
+  <si>
+    <t>SQMABH</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>335577016025680843</t>
+  </si>
+  <si>
+    <t>ICIC90849100787</t>
+  </si>
+  <si>
+    <t>ICIC84413404121</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1998,12 +1266,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2050,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2097,7 +1359,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2411,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2531,22 +1792,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>614</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>615</v>
+        <v>371</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2883,7 +2144,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2980,16 +2241,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>342</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3092,7 +2353,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>373</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3104,7 +2365,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>618</v>
+        <v>374</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3113,7 +2374,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>130.0</v>
+        <v>118.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3205,13 +2466,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3560,13 +2821,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3875,13 +3136,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3975,13 +3236,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4290,13 +3551,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4415,7 +3676,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>373</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4427,7 +3688,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>619</v>
+        <v>375</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4436,7 +3697,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>130.0</v>
+        <v>118.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4481,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4563,10 +3824,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4578,7 +3839,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>586</v>
+        <v>342</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4587,10 +3848,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="M2" t="n">
-        <v>4217901.0</v>
+        <v>4218684.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4616,7 +3877,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4628,7 +3889,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4637,7 +3898,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4700,7 +3961,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4717,7 +3978,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4734,7 +3995,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4751,7 +4012,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4768,7 +4029,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>582</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4937,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>586</v>
+        <v>342</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5181,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>586</v>
+        <v>342</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5396,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5479,7 +4740,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5740,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F3E5C7-A046-42D4-AD6A-3A3C6FA9F5A7}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5777,7 +5038,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5797,7 +5058,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5817,7 +5078,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5837,7 +5098,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5857,7 +5118,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5877,7 +5138,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5897,7 +5158,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5956,7 +5217,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5970,7 +5231,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="415">
   <si>
     <t>TestCases</t>
   </si>
@@ -1173,6 +1173,123 @@
   </si>
   <si>
     <t>ICIC84413404121</t>
+  </si>
+  <si>
+    <t>7717060594</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>LakshmiMital56225@example.net</t>
+  </si>
+  <si>
+    <t>1990-05-23</t>
+  </si>
+  <si>
+    <t>288166720091273</t>
+  </si>
+  <si>
+    <t>895c63e649a42678</t>
+  </si>
+  <si>
+    <t>000713643139064</t>
+  </si>
+  <si>
+    <t>IDEP613739971771UOGJ</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>59999250674</t>
+  </si>
+  <si>
+    <t>DCJNAD</t>
+  </si>
+  <si>
+    <t>BNPL6371481796819257</t>
+  </si>
+  <si>
+    <t>59999798991</t>
+  </si>
+  <si>
+    <t>TGNQRE</t>
+  </si>
+  <si>
+    <t>59999860064</t>
+  </si>
+  <si>
+    <t>OHGGTS</t>
+  </si>
+  <si>
+    <t>59999409865</t>
+  </si>
+  <si>
+    <t>ODFCRC</t>
+  </si>
+  <si>
+    <t>59999937879</t>
+  </si>
+  <si>
+    <t>JTUHTK</t>
+  </si>
+  <si>
+    <t>59999872509</t>
+  </si>
+  <si>
+    <t>FBBKNB</t>
+  </si>
+  <si>
+    <t>59999148754</t>
+  </si>
+  <si>
+    <t>SFDQSS</t>
+  </si>
+  <si>
+    <t>59999018072</t>
+  </si>
+  <si>
+    <t>DNBNEF</t>
+  </si>
+  <si>
+    <t>59999808195</t>
+  </si>
+  <si>
+    <t>FMCGAU</t>
+  </si>
+  <si>
+    <t>59999595953</t>
+  </si>
+  <si>
+    <t>HNUDOE</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>335577017717060594</t>
+  </si>
+  <si>
+    <t>ICIC92113726462</t>
+  </si>
+  <si>
+    <t>ICIC95263434642</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1792,22 +1909,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2144,7 +2261,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2241,16 +2358,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2353,7 +2470,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2365,7 +2482,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2374,7 +2491,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>118.0</v>
+        <v>152.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2466,13 +2583,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2821,13 +2938,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3136,13 +3253,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3236,13 +3353,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3551,13 +3668,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3676,7 +3793,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3688,7 +3805,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3697,7 +3814,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>118.0</v>
+        <v>152.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3824,10 +3941,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3839,7 +3956,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3848,10 +3965,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M2" t="n">
-        <v>4218684.0</v>
+        <v>4218728.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3898,7 +4015,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -3961,7 +4078,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3978,7 +4095,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3995,7 +4112,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4012,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4029,7 +4146,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4198,7 +4315,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4442,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4657,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4740,7 +4857,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5038,7 +5155,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5058,7 +5175,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5078,7 +5195,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5098,7 +5215,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5118,7 +5235,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5138,7 +5255,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5158,7 +5275,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5217,7 +5334,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5231,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF6691-DF21-4B0E-85B0-152C219D0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E64DA-8249-4AAF-9280-30A81C84229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="783">
   <si>
     <t>TestCases</t>
   </si>
@@ -785,511 +785,1615 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>BNPL3176651422684175</t>
+  </si>
+  <si>
+    <t>59999519948</t>
+  </si>
+  <si>
+    <t>MGRTKB</t>
+  </si>
+  <si>
+    <t>335577019036707837</t>
+  </si>
+  <si>
+    <t>ICIC99956045699</t>
+  </si>
+  <si>
+    <t>ICIC94402083923</t>
+  </si>
+  <si>
+    <t>6959299811</t>
+  </si>
+  <si>
+    <t>SushantParikh33391@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-14</t>
+  </si>
+  <si>
+    <t>849353618219149</t>
+  </si>
+  <si>
+    <t>a0b3417e6839e7de</t>
+  </si>
+  <si>
+    <t>094687011915601</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IDEP376149482988UBED</t>
+  </si>
+  <si>
+    <t>8651233111</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>DaanishKunda48111@example.net</t>
+  </si>
+  <si>
+    <t>1976-06-18</t>
+  </si>
+  <si>
+    <t>050197754480245</t>
+  </si>
+  <si>
+    <t>0d47c1d56e51e1bf</t>
+  </si>
+  <si>
+    <t>234754504014424</t>
+  </si>
+  <si>
+    <t>IDEP371649937791UIPH</t>
+  </si>
+  <si>
+    <t>9789694184</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>VikrantPersaud16378@example.net</t>
+  </si>
+  <si>
+    <t>1993-10-23</t>
+  </si>
+  <si>
+    <t>309813726227410</t>
+  </si>
+  <si>
+    <t>07f2c55036286484</t>
+  </si>
+  <si>
+    <t>356626778432262</t>
+  </si>
+  <si>
+    <t>IDEP763122443793WK6N</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>158</t>
   </si>
   <si>
+    <t>59999701541</t>
+  </si>
+  <si>
+    <t>FRAKNO</t>
+  </si>
+  <si>
+    <t>59999979383</t>
+  </si>
+  <si>
+    <t>MBUOGG</t>
+  </si>
+  <si>
+    <t>59999443135</t>
+  </si>
+  <si>
+    <t>UEIOHA</t>
+  </si>
+  <si>
+    <t>59999368096</t>
+  </si>
+  <si>
+    <t>DIKHJM</t>
+  </si>
+  <si>
+    <t>59999225420</t>
+  </si>
+  <si>
+    <t>UQATEI</t>
+  </si>
+  <si>
+    <t>59999331239</t>
+  </si>
+  <si>
+    <t>ICKQHT</t>
+  </si>
+  <si>
+    <t>59999388126</t>
+  </si>
+  <si>
+    <t>ORRUKI</t>
+  </si>
+  <si>
+    <t>59999180569</t>
+  </si>
+  <si>
+    <t>PISAOJ</t>
+  </si>
+  <si>
+    <t>59999332874</t>
+  </si>
+  <si>
+    <t>GRFORA</t>
+  </si>
+  <si>
+    <t>59999332302</t>
+  </si>
+  <si>
+    <t>SFDPNJ</t>
+  </si>
+  <si>
+    <t>9373143226</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>TaahidPau98969@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-18</t>
+  </si>
+  <si>
+    <t>004951467777108</t>
+  </si>
+  <si>
+    <t>6bf13daf60eaba73</t>
+  </si>
+  <si>
+    <t>927564495921228</t>
+  </si>
+  <si>
+    <t>IDEP371623953248YA3X</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>59999892072</t>
+  </si>
+  <si>
+    <t>OFSPOL</t>
+  </si>
+  <si>
+    <t>59999335140</t>
+  </si>
+  <si>
+    <t>MTQNOM</t>
+  </si>
+  <si>
+    <t>59999384322</t>
+  </si>
+  <si>
+    <t>RQASNF</t>
+  </si>
+  <si>
+    <t>59999545923</t>
+  </si>
+  <si>
+    <t>MHSIAM</t>
+  </si>
+  <si>
+    <t>59999470103</t>
+  </si>
+  <si>
+    <t>QLCGRP</t>
+  </si>
+  <si>
+    <t>59999699575</t>
+  </si>
+  <si>
+    <t>BBFJOJ</t>
+  </si>
+  <si>
+    <t>59999691080</t>
+  </si>
+  <si>
+    <t>GHUKRT</t>
+  </si>
+  <si>
+    <t>59999773375</t>
+  </si>
+  <si>
+    <t>PIRUDF</t>
+  </si>
+  <si>
+    <t>59999457691</t>
+  </si>
+  <si>
+    <t>GIQFQE</t>
+  </si>
+  <si>
+    <t>59999032400</t>
+  </si>
+  <si>
+    <t>JJRHCD</t>
+  </si>
+  <si>
+    <t>8086231690</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
     <t>FerozParikh26058@example.net</t>
   </si>
   <si>
+    <t>1971-11-23</t>
+  </si>
+  <si>
     <t>677372113053461</t>
   </si>
   <si>
-    <t>BNPL7316696785863956</t>
-  </si>
-  <si>
-    <t>59999219026</t>
-  </si>
-  <si>
-    <t>QTNOQM</t>
-  </si>
-  <si>
-    <t>335577016689955436</t>
-  </si>
-  <si>
-    <t>ICIC95657160608</t>
-  </si>
-  <si>
-    <t>ICIC83035284804</t>
-  </si>
-  <si>
-    <t>9271824326</t>
-  </si>
-  <si>
-    <t>Urmila</t>
-  </si>
-  <si>
-    <t>EliasLad85379@example.net</t>
-  </si>
-  <si>
-    <t>1989-03-14</t>
-  </si>
-  <si>
-    <t>874522619241934</t>
-  </si>
-  <si>
-    <t>f2478db920f757df</t>
-  </si>
-  <si>
-    <t>571874345256538</t>
-  </si>
-  <si>
-    <t>IDEP317634379983YFK1</t>
-  </si>
-  <si>
-    <t>9710303281</t>
-  </si>
-  <si>
-    <t>Nandini</t>
-  </si>
-  <si>
-    <t>HariBakshi49749@example.net</t>
-  </si>
-  <si>
-    <t>1978-12-12</t>
-  </si>
-  <si>
-    <t>988640417333928</t>
-  </si>
-  <si>
-    <t>382953cbcde71fee</t>
-  </si>
-  <si>
-    <t>884810284577056</t>
-  </si>
-  <si>
-    <t>IDEP716335761629N13B</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>164</t>
+    <t>72433e1e260bf3d8</t>
+  </si>
+  <si>
+    <t>019210724838218</t>
+  </si>
+  <si>
+    <t>IDEP3617259388269SVA</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>59999468154</t>
+  </si>
+  <si>
+    <t>QUUAKC</t>
+  </si>
+  <si>
+    <t>BNPL6713261441489157</t>
+  </si>
+  <si>
+    <t>59999656957</t>
+  </si>
+  <si>
+    <t>LEMAMM</t>
+  </si>
+  <si>
+    <t>59999599988</t>
+  </si>
+  <si>
+    <t>HRQISJ</t>
+  </si>
+  <si>
+    <t>59999237894</t>
+  </si>
+  <si>
+    <t>CAHFHA</t>
+  </si>
+  <si>
+    <t>59999222006</t>
+  </si>
+  <si>
+    <t>QTDBBU</t>
+  </si>
+  <si>
+    <t>59999598233</t>
+  </si>
+  <si>
+    <t>ECARJU</t>
+  </si>
+  <si>
+    <t>59999057538</t>
+  </si>
+  <si>
+    <t>IPCTAR</t>
+  </si>
+  <si>
+    <t>59999475564</t>
+  </si>
+  <si>
+    <t>TBIDBL</t>
+  </si>
+  <si>
+    <t>59999818988</t>
+  </si>
+  <si>
+    <t>SCLAIL</t>
+  </si>
+  <si>
+    <t>59999944245</t>
+  </si>
+  <si>
+    <t>OIKCDN</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>335577018086231690</t>
+  </si>
+  <si>
+    <t>ICIC90598674480</t>
+  </si>
+  <si>
+    <t>ICIC96321386502</t>
+  </si>
+  <si>
+    <t>7585883598</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>VarunShah78135@example.net</t>
+  </si>
+  <si>
+    <t>1981-11-01</t>
+  </si>
+  <si>
+    <t>575971175523064</t>
+  </si>
+  <si>
+    <t>09a4d621d306aa63</t>
+  </si>
+  <si>
+    <t>400762375843118</t>
+  </si>
+  <si>
+    <t>7086510160</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>KushalDhaliwal77677@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-05</t>
+  </si>
+  <si>
+    <t>499024733523573</t>
+  </si>
+  <si>
+    <t>672338b73f38ae00</t>
+  </si>
+  <si>
+    <t>770652336985375</t>
+  </si>
+  <si>
+    <t>7401685493</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>MalikRamanathan79901@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-10</t>
+  </si>
+  <si>
+    <t>361762283359386</t>
+  </si>
+  <si>
+    <t>880b39bb991d338e</t>
+  </si>
+  <si>
+    <t>053145387481467</t>
+  </si>
+  <si>
+    <t>6737005713</t>
+  </si>
+  <si>
+    <t>Himani</t>
+  </si>
+  <si>
+    <t>AbhinavShukla22583@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-01</t>
+  </si>
+  <si>
+    <t>268330478939661</t>
+  </si>
+  <si>
+    <t>faebf8047b817b24</t>
+  </si>
+  <si>
+    <t>768347749614134</t>
+  </si>
+  <si>
+    <t>8574648625</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>NaseerParmar72064@example.net</t>
+  </si>
+  <si>
+    <t>1979-09-10</t>
+  </si>
+  <si>
+    <t>731750867332344</t>
+  </si>
+  <si>
+    <t>755758c6d31f98ea</t>
+  </si>
+  <si>
+    <t>915705873829590</t>
+  </si>
+  <si>
+    <t>7402353866</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>MohitPrakash29742@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-08</t>
+  </si>
+  <si>
+    <t>183685690768533</t>
+  </si>
+  <si>
+    <t>dea0a5dfe0b38410</t>
+  </si>
+  <si>
+    <t>286666806829811</t>
+  </si>
+  <si>
+    <t>8719265420</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>RahimChad36540@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-08</t>
+  </si>
+  <si>
+    <t>240975622698648</t>
+  </si>
+  <si>
+    <t>7b7426896627c786</t>
+  </si>
+  <si>
+    <t>709262820187193</t>
+  </si>
+  <si>
+    <t>6386825279</t>
+  </si>
+  <si>
+    <t>Navami</t>
+  </si>
+  <si>
+    <t>TusharPatla70147@example.net</t>
+  </si>
+  <si>
+    <t>1971-05-07</t>
+  </si>
+  <si>
+    <t>559028426566762</t>
+  </si>
+  <si>
+    <t>1d9330b1dd87de49</t>
+  </si>
+  <si>
+    <t>988144465630251</t>
+  </si>
+  <si>
+    <t>9282463291</t>
+  </si>
+  <si>
+    <t>8939245983</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>KartikBawa56296@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-05</t>
+  </si>
+  <si>
+    <t>880115655811231</t>
+  </si>
+  <si>
+    <t>a5e3ff4509954be4</t>
+  </si>
+  <si>
+    <t>615506154730082</t>
+  </si>
+  <si>
+    <t>8906313006</t>
+  </si>
+  <si>
+    <t>MowgliDial96317@example.net</t>
+  </si>
+  <si>
+    <t>1975-08-28</t>
+  </si>
+  <si>
+    <t>474575047592652</t>
+  </si>
+  <si>
+    <t>c0a0bd2b9f5411d7</t>
+  </si>
+  <si>
+    <t>885437767172673</t>
+  </si>
+  <si>
+    <t>6622362196</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>UsmanGill92015@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-08</t>
+  </si>
+  <si>
+    <t>095111324386359</t>
+  </si>
+  <si>
+    <t>d114b73c83894efe</t>
+  </si>
+  <si>
+    <t>707816297816345</t>
+  </si>
+  <si>
+    <t>8843228904</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>HanumanDash38977@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-11</t>
+  </si>
+  <si>
+    <t>233990376483351</t>
+  </si>
+  <si>
+    <t>de529a488e110f29</t>
+  </si>
+  <si>
+    <t>916907984777564</t>
+  </si>
+  <si>
+    <t>6096044403</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>QaboolTailor62860@example.net</t>
+  </si>
+  <si>
+    <t>1981-05-22</t>
+  </si>
+  <si>
+    <t>147440436115390</t>
+  </si>
+  <si>
+    <t>953f3009249306a7</t>
+  </si>
+  <si>
+    <t>839074443159951</t>
+  </si>
+  <si>
+    <t>8494532829</t>
+  </si>
+  <si>
+    <t>Avantika</t>
+  </si>
+  <si>
+    <t>NatwarKapoor39632@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-17</t>
+  </si>
+  <si>
+    <t>510178297308857</t>
+  </si>
+  <si>
+    <t>df8a91691fcaeefd</t>
+  </si>
+  <si>
+    <t>509727940955853</t>
+  </si>
+  <si>
+    <t>6554243500</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>EkbalAmin15990@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-04</t>
+  </si>
+  <si>
+    <t>115024919674418</t>
+  </si>
+  <si>
+    <t>380f08e75eced493</t>
+  </si>
+  <si>
+    <t>640420848212045</t>
+  </si>
+  <si>
+    <t>6997588746</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>AbdulLal95101@example.net</t>
+  </si>
+  <si>
+    <t>1981-07-04</t>
+  </si>
+  <si>
+    <t>980453076033823</t>
+  </si>
+  <si>
+    <t>ab44be8136e512df</t>
+  </si>
+  <si>
+    <t>868705755079485</t>
+  </si>
+  <si>
+    <t>9366138767</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>DeepeshSeshadri58958@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-13</t>
+  </si>
+  <si>
+    <t>450628477177821</t>
+  </si>
+  <si>
+    <t>0ec6c92b0e7d062e</t>
+  </si>
+  <si>
+    <t>345661749122266</t>
+  </si>
+  <si>
+    <t>6999078825</t>
+  </si>
+  <si>
+    <t>Rohini</t>
+  </si>
+  <si>
+    <t>DhirajVenkatesh22750@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-14</t>
+  </si>
+  <si>
+    <t>025373535891040</t>
+  </si>
+  <si>
+    <t>a25152caaaf3960b</t>
+  </si>
+  <si>
+    <t>484254236276265</t>
+  </si>
+  <si>
+    <t>7622709191</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>AslamDeep13460@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-23</t>
+  </si>
+  <si>
+    <t>881604287822376</t>
+  </si>
+  <si>
+    <t>ed2aaad1947dfedd</t>
+  </si>
+  <si>
+    <t>946147100355714</t>
+  </si>
+  <si>
+    <t>6540906034</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>AneesNaik62742@example.net</t>
+  </si>
+  <si>
+    <t>1984-11-30</t>
+  </si>
+  <si>
+    <t>345626736820966</t>
+  </si>
+  <si>
+    <t>02432a7ba5b4ac49</t>
+  </si>
+  <si>
+    <t>276475565575124</t>
+  </si>
+  <si>
+    <t>9916408797</t>
+  </si>
+  <si>
+    <t>Alaknanda</t>
+  </si>
+  <si>
+    <t>HemendraVig75759@example.net</t>
+  </si>
+  <si>
+    <t>1972-04-30</t>
+  </si>
+  <si>
+    <t>257201917865804</t>
+  </si>
+  <si>
+    <t>e61b5d74b4a65b77</t>
+  </si>
+  <si>
+    <t>118658710671094</t>
+  </si>
+  <si>
+    <t>IDEP731631315913XI8L</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999254916</t>
+  </si>
+  <si>
+    <t>JRNEBG</t>
+  </si>
+  <si>
+    <t>59999696557</t>
+  </si>
+  <si>
+    <t>QRLFAE</t>
+  </si>
+  <si>
+    <t>59999626238</t>
+  </si>
+  <si>
+    <t>FFRUSO</t>
+  </si>
+  <si>
+    <t>59999153758</t>
+  </si>
+  <si>
+    <t>QNQFBI</t>
+  </si>
+  <si>
+    <t>59999548842</t>
+  </si>
+  <si>
+    <t>OLMEPD</t>
+  </si>
+  <si>
+    <t>59999125808</t>
+  </si>
+  <si>
+    <t>HRMJDL</t>
+  </si>
+  <si>
+    <t>59999388891</t>
+  </si>
+  <si>
+    <t>SLJFOL</t>
+  </si>
+  <si>
+    <t>59999516482</t>
+  </si>
+  <si>
+    <t>UUKDDQ</t>
+  </si>
+  <si>
+    <t>59999919556</t>
+  </si>
+  <si>
+    <t>JNRMES</t>
+  </si>
+  <si>
+    <t>59999068414</t>
+  </si>
+  <si>
+    <t>KSQDKS</t>
+  </si>
+  <si>
+    <t>8668609420</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>BrockMohan56655@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-17</t>
+  </si>
+  <si>
+    <t>534629600574561</t>
+  </si>
+  <si>
+    <t>10bef80236cc6a77</t>
+  </si>
+  <si>
+    <t>382665356700466</t>
+  </si>
+  <si>
+    <t>IDEP361731674842GJY6</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>59999781667</t>
+  </si>
+  <si>
+    <t>QFICKJ</t>
+  </si>
+  <si>
+    <t>59999166765</t>
+  </si>
+  <si>
+    <t>AMQNRK</t>
+  </si>
+  <si>
+    <t>59999540020</t>
+  </si>
+  <si>
+    <t>DABQIT</t>
+  </si>
+  <si>
+    <t>59999046497</t>
+  </si>
+  <si>
+    <t>TELOUL</t>
+  </si>
+  <si>
+    <t>59999974751</t>
+  </si>
+  <si>
+    <t>JCMNRG</t>
+  </si>
+  <si>
+    <t>59999617242</t>
+  </si>
+  <si>
+    <t>KQQAPS</t>
+  </si>
+  <si>
+    <t>59999133359</t>
+  </si>
+  <si>
+    <t>TMIOHO</t>
+  </si>
+  <si>
+    <t>59999164065</t>
+  </si>
+  <si>
+    <t>ADLKRO</t>
+  </si>
+  <si>
+    <t>59999137339</t>
+  </si>
+  <si>
+    <t>OBECAN</t>
+  </si>
+  <si>
+    <t>59999356060</t>
+  </si>
+  <si>
+    <t>SDQTHD</t>
+  </si>
+  <si>
+    <t>9633114756</t>
+  </si>
+  <si>
+    <t>Nishi</t>
+  </si>
+  <si>
+    <t>ChandTara76953@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-10</t>
+  </si>
+  <si>
+    <t>224102490357138</t>
+  </si>
+  <si>
+    <t>f10e1884b56c66a7</t>
+  </si>
+  <si>
+    <t>561270092606714</t>
+  </si>
+  <si>
+    <t>IDEP761332144278DWHX</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999013088</t>
+  </si>
+  <si>
+    <t>NKEGHQ</t>
+  </si>
+  <si>
+    <t>BNPL3671323648836381</t>
+  </si>
+  <si>
+    <t>59999650636</t>
+  </si>
+  <si>
+    <t>MQQQKD</t>
+  </si>
+  <si>
+    <t>59999731434</t>
+  </si>
+  <si>
+    <t>DSDKRC</t>
+  </si>
+  <si>
+    <t>59999271334</t>
+  </si>
+  <si>
+    <t>TRBBLB</t>
+  </si>
+  <si>
+    <t>59999248625</t>
+  </si>
+  <si>
+    <t>COSDJC</t>
+  </si>
+  <si>
+    <t>59999010043</t>
+  </si>
+  <si>
+    <t>QEBPPR</t>
+  </si>
+  <si>
+    <t>59999624818</t>
+  </si>
+  <si>
+    <t>KSKORD</t>
+  </si>
+  <si>
+    <t>59999536518</t>
+  </si>
+  <si>
+    <t>LBKLLT</t>
+  </si>
+  <si>
+    <t>59999188080</t>
+  </si>
+  <si>
+    <t>JDBIPR</t>
+  </si>
+  <si>
+    <t>59999877111</t>
+  </si>
+  <si>
+    <t>LLAAIE</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>335577019633114756</t>
+  </si>
+  <si>
+    <t>ICIC99662815434</t>
+  </si>
+  <si>
+    <t>ICIC95513702231</t>
+  </si>
+  <si>
+    <t>8317408904</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>HarpreetChaudhari47800@example.net</t>
+  </si>
+  <si>
+    <t>1979-05-15</t>
+  </si>
+  <si>
+    <t>320589024604444</t>
+  </si>
+  <si>
+    <t>7595c0189caa0c08</t>
+  </si>
+  <si>
+    <t>205645741132539</t>
+  </si>
+  <si>
+    <t>IDEP163756213265ZHQE</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>59999168396</t>
+  </si>
+  <si>
+    <t>JOECJQ</t>
+  </si>
+  <si>
+    <t>59999785398</t>
+  </si>
+  <si>
+    <t>ECUGKC</t>
+  </si>
+  <si>
+    <t>59999256616</t>
+  </si>
+  <si>
+    <t>PCIGLL</t>
+  </si>
+  <si>
+    <t>59999880633</t>
+  </si>
+  <si>
+    <t>NBOGAL</t>
+  </si>
+  <si>
+    <t>59999142938</t>
+  </si>
+  <si>
+    <t>NNTRGA</t>
+  </si>
+  <si>
+    <t>59999907201</t>
+  </si>
+  <si>
+    <t>SUAPHC</t>
+  </si>
+  <si>
+    <t>59999935996</t>
+  </si>
+  <si>
+    <t>DABUUD</t>
+  </si>
+  <si>
+    <t>59999237568</t>
+  </si>
+  <si>
+    <t>DCPBCF</t>
+  </si>
+  <si>
+    <t>59999345500</t>
+  </si>
+  <si>
+    <t>JEQKBT</t>
+  </si>
+  <si>
+    <t>59999489005</t>
+  </si>
+  <si>
+    <t>TSCSNB</t>
+  </si>
+  <si>
+    <t>9714645789</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>MarloRau29234@example.net</t>
+  </si>
+  <si>
+    <t>1973-07-18</t>
+  </si>
+  <si>
+    <t>332287879103788</t>
+  </si>
+  <si>
+    <t>b2404a95157f483b</t>
+  </si>
+  <si>
+    <t>591126232560423</t>
+  </si>
+  <si>
+    <t>IDEP176356694485GACW</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>59999227045</t>
-  </si>
-  <si>
-    <t>SHGFBR</t>
-  </si>
-  <si>
-    <t>59999225575</t>
-  </si>
-  <si>
-    <t>HLICHF</t>
-  </si>
-  <si>
-    <t>59999787066</t>
-  </si>
-  <si>
-    <t>TOJASN</t>
-  </si>
-  <si>
-    <t>59999446254</t>
-  </si>
-  <si>
-    <t>QUTLSG</t>
-  </si>
-  <si>
-    <t>59999632337</t>
-  </si>
-  <si>
-    <t>DTDOBF</t>
-  </si>
-  <si>
-    <t>59999474135</t>
-  </si>
-  <si>
-    <t>QGRFEF</t>
-  </si>
-  <si>
-    <t>59999409624</t>
-  </si>
-  <si>
-    <t>HHTQBA</t>
-  </si>
-  <si>
-    <t>59999980458</t>
-  </si>
-  <si>
-    <t>DMKNBI</t>
-  </si>
-  <si>
-    <t>59999175746</t>
-  </si>
-  <si>
-    <t>CMKKUJ</t>
-  </si>
-  <si>
-    <t>59999526468</t>
-  </si>
-  <si>
-    <t>QBRIDK</t>
-  </si>
-  <si>
-    <t>9577823122</t>
-  </si>
-  <si>
-    <t>Savita</t>
-  </si>
-  <si>
-    <t>IqbalDas74314@example.net</t>
-  </si>
-  <si>
-    <t>1992-02-29</t>
-  </si>
-  <si>
-    <t>731797524975304</t>
-  </si>
-  <si>
-    <t>eac79e123fc90cb3</t>
-  </si>
-  <si>
-    <t>654091870949631</t>
-  </si>
-  <si>
-    <t>IDEP6137364892172FSJ</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999640375</t>
+  </si>
+  <si>
+    <t>LDJBOQ</t>
+  </si>
+  <si>
+    <t>BNPL6137568888634531</t>
+  </si>
+  <si>
+    <t>59999688153</t>
+  </si>
+  <si>
+    <t>LIJDMD</t>
+  </si>
+  <si>
+    <t>59999109141</t>
+  </si>
+  <si>
+    <t>OQHSFT</t>
+  </si>
+  <si>
+    <t>59999986973</t>
+  </si>
+  <si>
+    <t>KMORHF</t>
+  </si>
+  <si>
+    <t>59999479334</t>
+  </si>
+  <si>
+    <t>OGHIQL</t>
+  </si>
+  <si>
+    <t>59999707115</t>
+  </si>
+  <si>
+    <t>BSMNGL</t>
+  </si>
+  <si>
+    <t>59999847491</t>
+  </si>
+  <si>
+    <t>QEQMHS</t>
+  </si>
+  <si>
+    <t>59999412112</t>
+  </si>
+  <si>
+    <t>EQGDBB</t>
+  </si>
+  <si>
+    <t>59999774781</t>
+  </si>
+  <si>
+    <t>MJGOJT</t>
+  </si>
+  <si>
+    <t>59999604607</t>
+  </si>
+  <si>
+    <t>UQDLTI</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>335577019714645789</t>
+  </si>
+  <si>
+    <t>ICIC90099997317</t>
+  </si>
+  <si>
+    <t>ICIC87115173382</t>
+  </si>
+  <si>
+    <t>7671552219</t>
+  </si>
+  <si>
+    <t>Chandni</t>
+  </si>
+  <si>
+    <t>KamleshLata32243@example.net</t>
+  </si>
+  <si>
+    <t>1973-05-06</t>
+  </si>
+  <si>
+    <t>056668318361596</t>
+  </si>
+  <si>
+    <t>7bd650921182955e</t>
+  </si>
+  <si>
+    <t>495301121561264</t>
+  </si>
+  <si>
+    <t>IDEP176356959834U2H8</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>59999013955</t>
-  </si>
-  <si>
-    <t>JEIOPG</t>
-  </si>
-  <si>
-    <t>BNPL7613366883966215</t>
-  </si>
-  <si>
-    <t>59999353150</t>
-  </si>
-  <si>
-    <t>SGDHSP</t>
-  </si>
-  <si>
-    <t>59999109870</t>
-  </si>
-  <si>
-    <t>DENSEQ</t>
-  </si>
-  <si>
-    <t>59999926050</t>
-  </si>
-  <si>
-    <t>RDTSJE</t>
-  </si>
-  <si>
-    <t>59999500978</t>
-  </si>
-  <si>
-    <t>OGKIMF</t>
-  </si>
-  <si>
-    <t>59999101214</t>
-  </si>
-  <si>
-    <t>DJDPMN</t>
-  </si>
-  <si>
-    <t>59999704173</t>
-  </si>
-  <si>
-    <t>TLUGDQ</t>
-  </si>
-  <si>
-    <t>59999332520</t>
-  </si>
-  <si>
-    <t>OUQBMK</t>
-  </si>
-  <si>
-    <t>59999834195</t>
-  </si>
-  <si>
-    <t>BCOREJ</t>
-  </si>
-  <si>
-    <t>59999748209</t>
-  </si>
-  <si>
-    <t>NAFSIQ</t>
-  </si>
-  <si>
-    <t>335577019577823122</t>
-  </si>
-  <si>
-    <t>ICIC91354973128</t>
-  </si>
-  <si>
-    <t>ICIC85057497618</t>
-  </si>
-  <si>
-    <t>6025680843</t>
-  </si>
-  <si>
-    <t>Devika</t>
-  </si>
-  <si>
-    <t>PravinZacharia61303@example.net</t>
-  </si>
-  <si>
-    <t>1990-06-04</t>
-  </si>
-  <si>
-    <t>520678901536668</t>
-  </si>
-  <si>
-    <t>dc08e6a8dfdb44ff</t>
-  </si>
-  <si>
-    <t>835836064278698</t>
-  </si>
-  <si>
-    <t>IDEP1736389896875163</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>59999420576</t>
-  </si>
-  <si>
-    <t>GMRFQF</t>
-  </si>
-  <si>
-    <t>BNPL7136391877883865</t>
-  </si>
-  <si>
-    <t>59999662504</t>
-  </si>
-  <si>
-    <t>QLAASM</t>
-  </si>
-  <si>
-    <t>59999080940</t>
-  </si>
-  <si>
-    <t>IMPRLU</t>
-  </si>
-  <si>
-    <t>59999018282</t>
-  </si>
-  <si>
-    <t>NBROFH</t>
-  </si>
-  <si>
-    <t>59999898003</t>
-  </si>
-  <si>
-    <t>NGTSDC</t>
-  </si>
-  <si>
-    <t>59999876820</t>
-  </si>
-  <si>
-    <t>OQLPLP</t>
-  </si>
-  <si>
-    <t>59999473314</t>
-  </si>
-  <si>
-    <t>DSTSSK</t>
-  </si>
-  <si>
-    <t>59999780714</t>
-  </si>
-  <si>
-    <t>TIUBIH</t>
-  </si>
-  <si>
-    <t>59999389060</t>
-  </si>
-  <si>
-    <t>NAUBJP</t>
-  </si>
-  <si>
-    <t>59999853401</t>
-  </si>
-  <si>
-    <t>SQMABH</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>335577016025680843</t>
-  </si>
-  <si>
-    <t>ICIC90849100787</t>
-  </si>
-  <si>
-    <t>ICIC84413404121</t>
-  </si>
-  <si>
-    <t>7717060594</t>
-  </si>
-  <si>
-    <t>Kunti</t>
-  </si>
-  <si>
-    <t>LakshmiMital56225@example.net</t>
-  </si>
-  <si>
-    <t>1990-05-23</t>
-  </si>
-  <si>
-    <t>288166720091273</t>
-  </si>
-  <si>
-    <t>895c63e649a42678</t>
-  </si>
-  <si>
-    <t>000713643139064</t>
-  </si>
-  <si>
-    <t>IDEP613739971771UOGJ</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>59999250674</t>
-  </si>
-  <si>
-    <t>DCJNAD</t>
-  </si>
-  <si>
-    <t>BNPL6371481796819257</t>
-  </si>
-  <si>
-    <t>59999798991</t>
-  </si>
-  <si>
-    <t>TGNQRE</t>
-  </si>
-  <si>
-    <t>59999860064</t>
-  </si>
-  <si>
-    <t>OHGGTS</t>
-  </si>
-  <si>
-    <t>59999409865</t>
-  </si>
-  <si>
-    <t>ODFCRC</t>
-  </si>
-  <si>
-    <t>59999937879</t>
-  </si>
-  <si>
-    <t>JTUHTK</t>
-  </si>
-  <si>
-    <t>59999872509</t>
-  </si>
-  <si>
-    <t>FBBKNB</t>
-  </si>
-  <si>
-    <t>59999148754</t>
-  </si>
-  <si>
-    <t>SFDQSS</t>
-  </si>
-  <si>
-    <t>59999018072</t>
-  </si>
-  <si>
-    <t>DNBNEF</t>
-  </si>
-  <si>
-    <t>59999808195</t>
-  </si>
-  <si>
-    <t>FMCGAU</t>
-  </si>
-  <si>
-    <t>59999595953</t>
-  </si>
-  <si>
-    <t>HNUDOE</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>335577017717060594</t>
-  </si>
-  <si>
-    <t>ICIC92113726462</t>
-  </si>
-  <si>
-    <t>ICIC95263434642</t>
+    <t>59999005119</t>
+  </si>
+  <si>
+    <t>CSLOAN</t>
+  </si>
+  <si>
+    <t>BNPL1367571481894218</t>
+  </si>
+  <si>
+    <t>59999117745</t>
+  </si>
+  <si>
+    <t>ESEFHI</t>
+  </si>
+  <si>
+    <t>59999477915</t>
+  </si>
+  <si>
+    <t>NTRNDH</t>
+  </si>
+  <si>
+    <t>59999109744</t>
+  </si>
+  <si>
+    <t>ISNICJ</t>
+  </si>
+  <si>
+    <t>59999586056</t>
+  </si>
+  <si>
+    <t>MGAERE</t>
+  </si>
+  <si>
+    <t>59999793721</t>
+  </si>
+  <si>
+    <t>RTQAPK</t>
+  </si>
+  <si>
+    <t>59999050777</t>
+  </si>
+  <si>
+    <t>GPKEFG</t>
+  </si>
+  <si>
+    <t>59999796577</t>
+  </si>
+  <si>
+    <t>UOONBL</t>
+  </si>
+  <si>
+    <t>59999587890</t>
+  </si>
+  <si>
+    <t>QRQBRA</t>
+  </si>
+  <si>
+    <t>59999212252</t>
+  </si>
+  <si>
+    <t>GCKRCO</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>335577017671552219</t>
+  </si>
+  <si>
+    <t>ICIC95904103972</t>
+  </si>
+  <si>
+    <t>ICIC94543075043</t>
+  </si>
+  <si>
+    <t>6548392564</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>ParvezDeep83025@example.net</t>
+  </si>
+  <si>
+    <t>1974-02-11</t>
+  </si>
+  <si>
+    <t>075333424843972</t>
+  </si>
+  <si>
+    <t>2fcf435c9d0a3409</t>
+  </si>
+  <si>
+    <t>855276886885690</t>
+  </si>
+  <si>
+    <t>IDEP673157938528Y9GE</t>
+  </si>
+  <si>
+    <t>7619124963</t>
+  </si>
+  <si>
+    <t>JackWalla65503@example.net</t>
+  </si>
+  <si>
+    <t>1983-11-13</t>
+  </si>
+  <si>
+    <t>658315650899146</t>
+  </si>
+  <si>
+    <t>abeaa06e19df8baf</t>
+  </si>
+  <si>
+    <t>322803327244180</t>
+  </si>
+  <si>
+    <t>IDEP713658115653H924</t>
+  </si>
+  <si>
+    <t>7724473067</t>
+  </si>
+  <si>
+    <t>SaiBrar25304@example.net</t>
+  </si>
+  <si>
+    <t>1973-06-28</t>
+  </si>
+  <si>
+    <t>930479026573734</t>
+  </si>
+  <si>
+    <t>59a6e11ff1821b9e</t>
+  </si>
+  <si>
+    <t>425082486801694</t>
+  </si>
+  <si>
+    <t>IDEP367158298511UDEX</t>
+  </si>
+  <si>
+    <t>8073538022</t>
+  </si>
+  <si>
+    <t>SureshRoy24290@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-01</t>
+  </si>
+  <si>
+    <t>293407891392964</t>
+  </si>
+  <si>
+    <t>5cec961744438607</t>
+  </si>
+  <si>
+    <t>985242661535358</t>
+  </si>
+  <si>
+    <t>IDEP637158491188RWLH</t>
+  </si>
+  <si>
+    <t>6800960001</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>AayushmanRampersad18955@example.net</t>
+  </si>
+  <si>
+    <t>1974-04-21</t>
+  </si>
+  <si>
+    <t>369575838131775</t>
+  </si>
+  <si>
+    <t>da8a270273c00bce</t>
+  </si>
+  <si>
+    <t>370543276787257</t>
+  </si>
+  <si>
+    <t>IDEP376158675292SN6H</t>
+  </si>
+  <si>
+    <t>7454603452</t>
+  </si>
+  <si>
+    <t>MunafSahni25864@example.net</t>
+  </si>
+  <si>
+    <t>1987-09-21</t>
+  </si>
+  <si>
+    <t>885052649971240</t>
+  </si>
+  <si>
+    <t>0d32a266293b8010</t>
+  </si>
+  <si>
+    <t>113568629281213</t>
+  </si>
+  <si>
+    <t>IDEP7361588618375IDX</t>
+  </si>
+  <si>
+    <t>6353435889</t>
+  </si>
+  <si>
+    <t>TanayToor73909@example.net</t>
+  </si>
+  <si>
+    <t>1989-08-09</t>
+  </si>
+  <si>
+    <t>350889337883930</t>
+  </si>
+  <si>
+    <t>c1f8653dac3c7111</t>
+  </si>
+  <si>
+    <t>982115557298435</t>
+  </si>
+  <si>
+    <t>IDEP741617983586GK1P</t>
+  </si>
+  <si>
+    <t>8546697308</t>
+  </si>
+  <si>
+    <t>BijoyGera88404@example.net</t>
+  </si>
+  <si>
+    <t>1973-07-13</t>
+  </si>
+  <si>
+    <t>857303054007788</t>
+  </si>
+  <si>
+    <t>7a123b70b95f7bdd</t>
+  </si>
+  <si>
+    <t>002853268311776</t>
+  </si>
+  <si>
+    <t>IDEP641718912127ZVI1</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +2401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,6 +2487,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1429,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1476,6 +2586,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1789,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1909,22 +3020,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>719</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>410</v>
+        <v>720</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2261,7 +3372,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>702</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2358,16 +3469,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>780</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>781</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>779</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2470,7 +3581,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>722</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2482,7 +3593,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>413</v>
+        <v>723</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2491,7 +3602,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0</v>
+        <v>159.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2583,13 +3694,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>379</v>
+        <v>778</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2938,13 +4049,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>379</v>
+        <v>778</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3253,13 +4364,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>379</v>
+        <v>778</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3353,13 +4464,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>379</v>
+        <v>778</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3668,13 +4779,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>379</v>
+        <v>778</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3793,7 +4904,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>722</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3805,7 +4916,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>724</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3814,7 +4925,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0</v>
+        <v>159.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3859,7 +4970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3941,10 +5052,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>777</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3956,7 +5067,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>380</v>
+        <v>779</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3965,10 +5076,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="M2" t="n">
-        <v>4218728.0</v>
+        <v>4219387.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3994,7 +5105,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4006,7 +5117,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4015,7 +5126,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4078,7 +5189,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4095,7 +5206,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4112,7 +5223,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4129,7 +5240,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4146,7 +5257,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4315,7 +5426,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>380</v>
+        <v>779</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4559,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>380</v>
+        <v>779</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4774,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4857,7 +5968,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5118,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F3E5C7-A046-42D4-AD6A-3A3C6FA9F5A7}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5155,7 +6266,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5175,7 +6286,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5195,7 +6306,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5215,7 +6326,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5235,7 +6346,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5255,7 +6366,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5275,7 +6386,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5334,7 +6445,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5348,7 +6459,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="1047">
   <si>
     <t>TestCases</t>
   </si>
@@ -2394,6 +2394,798 @@
   </si>
   <si>
     <t>IDEP641718912127ZVI1</t>
+  </si>
+  <si>
+    <t>9093714693</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>ZeeshanSachar88771@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-02</t>
+  </si>
+  <si>
+    <t>566315055685802</t>
+  </si>
+  <si>
+    <t>ff93b09923d8e8fb</t>
+  </si>
+  <si>
+    <t>192906409202070</t>
+  </si>
+  <si>
+    <t>IDEP7146353916647KEP</t>
+  </si>
+  <si>
+    <t>7976057384</t>
+  </si>
+  <si>
+    <t>NawabMane59000@example.net</t>
+  </si>
+  <si>
+    <t>1986-12-03</t>
+  </si>
+  <si>
+    <t>021203299026273</t>
+  </si>
+  <si>
+    <t>39d82f9eba91ac90</t>
+  </si>
+  <si>
+    <t>423005495312108</t>
+  </si>
+  <si>
+    <t>IDEP647135924679C9I3</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999160967</t>
+  </si>
+  <si>
+    <t>RNULOB</t>
+  </si>
+  <si>
+    <t>59999643618</t>
+  </si>
+  <si>
+    <t>CMCTUJ</t>
+  </si>
+  <si>
+    <t>59999368284</t>
+  </si>
+  <si>
+    <t>GFSPGH</t>
+  </si>
+  <si>
+    <t>59999030211</t>
+  </si>
+  <si>
+    <t>NKDQIF</t>
+  </si>
+  <si>
+    <t>59999814337</t>
+  </si>
+  <si>
+    <t>HFCPEP</t>
+  </si>
+  <si>
+    <t>59999997794</t>
+  </si>
+  <si>
+    <t>SFQIUH</t>
+  </si>
+  <si>
+    <t>59999187270</t>
+  </si>
+  <si>
+    <t>AONHUI</t>
+  </si>
+  <si>
+    <t>59999247080</t>
+  </si>
+  <si>
+    <t>PKJLJQ</t>
+  </si>
+  <si>
+    <t>59999994326</t>
+  </si>
+  <si>
+    <t>BBOBHS</t>
+  </si>
+  <si>
+    <t>59999317454</t>
+  </si>
+  <si>
+    <t>SOJGAS</t>
+  </si>
+  <si>
+    <t>8540405566</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>RamGopalMehan49848@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-28</t>
+  </si>
+  <si>
+    <t>192489639256778</t>
+  </si>
+  <si>
+    <t>870968fe81611ca5</t>
+  </si>
+  <si>
+    <t>159849295463458</t>
+  </si>
+  <si>
+    <t>IDEP47613638888391X8</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>59999314255</t>
+  </si>
+  <si>
+    <t>AQPGLQ</t>
+  </si>
+  <si>
+    <t>BNPL4671365766136413</t>
+  </si>
+  <si>
+    <t>59999574562</t>
+  </si>
+  <si>
+    <t>JCPRPL</t>
+  </si>
+  <si>
+    <t>59999060697</t>
+  </si>
+  <si>
+    <t>GUSDAS</t>
+  </si>
+  <si>
+    <t>59999056151</t>
+  </si>
+  <si>
+    <t>GHRJGA</t>
+  </si>
+  <si>
+    <t>59999343025</t>
+  </si>
+  <si>
+    <t>EGJGQD</t>
+  </si>
+  <si>
+    <t>59999367573</t>
+  </si>
+  <si>
+    <t>TNQQGN</t>
+  </si>
+  <si>
+    <t>59999612236</t>
+  </si>
+  <si>
+    <t>CKUTNP</t>
+  </si>
+  <si>
+    <t>59999675677</t>
+  </si>
+  <si>
+    <t>JTUHLM</t>
+  </si>
+  <si>
+    <t>59999909043</t>
+  </si>
+  <si>
+    <t>LSLUSJ</t>
+  </si>
+  <si>
+    <t>59999890860</t>
+  </si>
+  <si>
+    <t>SGEADO</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>335577018540405566</t>
+  </si>
+  <si>
+    <t>ICIC86647310614</t>
+  </si>
+  <si>
+    <t>ICIC97093324118</t>
+  </si>
+  <si>
+    <t>9864045513</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>AatifSidhu52049@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-19</t>
+  </si>
+  <si>
+    <t>359182245474633</t>
+  </si>
+  <si>
+    <t>d6e8fd31d30a4283</t>
+  </si>
+  <si>
+    <t>543421456561358</t>
+  </si>
+  <si>
+    <t>IDEP714636725119PZ6W</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>59999116418</t>
+  </si>
+  <si>
+    <t>UKNODI</t>
+  </si>
+  <si>
+    <t>BNPL1764369274376392</t>
+  </si>
+  <si>
+    <t>59999970060</t>
+  </si>
+  <si>
+    <t>PGGNUQ</t>
+  </si>
+  <si>
+    <t>59999743592</t>
+  </si>
+  <si>
+    <t>NHJEAG</t>
+  </si>
+  <si>
+    <t>59999911089</t>
+  </si>
+  <si>
+    <t>RRLTNE</t>
+  </si>
+  <si>
+    <t>59999167025</t>
+  </si>
+  <si>
+    <t>STHJAP</t>
+  </si>
+  <si>
+    <t>59999487853</t>
+  </si>
+  <si>
+    <t>HACNSA</t>
+  </si>
+  <si>
+    <t>59999384263</t>
+  </si>
+  <si>
+    <t>RNSGHI</t>
+  </si>
+  <si>
+    <t>59999321818</t>
+  </si>
+  <si>
+    <t>UOJBDH</t>
+  </si>
+  <si>
+    <t>59999594502</t>
+  </si>
+  <si>
+    <t>TBKJNE</t>
+  </si>
+  <si>
+    <t>59999482410</t>
+  </si>
+  <si>
+    <t>NGTBIQ</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>335577019864045513</t>
+  </si>
+  <si>
+    <t>ICIC85090379669</t>
+  </si>
+  <si>
+    <t>ICIC88859096402</t>
+  </si>
+  <si>
+    <t>6940783559</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>RashidRao41193@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-14</t>
+  </si>
+  <si>
+    <t>291222526306699</t>
+  </si>
+  <si>
+    <t>343a9b1883bd7982</t>
+  </si>
+  <si>
+    <t>492686513096462</t>
+  </si>
+  <si>
+    <t>IDEP164737846593WTQZ</t>
+  </si>
+  <si>
+    <t>6761103181</t>
+  </si>
+  <si>
+    <t>AayushmanPandey18076@example.net</t>
+  </si>
+  <si>
+    <t>1991-05-16</t>
+  </si>
+  <si>
+    <t>688164601804449</t>
+  </si>
+  <si>
+    <t>b32eba25c97209a2</t>
+  </si>
+  <si>
+    <t>449399573715823</t>
+  </si>
+  <si>
+    <t>IDEP471638854189L4F7</t>
+  </si>
+  <si>
+    <t>6934002365</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>AneesBajaj72444@example.net</t>
+  </si>
+  <si>
+    <t>1995-08-23</t>
+  </si>
+  <si>
+    <t>837123114473811</t>
+  </si>
+  <si>
+    <t>3fcba02e0f7cffbd</t>
+  </si>
+  <si>
+    <t>610969177331954</t>
+  </si>
+  <si>
+    <t>IDEP716438292154JEKQ</t>
+  </si>
+  <si>
+    <t>59999631571</t>
+  </si>
+  <si>
+    <t>THLRNT</t>
+  </si>
+  <si>
+    <t>BNPL6147385849876235</t>
+  </si>
+  <si>
+    <t>59999877662</t>
+  </si>
+  <si>
+    <t>TGNQBR</t>
+  </si>
+  <si>
+    <t>59999732470</t>
+  </si>
+  <si>
+    <t>FINMIO</t>
+  </si>
+  <si>
+    <t>59999139150</t>
+  </si>
+  <si>
+    <t>IIEHGL</t>
+  </si>
+  <si>
+    <t>59999818475</t>
+  </si>
+  <si>
+    <t>OGPRBA</t>
+  </si>
+  <si>
+    <t>59999826931</t>
+  </si>
+  <si>
+    <t>FRADQA</t>
+  </si>
+  <si>
+    <t>59999347091</t>
+  </si>
+  <si>
+    <t>CFAFMB</t>
+  </si>
+  <si>
+    <t>59999622154</t>
+  </si>
+  <si>
+    <t>QIMEHT</t>
+  </si>
+  <si>
+    <t>59999313044</t>
+  </si>
+  <si>
+    <t>OLDOTS</t>
+  </si>
+  <si>
+    <t>59999875386</t>
+  </si>
+  <si>
+    <t>QQOJAO</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>335577016934002365</t>
+  </si>
+  <si>
+    <t>ICIC86889221223</t>
+  </si>
+  <si>
+    <t>ICIC96201691463</t>
+  </si>
+  <si>
+    <t>6202371170</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>ArjunLoyal28727@example.net</t>
+  </si>
+  <si>
+    <t>1988-01-14</t>
+  </si>
+  <si>
+    <t>214129022799927</t>
+  </si>
+  <si>
+    <t>940a39490686a102</t>
+  </si>
+  <si>
+    <t>235136918485292</t>
+  </si>
+  <si>
+    <t>IDEP461748121193ERK7</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>59999217241</t>
+  </si>
+  <si>
+    <t>MCOJBS</t>
+  </si>
+  <si>
+    <t>59999431752</t>
+  </si>
+  <si>
+    <t>RIUEDT</t>
+  </si>
+  <si>
+    <t>59999611977</t>
+  </si>
+  <si>
+    <t>OQMOHJ</t>
+  </si>
+  <si>
+    <t>59999838391</t>
+  </si>
+  <si>
+    <t>RQFKLL</t>
+  </si>
+  <si>
+    <t>59999914332</t>
+  </si>
+  <si>
+    <t>NDDOTE</t>
+  </si>
+  <si>
+    <t>59999412825</t>
+  </si>
+  <si>
+    <t>CJALFS</t>
+  </si>
+  <si>
+    <t>59999075871</t>
+  </si>
+  <si>
+    <t>LOTCHC</t>
+  </si>
+  <si>
+    <t>59999897419</t>
+  </si>
+  <si>
+    <t>IMHMUF</t>
+  </si>
+  <si>
+    <t>59999179937</t>
+  </si>
+  <si>
+    <t>ETUJDT</t>
+  </si>
+  <si>
+    <t>59999833213</t>
+  </si>
+  <si>
+    <t>DMLCPC</t>
+  </si>
+  <si>
+    <t>8449526857</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>PrabhatPrabhu18834@example.net</t>
+  </si>
+  <si>
+    <t>1983-09-05</t>
+  </si>
+  <si>
+    <t>234828045406990</t>
+  </si>
+  <si>
+    <t>73ef5033539fba5b</t>
+  </si>
+  <si>
+    <t>694079498198519</t>
+  </si>
+  <si>
+    <t>IDEP47164218759885ND</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999076713</t>
+  </si>
+  <si>
+    <t>DRJJNM</t>
+  </si>
+  <si>
+    <t>59999274256</t>
+  </si>
+  <si>
+    <t>IBEESK</t>
+  </si>
+  <si>
+    <t>59999123043</t>
+  </si>
+  <si>
+    <t>DCRRAG</t>
+  </si>
+  <si>
+    <t>59999348773</t>
+  </si>
+  <si>
+    <t>QKPOOC</t>
+  </si>
+  <si>
+    <t>59999349098</t>
+  </si>
+  <si>
+    <t>LEECNJ</t>
+  </si>
+  <si>
+    <t>59999329446</t>
+  </si>
+  <si>
+    <t>TODUNU</t>
+  </si>
+  <si>
+    <t>59999850756</t>
+  </si>
+  <si>
+    <t>GNLTPM</t>
+  </si>
+  <si>
+    <t>59999967262</t>
+  </si>
+  <si>
+    <t>DTEBHK</t>
+  </si>
+  <si>
+    <t>59999024984</t>
+  </si>
+  <si>
+    <t>ASJSIN</t>
+  </si>
+  <si>
+    <t>59999408940</t>
+  </si>
+  <si>
+    <t>GMQMPH</t>
+  </si>
+  <si>
+    <t>7509873595</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>TanayParsa28698@example.net</t>
+  </si>
+  <si>
+    <t>1990-11-26</t>
+  </si>
+  <si>
+    <t>393434186479743</t>
+  </si>
+  <si>
+    <t>a4224bde9d354f07</t>
+  </si>
+  <si>
+    <t>402144140670977</t>
+  </si>
+  <si>
+    <t>IDEP174643179313Y3TL</t>
+  </si>
+  <si>
+    <t>7709695269</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>RehmanBiswas46218@example.net</t>
+  </si>
+  <si>
+    <t>1986-11-12</t>
+  </si>
+  <si>
+    <t>474210649904002</t>
+  </si>
+  <si>
+    <t>c294f0ffaf8aea4c</t>
+  </si>
+  <si>
+    <t>703809962578856</t>
+  </si>
+  <si>
+    <t>IDEP164743351122JZXF</t>
+  </si>
+  <si>
+    <t>8803297524</t>
+  </si>
+  <si>
+    <t>Zeenat</t>
+  </si>
+  <si>
+    <t>AadishBhasin38871@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-28</t>
+  </si>
+  <si>
+    <t>011901648230825</t>
+  </si>
+  <si>
+    <t>2028b22ac7f50d2e</t>
+  </si>
+  <si>
+    <t>846864489658481</t>
+  </si>
+  <si>
+    <t>IDEP4671435182639FB7</t>
+  </si>
+  <si>
+    <t>9753181712</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>KalpitLata17598@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-31</t>
+  </si>
+  <si>
+    <t>981992802001579</t>
+  </si>
+  <si>
+    <t>b37f43675e5b01c3</t>
+  </si>
+  <si>
+    <t>494463507100454</t>
+  </si>
+  <si>
+    <t>IDEP714643693236SN8P</t>
+  </si>
+  <si>
+    <t>9742539237</t>
+  </si>
+  <si>
+    <t>HarbhajanKade11312@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-02</t>
+  </si>
+  <si>
+    <t>171224495247248</t>
+  </si>
+  <si>
+    <t>fd47e796e0fca8f7</t>
+  </si>
+  <si>
+    <t>484364751881603</t>
+  </si>
+  <si>
+    <t>IDEP416743868345DB7I</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3020,22 +3812,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>719</v>
+        <v>1006</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>1007</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3371,9 +4163,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>702</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3469,16 +4259,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>780</v>
+        <v>1044</v>
       </c>
       <c r="C2" t="s">
-        <v>781</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>1043</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3581,7 +4371,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>722</v>
+        <v>942</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3593,7 +4383,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>943</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3602,7 +4392,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3694,13 +4484,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4049,13 +4839,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4364,13 +5154,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4464,13 +5254,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4779,13 +5569,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4904,7 +5694,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>722</v>
+        <v>942</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4916,7 +5706,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>724</v>
+        <v>944</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4925,7 +5715,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5052,10 +5842,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="E2" t="s">
-        <v>777</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5067,7 +5857,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>779</v>
+        <v>1043</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5076,10 +5866,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="M2" t="n">
-        <v>4219387.0</v>
+        <v>4219757.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5126,7 +5916,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -5189,7 +5979,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5206,7 +5996,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5223,7 +6013,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5240,7 +6030,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5257,7 +6047,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5426,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>779</v>
+        <v>1043</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5670,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>779</v>
+        <v>1043</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5885,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5968,7 +6758,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6266,7 +7056,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6286,7 +7076,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6306,7 +7096,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -6326,7 +7116,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6346,7 +7136,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6366,7 +7156,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6386,7 +7176,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>782</v>
+        <v>1046</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6445,7 +7235,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6459,7 +7249,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="1384">
   <si>
     <t>TestCases</t>
   </si>
@@ -3186,6 +3186,1017 @@
   </si>
   <si>
     <t>IDEP416743868345DB7I</t>
+  </si>
+  <si>
+    <t>7214979511</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>RajeshPandey33783@example.net</t>
+  </si>
+  <si>
+    <t>1972-04-28</t>
+  </si>
+  <si>
+    <t>493722814861392</t>
+  </si>
+  <si>
+    <t>6cc4670bc81996db</t>
+  </si>
+  <si>
+    <t>788407723496290</t>
+  </si>
+  <si>
+    <t>IDEP4167895866185IU2</t>
+  </si>
+  <si>
+    <t>9573161296</t>
+  </si>
+  <si>
+    <t>SuryaKurian93395@example.net</t>
+  </si>
+  <si>
+    <t>1994-03-25</t>
+  </si>
+  <si>
+    <t>060220819208126</t>
+  </si>
+  <si>
+    <t>edda29b171e6ffe5</t>
+  </si>
+  <si>
+    <t>600900381588750</t>
+  </si>
+  <si>
+    <t>IDEP761489786319N39F</t>
+  </si>
+  <si>
+    <t>59999379782</t>
+  </si>
+  <si>
+    <t>NTNBSE</t>
+  </si>
+  <si>
+    <t>59999609604</t>
+  </si>
+  <si>
+    <t>BDBPNT</t>
+  </si>
+  <si>
+    <t>59999733491</t>
+  </si>
+  <si>
+    <t>LJLNKA</t>
+  </si>
+  <si>
+    <t>59999695545</t>
+  </si>
+  <si>
+    <t>DIBJGM</t>
+  </si>
+  <si>
+    <t>59999205904</t>
+  </si>
+  <si>
+    <t>RKHEBC</t>
+  </si>
+  <si>
+    <t>59999407556</t>
+  </si>
+  <si>
+    <t>PQUMBC</t>
+  </si>
+  <si>
+    <t>59999632585</t>
+  </si>
+  <si>
+    <t>FJDUKE</t>
+  </si>
+  <si>
+    <t>59999263493</t>
+  </si>
+  <si>
+    <t>BKRJBT</t>
+  </si>
+  <si>
+    <t>59999270367</t>
+  </si>
+  <si>
+    <t>SIGDQS</t>
+  </si>
+  <si>
+    <t>59999967821</t>
+  </si>
+  <si>
+    <t>KBEGRE</t>
+  </si>
+  <si>
+    <t>6520204924</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>LalitSinha95019@example.net</t>
+  </si>
+  <si>
+    <t>1981-09-03</t>
+  </si>
+  <si>
+    <t>104670242598386</t>
+  </si>
+  <si>
+    <t>9be6d5176844f92d</t>
+  </si>
+  <si>
+    <t>232504580274653</t>
+  </si>
+  <si>
+    <t>IDEP476111791948J4Y1</t>
+  </si>
+  <si>
+    <t>7926237478</t>
+  </si>
+  <si>
+    <t>ManpreetKapadia85611@example.net</t>
+  </si>
+  <si>
+    <t>1984-02-22</t>
+  </si>
+  <si>
+    <t>236799879477514</t>
+  </si>
+  <si>
+    <t>f9f210d3ecca7ca6</t>
+  </si>
+  <si>
+    <t>708448462337300</t>
+  </si>
+  <si>
+    <t>IDEP476112878887GH2W</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>59999360427</t>
+  </si>
+  <si>
+    <t>AKMATF</t>
+  </si>
+  <si>
+    <t>BNPL1647122829899841</t>
+  </si>
+  <si>
+    <t>59999949596</t>
+  </si>
+  <si>
+    <t>HDIPIP</t>
+  </si>
+  <si>
+    <t>59999393647</t>
+  </si>
+  <si>
+    <t>TNMORQ</t>
+  </si>
+  <si>
+    <t>59999272729</t>
+  </si>
+  <si>
+    <t>CDHIKB</t>
+  </si>
+  <si>
+    <t>59999651947</t>
+  </si>
+  <si>
+    <t>KCPPOL</t>
+  </si>
+  <si>
+    <t>59999869965</t>
+  </si>
+  <si>
+    <t>TTGNRI</t>
+  </si>
+  <si>
+    <t>59999396082</t>
+  </si>
+  <si>
+    <t>RHCBPF</t>
+  </si>
+  <si>
+    <t>59999805420</t>
+  </si>
+  <si>
+    <t>LNGTDA</t>
+  </si>
+  <si>
+    <t>59999337559</t>
+  </si>
+  <si>
+    <t>KCEAFI</t>
+  </si>
+  <si>
+    <t>59999315094</t>
+  </si>
+  <si>
+    <t>JEFCSL</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>335577017926237478</t>
+  </si>
+  <si>
+    <t>ICIC91907787269</t>
+  </si>
+  <si>
+    <t>ICIC81061113739</t>
+  </si>
+  <si>
+    <t>6402325123</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>MukulMurty20051@example.net</t>
+  </si>
+  <si>
+    <t>1994-06-13</t>
+  </si>
+  <si>
+    <t>680058977732069</t>
+  </si>
+  <si>
+    <t>0920957f8ed9aa8f</t>
+  </si>
+  <si>
+    <t>021001311896974</t>
+  </si>
+  <si>
+    <t>IDEP1467129548686XIP</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999510722</t>
+  </si>
+  <si>
+    <t>MFGLBJ</t>
+  </si>
+  <si>
+    <t>BNPL4716131468127165</t>
+  </si>
+  <si>
+    <t>59999700405</t>
+  </si>
+  <si>
+    <t>CEHKAU</t>
+  </si>
+  <si>
+    <t>59999655961</t>
+  </si>
+  <si>
+    <t>OJFKGU</t>
+  </si>
+  <si>
+    <t>59999463849</t>
+  </si>
+  <si>
+    <t>NASBIK</t>
+  </si>
+  <si>
+    <t>59999469414</t>
+  </si>
+  <si>
+    <t>TFCEBT</t>
+  </si>
+  <si>
+    <t>59999081107</t>
+  </si>
+  <si>
+    <t>PCMDNK</t>
+  </si>
+  <si>
+    <t>59999589968</t>
+  </si>
+  <si>
+    <t>FQNRQM</t>
+  </si>
+  <si>
+    <t>59999359514</t>
+  </si>
+  <si>
+    <t>SLGLNT</t>
+  </si>
+  <si>
+    <t>59999238447</t>
+  </si>
+  <si>
+    <t>PRTCSB</t>
+  </si>
+  <si>
+    <t>59999592835</t>
+  </si>
+  <si>
+    <t>UKJQHH</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>335577016402325123</t>
+  </si>
+  <si>
+    <t>ICIC96372178056</t>
+  </si>
+  <si>
+    <t>ICIC88665401665</t>
+  </si>
+  <si>
+    <t>7141825283</t>
+  </si>
+  <si>
+    <t>AbhinavChandran32698@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-04</t>
+  </si>
+  <si>
+    <t>312206470550985</t>
+  </si>
+  <si>
+    <t>c9d914aa6ab73dd9</t>
+  </si>
+  <si>
+    <t>934899987375702</t>
+  </si>
+  <si>
+    <t>IDEP6714284577283OHX</t>
+  </si>
+  <si>
+    <t>59999609471</t>
+  </si>
+  <si>
+    <t>DBCCLO</t>
+  </si>
+  <si>
+    <t>BNPL4761286424675394</t>
+  </si>
+  <si>
+    <t>59999133303</t>
+  </si>
+  <si>
+    <t>GFANTM</t>
+  </si>
+  <si>
+    <t>59999559796</t>
+  </si>
+  <si>
+    <t>LKMTMS</t>
+  </si>
+  <si>
+    <t>59999596155</t>
+  </si>
+  <si>
+    <t>DFUTGE</t>
+  </si>
+  <si>
+    <t>59999173051</t>
+  </si>
+  <si>
+    <t>KAJNFF</t>
+  </si>
+  <si>
+    <t>59999427289</t>
+  </si>
+  <si>
+    <t>PDGNIK</t>
+  </si>
+  <si>
+    <t>59999618888</t>
+  </si>
+  <si>
+    <t>FRAHAT</t>
+  </si>
+  <si>
+    <t>59999466866</t>
+  </si>
+  <si>
+    <t>KJMSBE</t>
+  </si>
+  <si>
+    <t>59999839486</t>
+  </si>
+  <si>
+    <t>CMPQQL</t>
+  </si>
+  <si>
+    <t>59999794363</t>
+  </si>
+  <si>
+    <t>IQPELT</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>335577017141825283</t>
+  </si>
+  <si>
+    <t>ICIC89987597468</t>
+  </si>
+  <si>
+    <t>ICIC95238253010</t>
+  </si>
+  <si>
+    <t>9604962194</t>
+  </si>
+  <si>
+    <t>Tejaswani</t>
+  </si>
+  <si>
+    <t>MehulDeo14113@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-26</t>
+  </si>
+  <si>
+    <t>890884425885134</t>
+  </si>
+  <si>
+    <t>3609e436e8ab2b57</t>
+  </si>
+  <si>
+    <t>722738395662382</t>
+  </si>
+  <si>
+    <t>IDEP467129822935O2WD</t>
+  </si>
+  <si>
+    <t>8827768491</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>UmeshDas18819@example.net</t>
+  </si>
+  <si>
+    <t>1977-07-12</t>
+  </si>
+  <si>
+    <t>378552758893485</t>
+  </si>
+  <si>
+    <t>873357aecf9b9922</t>
+  </si>
+  <si>
+    <t>023561682533728</t>
+  </si>
+  <si>
+    <t>IDEP761438823388F3JD</t>
+  </si>
+  <si>
+    <t>9344331490</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>HrishikeshTiwari18334@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-04</t>
+  </si>
+  <si>
+    <t>522447570685521</t>
+  </si>
+  <si>
+    <t>4304c2a4789b5a21</t>
+  </si>
+  <si>
+    <t>804300151752286</t>
+  </si>
+  <si>
+    <t>IDEP614738212239U247</t>
+  </si>
+  <si>
+    <t>9030885173</t>
+  </si>
+  <si>
+    <t>WafiqKhare53811@example.net</t>
+  </si>
+  <si>
+    <t>1984-10-13</t>
+  </si>
+  <si>
+    <t>540112954113197</t>
+  </si>
+  <si>
+    <t>fa13d953a0173255</t>
+  </si>
+  <si>
+    <t>443993743723539</t>
+  </si>
+  <si>
+    <t>IDEP614738483354AR4N</t>
+  </si>
+  <si>
+    <t>9878885189</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>ViratBajaj49256@example.net</t>
+  </si>
+  <si>
+    <t>1973-11-01</t>
+  </si>
+  <si>
+    <t>739836196770429</t>
+  </si>
+  <si>
+    <t>05d0e7eecda41bd7</t>
+  </si>
+  <si>
+    <t>466699138367160</t>
+  </si>
+  <si>
+    <t>IDEP6714985445316MN8</t>
+  </si>
+  <si>
+    <t>8318199827</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>RahimSetty20297@example.net</t>
+  </si>
+  <si>
+    <t>1990-02-14</t>
+  </si>
+  <si>
+    <t>080485892414182</t>
+  </si>
+  <si>
+    <t>487e83a934e588e7</t>
+  </si>
+  <si>
+    <t>148975417170277</t>
+  </si>
+  <si>
+    <t>IDEP641713963188S6M3</t>
+  </si>
+  <si>
+    <t>6329833790</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>PirzadaNazareth67178@example.net</t>
+  </si>
+  <si>
+    <t>1988-11-14</t>
+  </si>
+  <si>
+    <t>294814747214541</t>
+  </si>
+  <si>
+    <t>d027d140f18826d2</t>
+  </si>
+  <si>
+    <t>064393226197079</t>
+  </si>
+  <si>
+    <t>IDEP461715583483E6PZ</t>
+  </si>
+  <si>
+    <t>9944006563</t>
+  </si>
+  <si>
+    <t>Runjhun</t>
+  </si>
+  <si>
+    <t>QabeelParekh77172@example.net</t>
+  </si>
+  <si>
+    <t>1971-09-15</t>
+  </si>
+  <si>
+    <t>342090184828950</t>
+  </si>
+  <si>
+    <t>bb8f33c7d51b1b70</t>
+  </si>
+  <si>
+    <t>300242083561543</t>
+  </si>
+  <si>
+    <t>IDEP764115782898HYLD</t>
+  </si>
+  <si>
+    <t>6922100787</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>SaurabhDua64162@example.net</t>
+  </si>
+  <si>
+    <t>1987-12-31</t>
+  </si>
+  <si>
+    <t>079351124640213</t>
+  </si>
+  <si>
+    <t>4ba55188aecce00d</t>
+  </si>
+  <si>
+    <t>255827965771759</t>
+  </si>
+  <si>
+    <t>IDEP416751668883JUZX</t>
+  </si>
+  <si>
+    <t>8960988520</t>
+  </si>
+  <si>
+    <t>Sukriti</t>
+  </si>
+  <si>
+    <t>RajuBalan66012@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-16</t>
+  </si>
+  <si>
+    <t>894805813712511</t>
+  </si>
+  <si>
+    <t>211c04837703963c</t>
+  </si>
+  <si>
+    <t>153260752793963</t>
+  </si>
+  <si>
+    <t>IDEP76146827826987AS</t>
+  </si>
+  <si>
+    <t>6770369581</t>
+  </si>
+  <si>
+    <t>Falguni</t>
+  </si>
+  <si>
+    <t>FakaruddinChanda54069@example.net</t>
+  </si>
+  <si>
+    <t>355956708365600</t>
+  </si>
+  <si>
+    <t>c627c1381bcd032d</t>
+  </si>
+  <si>
+    <t>312271736005976</t>
+  </si>
+  <si>
+    <t>IDEP741668686711RDLS</t>
+  </si>
+  <si>
+    <t>8387925258</t>
+  </si>
+  <si>
+    <t>PreetMurthy64729@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-19</t>
+  </si>
+  <si>
+    <t>176319410016218</t>
+  </si>
+  <si>
+    <t>13b082907e2ccdd8</t>
+  </si>
+  <si>
+    <t>955530755618551</t>
+  </si>
+  <si>
+    <t>IDEP614768865596TO1M</t>
+  </si>
+  <si>
+    <t>9945657397</t>
+  </si>
+  <si>
+    <t>JawaharVig97986@example.net</t>
+  </si>
+  <si>
+    <t>1986-07-03</t>
+  </si>
+  <si>
+    <t>465432208737794</t>
+  </si>
+  <si>
+    <t>d316e7dac3c0d4e5</t>
+  </si>
+  <si>
+    <t>798408307689324</t>
+  </si>
+  <si>
+    <t>IDEP7146693619825DXY</t>
+  </si>
+  <si>
+    <t>7367074016</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>ZaadTank77759@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-27</t>
+  </si>
+  <si>
+    <t>146589485972548</t>
+  </si>
+  <si>
+    <t>edbf594d749fdc1d</t>
+  </si>
+  <si>
+    <t>491111230301781</t>
+  </si>
+  <si>
+    <t>IDEP714669628199RA91</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59999657239</t>
+  </si>
+  <si>
+    <t>IMMHFU</t>
+  </si>
+  <si>
+    <t>BNPL4167698123774395</t>
+  </si>
+  <si>
+    <t>59999624099</t>
+  </si>
+  <si>
+    <t>PUMTPU</t>
+  </si>
+  <si>
+    <t>59999592221</t>
+  </si>
+  <si>
+    <t>QUDKQC</t>
+  </si>
+  <si>
+    <t>59999041563</t>
+  </si>
+  <si>
+    <t>IHIJBB</t>
+  </si>
+  <si>
+    <t>59999034169</t>
+  </si>
+  <si>
+    <t>HAGQDF</t>
+  </si>
+  <si>
+    <t>59999146727</t>
+  </si>
+  <si>
+    <t>ORMDAT</t>
+  </si>
+  <si>
+    <t>59999837937</t>
+  </si>
+  <si>
+    <t>DBMRDK</t>
+  </si>
+  <si>
+    <t>59999997081</t>
+  </si>
+  <si>
+    <t>CHAMRS</t>
+  </si>
+  <si>
+    <t>59999614984</t>
+  </si>
+  <si>
+    <t>GDRFJS</t>
+  </si>
+  <si>
+    <t>59999096907</t>
+  </si>
+  <si>
+    <t>FCGUAL</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>335577017367074016</t>
+  </si>
+  <si>
+    <t>ICIC84102738057</t>
+  </si>
+  <si>
+    <t>ICIC87606207486</t>
+  </si>
+  <si>
+    <t>9810256306</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>KailashArya53676@example.net</t>
+  </si>
+  <si>
+    <t>1981-09-28</t>
+  </si>
+  <si>
+    <t>644947399486343</t>
+  </si>
+  <si>
+    <t>c83c833e1b38e215</t>
+  </si>
+  <si>
+    <t>021310264150291</t>
+  </si>
+  <si>
+    <t>IDEP764174393193CFLO</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>59999587801</t>
+  </si>
+  <si>
+    <t>EERIFA</t>
+  </si>
+  <si>
+    <t>BNPL1764745723885734</t>
+  </si>
+  <si>
+    <t>59999708616</t>
+  </si>
+  <si>
+    <t>BBRKGN</t>
+  </si>
+  <si>
+    <t>59999239216</t>
+  </si>
+  <si>
+    <t>PKADFN</t>
+  </si>
+  <si>
+    <t>59999826151</t>
+  </si>
+  <si>
+    <t>EAHHEL</t>
+  </si>
+  <si>
+    <t>59999220367</t>
+  </si>
+  <si>
+    <t>HJDAPB</t>
+  </si>
+  <si>
+    <t>59999805662</t>
+  </si>
+  <si>
+    <t>ERCBPH</t>
+  </si>
+  <si>
+    <t>59999957297</t>
+  </si>
+  <si>
+    <t>FFOGNF</t>
+  </si>
+  <si>
+    <t>59999261452</t>
+  </si>
+  <si>
+    <t>JJTUUB</t>
+  </si>
+  <si>
+    <t>59999656169</t>
+  </si>
+  <si>
+    <t>EARLEC</t>
+  </si>
+  <si>
+    <t>59999173805</t>
+  </si>
+  <si>
+    <t>LNRUKN</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>335577019810256306</t>
+  </si>
+  <si>
+    <t>ICIC82023800413</t>
+  </si>
+  <si>
+    <t>ICIC93334610588</t>
+  </si>
+  <si>
+    <t>6147357734</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>DhanushVarghese47412@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-17</t>
+  </si>
+  <si>
+    <t>737273353460093</t>
+  </si>
+  <si>
+    <t>ee21b765e06860fb</t>
+  </si>
+  <si>
+    <t>822875192999838</t>
+  </si>
+  <si>
+    <t>IDEP7614763484816UIS</t>
+  </si>
+  <si>
+    <t>7799076892</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>ZeeshanRamanathan83624@example.net</t>
+  </si>
+  <si>
+    <t>1987-03-25</t>
+  </si>
+  <si>
+    <t>762275521608832</t>
+  </si>
+  <si>
+    <t>92727aabaeea2020</t>
+  </si>
+  <si>
+    <t>683606941076273</t>
+  </si>
+  <si>
+    <t>8032159207</t>
+  </si>
+  <si>
+    <t>HemendraMallick22605@example.net</t>
+  </si>
+  <si>
+    <t>1971-04-08</t>
+  </si>
+  <si>
+    <t>044854121876906</t>
+  </si>
+  <si>
+    <t>8342d9c11649403f</t>
+  </si>
+  <si>
+    <t>583009636503894</t>
+  </si>
+  <si>
+    <t>IDEP461738463834WH9N</t>
   </si>
 </sst>
 </file>
@@ -3692,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3812,22 +4823,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1006</v>
+        <v>1356</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>1007</v>
+        <v>1357</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4163,7 +5174,9 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1339</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -4259,16 +5272,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1044</v>
+        <v>1381</v>
       </c>
       <c r="C2" t="s">
-        <v>1045</v>
+        <v>1382</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1043</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4371,7 +5384,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>1359</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4383,7 +5396,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>943</v>
+        <v>1360</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4392,7 +5405,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4484,13 +5497,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4839,13 +5852,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5154,13 +6167,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5254,13 +6267,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5569,13 +6582,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1042</v>
+        <v>1379</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5694,7 +6707,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>1359</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5706,7 +6719,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>944</v>
+        <v>1361</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5715,7 +6728,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5842,10 +6855,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="E2" t="s">
-        <v>1041</v>
+        <v>1378</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5857,7 +6870,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1043</v>
+        <v>1380</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5866,10 +6879,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="M2" t="n">
-        <v>4219757.0</v>
+        <v>4220951.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5916,7 +6929,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -5979,7 +6992,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5996,7 +7009,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6013,7 +7026,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6030,7 +7043,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6047,7 +7060,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1040</v>
+        <v>1377</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6216,7 +7229,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1043</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6460,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1043</v>
+        <v>1380</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6675,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6758,7 +7771,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -7056,7 +8069,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7076,7 +8089,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7096,7 +8109,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -7116,7 +8129,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7136,7 +8149,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7156,7 +8169,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7176,7 +8189,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1046</v>
+        <v>1383</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7235,7 +8248,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -7249,7 +8262,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E64DA-8249-4AAF-9280-30A81C84229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1592351-B692-424D-BA76-1C90F994F56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="573">
   <si>
     <t>TestCases</t>
   </si>
@@ -785,3418 +785,985 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>Pushpa</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>BNPL3176651422684175</t>
-  </si>
-  <si>
-    <t>59999519948</t>
-  </si>
-  <si>
-    <t>MGRTKB</t>
-  </si>
-  <si>
-    <t>335577019036707837</t>
-  </si>
-  <si>
-    <t>ICIC99956045699</t>
-  </si>
-  <si>
-    <t>ICIC94402083923</t>
-  </si>
-  <si>
-    <t>6959299811</t>
-  </si>
-  <si>
-    <t>SushantParikh33391@example.net</t>
-  </si>
-  <si>
-    <t>1982-12-14</t>
-  </si>
-  <si>
-    <t>849353618219149</t>
-  </si>
-  <si>
-    <t>a0b3417e6839e7de</t>
-  </si>
-  <si>
-    <t>094687011915601</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>FerozParikh26058@example.net</t>
+  </si>
+  <si>
+    <t>677372113053461</t>
+  </si>
+  <si>
+    <t>BNPL1746435935822746</t>
+  </si>
+  <si>
+    <t>59999304059</t>
+  </si>
+  <si>
+    <t>AAFSDD</t>
+  </si>
+  <si>
+    <t>335577019964818008</t>
+  </si>
+  <si>
+    <t>ICIC87011401596</t>
+  </si>
+  <si>
+    <t>ICIC83445618430</t>
+  </si>
+  <si>
+    <t>9737447009</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>TabeedSehgal16390@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-10</t>
+  </si>
+  <si>
+    <t>708829054973018</t>
+  </si>
+  <si>
+    <t>ff9564b26c083c32</t>
+  </si>
+  <si>
+    <t>463140970949271</t>
+  </si>
+  <si>
+    <t>IDEP7146438943191U2T</t>
+  </si>
+  <si>
+    <t>7184619939</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>AadilParmer18135@example.net</t>
+  </si>
+  <si>
+    <t>1982-11-30</t>
+  </si>
+  <si>
+    <t>712916051851497</t>
+  </si>
+  <si>
+    <t>e335f359ede51caf</t>
+  </si>
+  <si>
+    <t>985660605441914</t>
+  </si>
+  <si>
+    <t>IDEP4671441258688ZC3</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>170</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>IDEP376149482988UBED</t>
-  </si>
-  <si>
-    <t>8651233111</t>
-  </si>
-  <si>
-    <t>Tulsi</t>
-  </si>
-  <si>
-    <t>DaanishKunda48111@example.net</t>
-  </si>
-  <si>
-    <t>1976-06-18</t>
-  </si>
-  <si>
-    <t>050197754480245</t>
-  </si>
-  <si>
-    <t>0d47c1d56e51e1bf</t>
-  </si>
-  <si>
-    <t>234754504014424</t>
-  </si>
-  <si>
-    <t>IDEP371649937791UIPH</t>
-  </si>
-  <si>
-    <t>9789694184</t>
-  </si>
-  <si>
-    <t>Munni</t>
-  </si>
-  <si>
-    <t>VikrantPersaud16378@example.net</t>
-  </si>
-  <si>
-    <t>1993-10-23</t>
-  </si>
-  <si>
-    <t>309813726227410</t>
-  </si>
-  <si>
-    <t>07f2c55036286484</t>
-  </si>
-  <si>
-    <t>356626778432262</t>
-  </si>
-  <si>
-    <t>IDEP763122443793WK6N</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>170</t>
+    <t>118</t>
+  </si>
+  <si>
+    <t>59999133549</t>
+  </si>
+  <si>
+    <t>TFMTSF</t>
+  </si>
+  <si>
+    <t>BNPL6741443884897241</t>
+  </si>
+  <si>
+    <t>59999079750</t>
+  </si>
+  <si>
+    <t>DLHQCE</t>
+  </si>
+  <si>
+    <t>59999236632</t>
+  </si>
+  <si>
+    <t>KAMOTG</t>
+  </si>
+  <si>
+    <t>59999390337</t>
+  </si>
+  <si>
+    <t>NMHJHJ</t>
+  </si>
+  <si>
+    <t>59999295939</t>
+  </si>
+  <si>
+    <t>FECCBR</t>
+  </si>
+  <si>
+    <t>59999033445</t>
+  </si>
+  <si>
+    <t>FFBOSN</t>
+  </si>
+  <si>
+    <t>59999868476</t>
+  </si>
+  <si>
+    <t>DSTNKC</t>
+  </si>
+  <si>
+    <t>59999497927</t>
+  </si>
+  <si>
+    <t>TTCFGO</t>
+  </si>
+  <si>
+    <t>59999696724</t>
+  </si>
+  <si>
+    <t>DCASLL</t>
+  </si>
+  <si>
+    <t>59999209041</t>
+  </si>
+  <si>
+    <t>UUQUIC</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>335577017184619939</t>
+  </si>
+  <si>
+    <t>ICIC87848812076</t>
+  </si>
+  <si>
+    <t>ICIC98448776093</t>
+  </si>
+  <si>
+    <t>8755266149</t>
+  </si>
+  <si>
+    <t>Urvashi</t>
+  </si>
+  <si>
+    <t>RajendraDhaliwal68022@example.net</t>
+  </si>
+  <si>
+    <t>1975-10-25</t>
+  </si>
+  <si>
+    <t>199166664771797</t>
+  </si>
+  <si>
+    <t>46c835ab7b8de1d5</t>
+  </si>
+  <si>
+    <t>780943710640340</t>
+  </si>
+  <si>
+    <t>IDEP746144525814JSGK</t>
+  </si>
+  <si>
+    <t>6153361457</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>SubhashMisra29393@example.net</t>
+  </si>
+  <si>
+    <t>1972-12-21</t>
+  </si>
+  <si>
+    <t>096179400975352</t>
+  </si>
+  <si>
+    <t>1668e98241a4cbfe</t>
+  </si>
+  <si>
+    <t>928186834657617</t>
+  </si>
+  <si>
+    <t>IDEP1746446489856O8E</t>
+  </si>
+  <si>
+    <t>8568799385</t>
+  </si>
+  <si>
+    <t>Jayshree</t>
+  </si>
+  <si>
+    <t>SubhashSheth89971@example.net</t>
+  </si>
+  <si>
+    <t>1981-12-27</t>
+  </si>
+  <si>
+    <t>272840781378666</t>
+  </si>
+  <si>
+    <t>eee8ed94d56c9ae1</t>
+  </si>
+  <si>
+    <t>314645750790258</t>
+  </si>
+  <si>
+    <t>IDEP174644879488UG6H</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>59999334849</t>
+  </si>
+  <si>
+    <t>CPEHFA</t>
+  </si>
+  <si>
+    <t>BNPL6471458626689562</t>
+  </si>
+  <si>
+    <t>59999073622</t>
+  </si>
+  <si>
+    <t>TMPKIB</t>
+  </si>
+  <si>
+    <t>59999056833</t>
+  </si>
+  <si>
+    <t>DESHPN</t>
+  </si>
+  <si>
+    <t>59999061495</t>
+  </si>
+  <si>
+    <t>CBCDIF</t>
+  </si>
+  <si>
+    <t>59999765191</t>
+  </si>
+  <si>
+    <t>MGSMAF</t>
+  </si>
+  <si>
+    <t>59999652210</t>
+  </si>
+  <si>
+    <t>KGJPSR</t>
+  </si>
+  <si>
+    <t>59999943046</t>
+  </si>
+  <si>
+    <t>RUSUBR</t>
+  </si>
+  <si>
+    <t>59999459227</t>
+  </si>
+  <si>
+    <t>RQLTFH</t>
+  </si>
+  <si>
+    <t>59999947130</t>
+  </si>
+  <si>
+    <t>HICCRE</t>
+  </si>
+  <si>
+    <t>59999517722</t>
+  </si>
+  <si>
+    <t>RPIPEP</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>335577018568799385</t>
+  </si>
+  <si>
+    <t>ICIC99976046029</t>
+  </si>
+  <si>
+    <t>ICIC81163430213</t>
+  </si>
+  <si>
+    <t>8333212923</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>JaswantDin69330@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-05</t>
+  </si>
+  <si>
+    <t>035895162031415</t>
+  </si>
+  <si>
+    <t>d56ad1b279dd049d</t>
+  </si>
+  <si>
+    <t>694553645326504</t>
+  </si>
+  <si>
+    <t>IDEP174646867725JRFI</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>59999341617</t>
+  </si>
+  <si>
+    <t>SONGPH</t>
+  </si>
+  <si>
+    <t>BNPL6174462558547589</t>
+  </si>
+  <si>
+    <t>59999558989</t>
+  </si>
+  <si>
+    <t>PRFUHA</t>
+  </si>
+  <si>
+    <t>59999557687</t>
+  </si>
+  <si>
+    <t>BMELRK</t>
+  </si>
+  <si>
+    <t>59999322162</t>
+  </si>
+  <si>
+    <t>GNQSND</t>
+  </si>
+  <si>
+    <t>59999359938</t>
+  </si>
+  <si>
+    <t>MSEJNF</t>
+  </si>
+  <si>
+    <t>59999899418</t>
+  </si>
+  <si>
+    <t>MUBFUF</t>
+  </si>
+  <si>
+    <t>59999835400</t>
+  </si>
+  <si>
+    <t>ARNKMF</t>
+  </si>
+  <si>
+    <t>59999494577</t>
+  </si>
+  <si>
+    <t>NCMDUA</t>
+  </si>
+  <si>
+    <t>59999212917</t>
+  </si>
+  <si>
+    <t>LIHRJI</t>
+  </si>
+  <si>
+    <t>59999223107</t>
+  </si>
+  <si>
+    <t>NQQEPR</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>335577018333212923</t>
+  </si>
+  <si>
+    <t>ICIC85450784947</t>
+  </si>
+  <si>
+    <t>ICIC91756012766</t>
+  </si>
+  <si>
+    <t>8676168350</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>MukundDivan81326@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-25</t>
+  </si>
+  <si>
+    <t>313244490420342</t>
+  </si>
+  <si>
+    <t>47ff2f891217304d</t>
+  </si>
+  <si>
+    <t>713738242759549</t>
+  </si>
+  <si>
+    <t>IDEP164747652874IUS6</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>59999436383</t>
+  </si>
+  <si>
+    <t>EKEAAG</t>
+  </si>
+  <si>
+    <t>59999991332</t>
+  </si>
+  <si>
+    <t>OSELSQ</t>
+  </si>
+  <si>
+    <t>59999613880</t>
+  </si>
+  <si>
+    <t>AFRSKJ</t>
+  </si>
+  <si>
+    <t>59999460696</t>
+  </si>
+  <si>
+    <t>TLCOGN</t>
+  </si>
+  <si>
+    <t>59999237795</t>
+  </si>
+  <si>
+    <t>NCBIGH</t>
+  </si>
+  <si>
+    <t>59999186814</t>
+  </si>
+  <si>
+    <t>IURCLI</t>
+  </si>
+  <si>
+    <t>59999015190</t>
+  </si>
+  <si>
+    <t>RNNOAM</t>
+  </si>
+  <si>
+    <t>59999703004</t>
+  </si>
+  <si>
+    <t>UODBPS</t>
+  </si>
+  <si>
+    <t>59999133394</t>
+  </si>
+  <si>
+    <t>NLHFUD</t>
+  </si>
+  <si>
+    <t>59999616291</t>
+  </si>
+  <si>
+    <t>JQEDJG</t>
+  </si>
+  <si>
+    <t>8415473470</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>RupeshNarain89240@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-26</t>
+  </si>
+  <si>
+    <t>515831250194525</t>
+  </si>
+  <si>
+    <t>aebd4e84d1098b55</t>
+  </si>
+  <si>
+    <t>175882918959198</t>
+  </si>
+  <si>
+    <t>IDEP764149319598X8L6</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>59999424193</t>
+  </si>
+  <si>
+    <t>NKOSOQ</t>
+  </si>
+  <si>
+    <t>BNPL6471494985682597</t>
+  </si>
+  <si>
+    <t>59999775813</t>
+  </si>
+  <si>
+    <t>SRSAJI</t>
+  </si>
+  <si>
+    <t>59999781887</t>
+  </si>
+  <si>
+    <t>FCPJLC</t>
+  </si>
+  <si>
+    <t>59999858404</t>
+  </si>
+  <si>
+    <t>BPNCMD</t>
+  </si>
+  <si>
+    <t>59999384961</t>
+  </si>
+  <si>
+    <t>CMLKLK</t>
+  </si>
+  <si>
+    <t>59999938072</t>
+  </si>
+  <si>
+    <t>FQMFIN</t>
+  </si>
+  <si>
+    <t>59999034924</t>
+  </si>
+  <si>
+    <t>EAHPDJ</t>
+  </si>
+  <si>
+    <t>59999703352</t>
+  </si>
+  <si>
+    <t>TMLMQL</t>
+  </si>
+  <si>
+    <t>59999568393</t>
+  </si>
+  <si>
+    <t>MQPDEE</t>
+  </si>
+  <si>
+    <t>59999982948</t>
+  </si>
+  <si>
+    <t>ILUCNC</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>335577018415473470</t>
+  </si>
+  <si>
+    <t>ICIC86433703568</t>
+  </si>
+  <si>
+    <t>ICIC92709087602</t>
+  </si>
+  <si>
+    <t>7636430833</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>MiteshSarkar28076@example.net</t>
+  </si>
+  <si>
+    <t>1973-07-14</t>
+  </si>
+  <si>
+    <t>981736270385125</t>
+  </si>
+  <si>
+    <t>539635ab0aa3bf50</t>
+  </si>
+  <si>
+    <t>565208629651791</t>
+  </si>
+  <si>
+    <t>IDEP764117425846R813</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>59999701541</t>
-  </si>
-  <si>
-    <t>FRAKNO</t>
-  </si>
-  <si>
-    <t>59999979383</t>
-  </si>
-  <si>
-    <t>MBUOGG</t>
-  </si>
-  <si>
-    <t>59999443135</t>
-  </si>
-  <si>
-    <t>UEIOHA</t>
-  </si>
-  <si>
-    <t>59999368096</t>
-  </si>
-  <si>
-    <t>DIKHJM</t>
-  </si>
-  <si>
-    <t>59999225420</t>
-  </si>
-  <si>
-    <t>UQATEI</t>
-  </si>
-  <si>
-    <t>59999331239</t>
-  </si>
-  <si>
-    <t>ICKQHT</t>
-  </si>
-  <si>
-    <t>59999388126</t>
-  </si>
-  <si>
-    <t>ORRUKI</t>
-  </si>
-  <si>
-    <t>59999180569</t>
-  </si>
-  <si>
-    <t>PISAOJ</t>
-  </si>
-  <si>
-    <t>59999332874</t>
-  </si>
-  <si>
-    <t>GRFORA</t>
-  </si>
-  <si>
-    <t>59999332302</t>
-  </si>
-  <si>
-    <t>SFDPNJ</t>
-  </si>
-  <si>
-    <t>9373143226</t>
-  </si>
-  <si>
-    <t>Aarti</t>
-  </si>
-  <si>
-    <t>TaahidPau98969@example.net</t>
-  </si>
-  <si>
-    <t>1986-02-18</t>
-  </si>
-  <si>
-    <t>004951467777108</t>
-  </si>
-  <si>
-    <t>6bf13daf60eaba73</t>
-  </si>
-  <si>
-    <t>927564495921228</t>
-  </si>
-  <si>
-    <t>IDEP371623953248YA3X</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>59999892072</t>
-  </si>
-  <si>
-    <t>OFSPOL</t>
-  </si>
-  <si>
-    <t>59999335140</t>
-  </si>
-  <si>
-    <t>MTQNOM</t>
-  </si>
-  <si>
-    <t>59999384322</t>
-  </si>
-  <si>
-    <t>RQASNF</t>
-  </si>
-  <si>
-    <t>59999545923</t>
-  </si>
-  <si>
-    <t>MHSIAM</t>
-  </si>
-  <si>
-    <t>59999470103</t>
-  </si>
-  <si>
-    <t>QLCGRP</t>
-  </si>
-  <si>
-    <t>59999699575</t>
-  </si>
-  <si>
-    <t>BBFJOJ</t>
-  </si>
-  <si>
-    <t>59999691080</t>
-  </si>
-  <si>
-    <t>GHUKRT</t>
-  </si>
-  <si>
-    <t>59999773375</t>
-  </si>
-  <si>
-    <t>PIRUDF</t>
-  </si>
-  <si>
-    <t>59999457691</t>
-  </si>
-  <si>
-    <t>GIQFQE</t>
-  </si>
-  <si>
-    <t>59999032400</t>
-  </si>
-  <si>
-    <t>JJRHCD</t>
-  </si>
-  <si>
-    <t>8086231690</t>
-  </si>
-  <si>
-    <t>Aisha</t>
-  </si>
-  <si>
-    <t>FerozParikh26058@example.net</t>
-  </si>
-  <si>
-    <t>1971-11-23</t>
-  </si>
-  <si>
-    <t>677372113053461</t>
-  </si>
-  <si>
-    <t>72433e1e260bf3d8</t>
-  </si>
-  <si>
-    <t>019210724838218</t>
-  </si>
-  <si>
-    <t>IDEP3617259388269SVA</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>59999468154</t>
-  </si>
-  <si>
-    <t>QUUAKC</t>
-  </si>
-  <si>
-    <t>BNPL6713261441489157</t>
-  </si>
-  <si>
-    <t>59999656957</t>
-  </si>
-  <si>
-    <t>LEMAMM</t>
-  </si>
-  <si>
-    <t>59999599988</t>
-  </si>
-  <si>
-    <t>HRQISJ</t>
-  </si>
-  <si>
-    <t>59999237894</t>
-  </si>
-  <si>
-    <t>CAHFHA</t>
-  </si>
-  <si>
-    <t>59999222006</t>
-  </si>
-  <si>
-    <t>QTDBBU</t>
-  </si>
-  <si>
-    <t>59999598233</t>
-  </si>
-  <si>
-    <t>ECARJU</t>
-  </si>
-  <si>
-    <t>59999057538</t>
-  </si>
-  <si>
-    <t>IPCTAR</t>
-  </si>
-  <si>
-    <t>59999475564</t>
-  </si>
-  <si>
-    <t>TBIDBL</t>
-  </si>
-  <si>
-    <t>59999818988</t>
-  </si>
-  <si>
-    <t>SCLAIL</t>
-  </si>
-  <si>
-    <t>59999944245</t>
-  </si>
-  <si>
-    <t>OIKCDN</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>335577018086231690</t>
-  </si>
-  <si>
-    <t>ICIC90598674480</t>
-  </si>
-  <si>
-    <t>ICIC96321386502</t>
-  </si>
-  <si>
-    <t>7585883598</t>
-  </si>
-  <si>
-    <t>Gunjan</t>
-  </si>
-  <si>
-    <t>VarunShah78135@example.net</t>
-  </si>
-  <si>
-    <t>1981-11-01</t>
-  </si>
-  <si>
-    <t>575971175523064</t>
-  </si>
-  <si>
-    <t>09a4d621d306aa63</t>
-  </si>
-  <si>
-    <t>400762375843118</t>
-  </si>
-  <si>
-    <t>7086510160</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>KushalDhaliwal77677@example.net</t>
-  </si>
-  <si>
-    <t>1973-01-05</t>
-  </si>
-  <si>
-    <t>499024733523573</t>
-  </si>
-  <si>
-    <t>672338b73f38ae00</t>
-  </si>
-  <si>
-    <t>770652336985375</t>
-  </si>
-  <si>
-    <t>7401685493</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>MalikRamanathan79901@example.net</t>
-  </si>
-  <si>
-    <t>1985-05-10</t>
-  </si>
-  <si>
-    <t>361762283359386</t>
-  </si>
-  <si>
-    <t>880b39bb991d338e</t>
-  </si>
-  <si>
-    <t>053145387481467</t>
-  </si>
-  <si>
-    <t>6737005713</t>
-  </si>
-  <si>
-    <t>Himani</t>
-  </si>
-  <si>
-    <t>AbhinavShukla22583@example.net</t>
-  </si>
-  <si>
-    <t>1978-02-01</t>
-  </si>
-  <si>
-    <t>268330478939661</t>
-  </si>
-  <si>
-    <t>faebf8047b817b24</t>
-  </si>
-  <si>
-    <t>768347749614134</t>
-  </si>
-  <si>
-    <t>8574648625</t>
-  </si>
-  <si>
-    <t>Vineeta</t>
-  </si>
-  <si>
-    <t>NaseerParmar72064@example.net</t>
-  </si>
-  <si>
-    <t>1979-09-10</t>
-  </si>
-  <si>
-    <t>731750867332344</t>
-  </si>
-  <si>
-    <t>755758c6d31f98ea</t>
-  </si>
-  <si>
-    <t>915705873829590</t>
-  </si>
-  <si>
-    <t>7402353866</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>MohitPrakash29742@example.net</t>
-  </si>
-  <si>
-    <t>1995-05-08</t>
-  </si>
-  <si>
-    <t>183685690768533</t>
-  </si>
-  <si>
-    <t>dea0a5dfe0b38410</t>
-  </si>
-  <si>
-    <t>286666806829811</t>
-  </si>
-  <si>
-    <t>8719265420</t>
-  </si>
-  <si>
-    <t>Indrani</t>
-  </si>
-  <si>
-    <t>RahimChad36540@example.net</t>
-  </si>
-  <si>
-    <t>1972-06-08</t>
-  </si>
-  <si>
-    <t>240975622698648</t>
-  </si>
-  <si>
-    <t>7b7426896627c786</t>
-  </si>
-  <si>
-    <t>709262820187193</t>
-  </si>
-  <si>
-    <t>6386825279</t>
-  </si>
-  <si>
-    <t>Navami</t>
-  </si>
-  <si>
-    <t>TusharPatla70147@example.net</t>
-  </si>
-  <si>
-    <t>1971-05-07</t>
-  </si>
-  <si>
-    <t>559028426566762</t>
-  </si>
-  <si>
-    <t>1d9330b1dd87de49</t>
-  </si>
-  <si>
-    <t>988144465630251</t>
-  </si>
-  <si>
-    <t>9282463291</t>
-  </si>
-  <si>
-    <t>8939245983</t>
-  </si>
-  <si>
-    <t>Basanti</t>
-  </si>
-  <si>
-    <t>KartikBawa56296@example.net</t>
-  </si>
-  <si>
-    <t>1987-04-05</t>
-  </si>
-  <si>
-    <t>880115655811231</t>
-  </si>
-  <si>
-    <t>a5e3ff4509954be4</t>
-  </si>
-  <si>
-    <t>615506154730082</t>
-  </si>
-  <si>
-    <t>8906313006</t>
-  </si>
-  <si>
-    <t>MowgliDial96317@example.net</t>
-  </si>
-  <si>
-    <t>1975-08-28</t>
-  </si>
-  <si>
-    <t>474575047592652</t>
-  </si>
-  <si>
-    <t>c0a0bd2b9f5411d7</t>
-  </si>
-  <si>
-    <t>885437767172673</t>
-  </si>
-  <si>
-    <t>6622362196</t>
-  </si>
-  <si>
-    <t>Madhu</t>
-  </si>
-  <si>
-    <t>UsmanGill92015@example.net</t>
-  </si>
-  <si>
-    <t>1990-07-08</t>
-  </si>
-  <si>
-    <t>095111324386359</t>
-  </si>
-  <si>
-    <t>d114b73c83894efe</t>
-  </si>
-  <si>
-    <t>707816297816345</t>
-  </si>
-  <si>
-    <t>8843228904</t>
-  </si>
-  <si>
-    <t>Anshula</t>
-  </si>
-  <si>
-    <t>HanumanDash38977@example.net</t>
-  </si>
-  <si>
-    <t>1977-06-11</t>
-  </si>
-  <si>
-    <t>233990376483351</t>
-  </si>
-  <si>
-    <t>de529a488e110f29</t>
-  </si>
-  <si>
-    <t>916907984777564</t>
-  </si>
-  <si>
-    <t>6096044403</t>
-  </si>
-  <si>
-    <t>Aruna</t>
-  </si>
-  <si>
-    <t>QaboolTailor62860@example.net</t>
-  </si>
-  <si>
-    <t>1981-05-22</t>
-  </si>
-  <si>
-    <t>147440436115390</t>
-  </si>
-  <si>
-    <t>953f3009249306a7</t>
-  </si>
-  <si>
-    <t>839074443159951</t>
-  </si>
-  <si>
-    <t>8494532829</t>
-  </si>
-  <si>
-    <t>Avantika</t>
-  </si>
-  <si>
-    <t>NatwarKapoor39632@example.net</t>
-  </si>
-  <si>
-    <t>1971-11-17</t>
-  </si>
-  <si>
-    <t>510178297308857</t>
-  </si>
-  <si>
-    <t>df8a91691fcaeefd</t>
-  </si>
-  <si>
-    <t>509727940955853</t>
-  </si>
-  <si>
-    <t>6554243500</t>
-  </si>
-  <si>
-    <t>Aabha</t>
-  </si>
-  <si>
-    <t>EkbalAmin15990@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-04</t>
-  </si>
-  <si>
-    <t>115024919674418</t>
-  </si>
-  <si>
-    <t>380f08e75eced493</t>
-  </si>
-  <si>
-    <t>640420848212045</t>
-  </si>
-  <si>
-    <t>6997588746</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>AbdulLal95101@example.net</t>
-  </si>
-  <si>
-    <t>1981-07-04</t>
-  </si>
-  <si>
-    <t>980453076033823</t>
-  </si>
-  <si>
-    <t>ab44be8136e512df</t>
-  </si>
-  <si>
-    <t>868705755079485</t>
-  </si>
-  <si>
-    <t>9366138767</t>
-  </si>
-  <si>
-    <t>Bagwati</t>
-  </si>
-  <si>
-    <t>DeepeshSeshadri58958@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-13</t>
-  </si>
-  <si>
-    <t>450628477177821</t>
-  </si>
-  <si>
-    <t>0ec6c92b0e7d062e</t>
-  </si>
-  <si>
-    <t>345661749122266</t>
-  </si>
-  <si>
-    <t>6999078825</t>
-  </si>
-  <si>
-    <t>Rohini</t>
-  </si>
-  <si>
-    <t>DhirajVenkatesh22750@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-14</t>
-  </si>
-  <si>
-    <t>025373535891040</t>
-  </si>
-  <si>
-    <t>a25152caaaf3960b</t>
-  </si>
-  <si>
-    <t>484254236276265</t>
-  </si>
-  <si>
-    <t>7622709191</t>
-  </si>
-  <si>
-    <t>Kamini</t>
-  </si>
-  <si>
-    <t>AslamDeep13460@example.net</t>
-  </si>
-  <si>
-    <t>1973-12-23</t>
-  </si>
-  <si>
-    <t>881604287822376</t>
-  </si>
-  <si>
-    <t>ed2aaad1947dfedd</t>
-  </si>
-  <si>
-    <t>946147100355714</t>
-  </si>
-  <si>
-    <t>6540906034</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>AneesNaik62742@example.net</t>
-  </si>
-  <si>
-    <t>1984-11-30</t>
-  </si>
-  <si>
-    <t>345626736820966</t>
-  </si>
-  <si>
-    <t>02432a7ba5b4ac49</t>
-  </si>
-  <si>
-    <t>276475565575124</t>
-  </si>
-  <si>
-    <t>9916408797</t>
-  </si>
-  <si>
-    <t>Alaknanda</t>
-  </si>
-  <si>
-    <t>HemendraVig75759@example.net</t>
-  </si>
-  <si>
-    <t>1972-04-30</t>
-  </si>
-  <si>
-    <t>257201917865804</t>
-  </si>
-  <si>
-    <t>e61b5d74b4a65b77</t>
-  </si>
-  <si>
-    <t>118658710671094</t>
-  </si>
-  <si>
-    <t>IDEP731631315913XI8L</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999254916</t>
-  </si>
-  <si>
-    <t>JRNEBG</t>
-  </si>
-  <si>
-    <t>59999696557</t>
-  </si>
-  <si>
-    <t>QRLFAE</t>
-  </si>
-  <si>
-    <t>59999626238</t>
-  </si>
-  <si>
-    <t>FFRUSO</t>
-  </si>
-  <si>
-    <t>59999153758</t>
-  </si>
-  <si>
-    <t>QNQFBI</t>
-  </si>
-  <si>
-    <t>59999548842</t>
-  </si>
-  <si>
-    <t>OLMEPD</t>
-  </si>
-  <si>
-    <t>59999125808</t>
-  </si>
-  <si>
-    <t>HRMJDL</t>
-  </si>
-  <si>
-    <t>59999388891</t>
-  </si>
-  <si>
-    <t>SLJFOL</t>
-  </si>
-  <si>
-    <t>59999516482</t>
-  </si>
-  <si>
-    <t>UUKDDQ</t>
-  </si>
-  <si>
-    <t>59999919556</t>
-  </si>
-  <si>
-    <t>JNRMES</t>
-  </si>
-  <si>
-    <t>59999068414</t>
-  </si>
-  <si>
-    <t>KSQDKS</t>
-  </si>
-  <si>
-    <t>8668609420</t>
-  </si>
-  <si>
-    <t>Sameera</t>
-  </si>
-  <si>
-    <t>BrockMohan56655@example.net</t>
-  </si>
-  <si>
-    <t>1986-08-17</t>
-  </si>
-  <si>
-    <t>534629600574561</t>
-  </si>
-  <si>
-    <t>10bef80236cc6a77</t>
-  </si>
-  <si>
-    <t>382665356700466</t>
-  </si>
-  <si>
-    <t>IDEP361731674842GJY6</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>59999781667</t>
-  </si>
-  <si>
-    <t>QFICKJ</t>
-  </si>
-  <si>
-    <t>59999166765</t>
-  </si>
-  <si>
-    <t>AMQNRK</t>
-  </si>
-  <si>
-    <t>59999540020</t>
-  </si>
-  <si>
-    <t>DABQIT</t>
-  </si>
-  <si>
-    <t>59999046497</t>
-  </si>
-  <si>
-    <t>TELOUL</t>
-  </si>
-  <si>
-    <t>59999974751</t>
-  </si>
-  <si>
-    <t>JCMNRG</t>
-  </si>
-  <si>
-    <t>59999617242</t>
-  </si>
-  <si>
-    <t>KQQAPS</t>
-  </si>
-  <si>
-    <t>59999133359</t>
-  </si>
-  <si>
-    <t>TMIOHO</t>
-  </si>
-  <si>
-    <t>59999164065</t>
-  </si>
-  <si>
-    <t>ADLKRO</t>
-  </si>
-  <si>
-    <t>59999137339</t>
-  </si>
-  <si>
-    <t>OBECAN</t>
-  </si>
-  <si>
-    <t>59999356060</t>
-  </si>
-  <si>
-    <t>SDQTHD</t>
-  </si>
-  <si>
-    <t>9633114756</t>
-  </si>
-  <si>
-    <t>Nishi</t>
-  </si>
-  <si>
-    <t>ChandTara76953@example.net</t>
-  </si>
-  <si>
-    <t>1973-03-10</t>
-  </si>
-  <si>
-    <t>224102490357138</t>
-  </si>
-  <si>
-    <t>f10e1884b56c66a7</t>
-  </si>
-  <si>
-    <t>561270092606714</t>
-  </si>
-  <si>
-    <t>IDEP761332144278DWHX</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>59999013088</t>
-  </si>
-  <si>
-    <t>NKEGHQ</t>
-  </si>
-  <si>
-    <t>BNPL3671323648836381</t>
-  </si>
-  <si>
-    <t>59999650636</t>
-  </si>
-  <si>
-    <t>MQQQKD</t>
-  </si>
-  <si>
-    <t>59999731434</t>
-  </si>
-  <si>
-    <t>DSDKRC</t>
-  </si>
-  <si>
-    <t>59999271334</t>
-  </si>
-  <si>
-    <t>TRBBLB</t>
-  </si>
-  <si>
-    <t>59999248625</t>
-  </si>
-  <si>
-    <t>COSDJC</t>
-  </si>
-  <si>
-    <t>59999010043</t>
-  </si>
-  <si>
-    <t>QEBPPR</t>
-  </si>
-  <si>
-    <t>59999624818</t>
-  </si>
-  <si>
-    <t>KSKORD</t>
-  </si>
-  <si>
-    <t>59999536518</t>
-  </si>
-  <si>
-    <t>LBKLLT</t>
-  </si>
-  <si>
-    <t>59999188080</t>
-  </si>
-  <si>
-    <t>JDBIPR</t>
-  </si>
-  <si>
-    <t>59999877111</t>
-  </si>
-  <si>
-    <t>LLAAIE</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>335577019633114756</t>
-  </si>
-  <si>
-    <t>ICIC99662815434</t>
-  </si>
-  <si>
-    <t>ICIC95513702231</t>
-  </si>
-  <si>
-    <t>8317408904</t>
-  </si>
-  <si>
-    <t>Prabha</t>
-  </si>
-  <si>
-    <t>HarpreetChaudhari47800@example.net</t>
-  </si>
-  <si>
-    <t>1979-05-15</t>
-  </si>
-  <si>
-    <t>320589024604444</t>
-  </si>
-  <si>
-    <t>7595c0189caa0c08</t>
-  </si>
-  <si>
-    <t>205645741132539</t>
-  </si>
-  <si>
-    <t>IDEP163756213265ZHQE</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>59999168396</t>
-  </si>
-  <si>
-    <t>JOECJQ</t>
-  </si>
-  <si>
-    <t>59999785398</t>
-  </si>
-  <si>
-    <t>ECUGKC</t>
-  </si>
-  <si>
-    <t>59999256616</t>
-  </si>
-  <si>
-    <t>PCIGLL</t>
-  </si>
-  <si>
-    <t>59999880633</t>
-  </si>
-  <si>
-    <t>NBOGAL</t>
-  </si>
-  <si>
-    <t>59999142938</t>
-  </si>
-  <si>
-    <t>NNTRGA</t>
-  </si>
-  <si>
-    <t>59999907201</t>
-  </si>
-  <si>
-    <t>SUAPHC</t>
-  </si>
-  <si>
-    <t>59999935996</t>
-  </si>
-  <si>
-    <t>DABUUD</t>
-  </si>
-  <si>
-    <t>59999237568</t>
-  </si>
-  <si>
-    <t>DCPBCF</t>
-  </si>
-  <si>
-    <t>59999345500</t>
-  </si>
-  <si>
-    <t>JEQKBT</t>
-  </si>
-  <si>
-    <t>59999489005</t>
-  </si>
-  <si>
-    <t>TSCSNB</t>
-  </si>
-  <si>
-    <t>9714645789</t>
-  </si>
-  <si>
-    <t>Sapna</t>
-  </si>
-  <si>
-    <t>MarloRau29234@example.net</t>
-  </si>
-  <si>
-    <t>1973-07-18</t>
-  </si>
-  <si>
-    <t>332287879103788</t>
-  </si>
-  <si>
-    <t>b2404a95157f483b</t>
-  </si>
-  <si>
-    <t>591126232560423</t>
-  </si>
-  <si>
-    <t>IDEP176356694485GACW</t>
-  </si>
-  <si>
-    <t>145</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>59999981323</t>
+  </si>
+  <si>
+    <t>OFPSLL</t>
+  </si>
+  <si>
+    <t>BNPL4176176279426238</t>
+  </si>
+  <si>
+    <t>59999574165</t>
+  </si>
+  <si>
+    <t>OOMLFL</t>
+  </si>
+  <si>
+    <t>59999460070</t>
+  </si>
+  <si>
+    <t>DJHQCI</t>
+  </si>
+  <si>
+    <t>59999574192</t>
+  </si>
+  <si>
+    <t>UQETOT</t>
+  </si>
+  <si>
+    <t>59999654424</t>
+  </si>
+  <si>
+    <t>RDAEHO</t>
+  </si>
+  <si>
+    <t>59999491903</t>
+  </si>
+  <si>
+    <t>SDLPRM</t>
+  </si>
+  <si>
+    <t>59999087864</t>
+  </si>
+  <si>
+    <t>LHLCDP</t>
+  </si>
+  <si>
+    <t>59999873139</t>
+  </si>
+  <si>
+    <t>JCSRDK</t>
+  </si>
+  <si>
+    <t>59999565111</t>
+  </si>
+  <si>
+    <t>KGQLDK</t>
+  </si>
+  <si>
+    <t>59999265626</t>
+  </si>
+  <si>
+    <t>GSQDFR</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>335577017636430833</t>
+  </si>
+  <si>
+    <t>ICIC83538424415</t>
+  </si>
+  <si>
+    <t>ICIC81000074642</t>
+  </si>
+  <si>
+    <t>6192388313</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>ManpreetDate98635@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-10</t>
+  </si>
+  <si>
+    <t>721152390573571</t>
+  </si>
+  <si>
+    <t>289ed91916d92904</t>
+  </si>
+  <si>
+    <t>375447235641826</t>
+  </si>
+  <si>
+    <t>IDEP4716212557564RVM</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>59999640375</t>
-  </si>
-  <si>
-    <t>LDJBOQ</t>
-  </si>
-  <si>
-    <t>BNPL6137568888634531</t>
-  </si>
-  <si>
-    <t>59999688153</t>
-  </si>
-  <si>
-    <t>LIJDMD</t>
-  </si>
-  <si>
-    <t>59999109141</t>
-  </si>
-  <si>
-    <t>OQHSFT</t>
-  </si>
-  <si>
-    <t>59999986973</t>
-  </si>
-  <si>
-    <t>KMORHF</t>
-  </si>
-  <si>
-    <t>59999479334</t>
-  </si>
-  <si>
-    <t>OGHIQL</t>
-  </si>
-  <si>
-    <t>59999707115</t>
-  </si>
-  <si>
-    <t>BSMNGL</t>
-  </si>
-  <si>
-    <t>59999847491</t>
-  </si>
-  <si>
-    <t>QEQMHS</t>
-  </si>
-  <si>
-    <t>59999412112</t>
-  </si>
-  <si>
-    <t>EQGDBB</t>
-  </si>
-  <si>
-    <t>59999774781</t>
-  </si>
-  <si>
-    <t>MJGOJT</t>
-  </si>
-  <si>
-    <t>59999604607</t>
-  </si>
-  <si>
-    <t>UQDLTI</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>335577019714645789</t>
-  </si>
-  <si>
-    <t>ICIC90099997317</t>
-  </si>
-  <si>
-    <t>ICIC87115173382</t>
-  </si>
-  <si>
-    <t>7671552219</t>
-  </si>
-  <si>
-    <t>Chandni</t>
-  </si>
-  <si>
-    <t>KamleshLata32243@example.net</t>
-  </si>
-  <si>
-    <t>1973-05-06</t>
-  </si>
-  <si>
-    <t>056668318361596</t>
-  </si>
-  <si>
-    <t>7bd650921182955e</t>
-  </si>
-  <si>
-    <t>495301121561264</t>
-  </si>
-  <si>
-    <t>IDEP176356959834U2H8</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>59999005119</t>
-  </si>
-  <si>
-    <t>CSLOAN</t>
-  </si>
-  <si>
-    <t>BNPL1367571481894218</t>
-  </si>
-  <si>
-    <t>59999117745</t>
-  </si>
-  <si>
-    <t>ESEFHI</t>
-  </si>
-  <si>
-    <t>59999477915</t>
-  </si>
-  <si>
-    <t>NTRNDH</t>
-  </si>
-  <si>
-    <t>59999109744</t>
-  </si>
-  <si>
-    <t>ISNICJ</t>
-  </si>
-  <si>
-    <t>59999586056</t>
-  </si>
-  <si>
-    <t>MGAERE</t>
-  </si>
-  <si>
-    <t>59999793721</t>
-  </si>
-  <si>
-    <t>RTQAPK</t>
-  </si>
-  <si>
-    <t>59999050777</t>
-  </si>
-  <si>
-    <t>GPKEFG</t>
-  </si>
-  <si>
-    <t>59999796577</t>
-  </si>
-  <si>
-    <t>UOONBL</t>
-  </si>
-  <si>
-    <t>59999587890</t>
-  </si>
-  <si>
-    <t>QRQBRA</t>
-  </si>
-  <si>
-    <t>59999212252</t>
-  </si>
-  <si>
-    <t>GCKRCO</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>335577017671552219</t>
-  </si>
-  <si>
-    <t>ICIC95904103972</t>
-  </si>
-  <si>
-    <t>ICIC94543075043</t>
-  </si>
-  <si>
-    <t>6548392564</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>ParvezDeep83025@example.net</t>
-  </si>
-  <si>
-    <t>1974-02-11</t>
-  </si>
-  <si>
-    <t>075333424843972</t>
-  </si>
-  <si>
-    <t>2fcf435c9d0a3409</t>
-  </si>
-  <si>
-    <t>855276886885690</t>
-  </si>
-  <si>
-    <t>IDEP673157938528Y9GE</t>
-  </si>
-  <si>
-    <t>7619124963</t>
-  </si>
-  <si>
-    <t>JackWalla65503@example.net</t>
-  </si>
-  <si>
-    <t>1983-11-13</t>
-  </si>
-  <si>
-    <t>658315650899146</t>
-  </si>
-  <si>
-    <t>abeaa06e19df8baf</t>
-  </si>
-  <si>
-    <t>322803327244180</t>
-  </si>
-  <si>
-    <t>IDEP713658115653H924</t>
-  </si>
-  <si>
-    <t>7724473067</t>
-  </si>
-  <si>
-    <t>SaiBrar25304@example.net</t>
-  </si>
-  <si>
-    <t>1973-06-28</t>
-  </si>
-  <si>
-    <t>930479026573734</t>
-  </si>
-  <si>
-    <t>59a6e11ff1821b9e</t>
-  </si>
-  <si>
-    <t>425082486801694</t>
-  </si>
-  <si>
-    <t>IDEP367158298511UDEX</t>
-  </si>
-  <si>
-    <t>8073538022</t>
-  </si>
-  <si>
-    <t>SureshRoy24290@example.net</t>
-  </si>
-  <si>
-    <t>1994-02-01</t>
-  </si>
-  <si>
-    <t>293407891392964</t>
-  </si>
-  <si>
-    <t>5cec961744438607</t>
-  </si>
-  <si>
-    <t>985242661535358</t>
-  </si>
-  <si>
-    <t>IDEP637158491188RWLH</t>
-  </si>
-  <si>
-    <t>6800960001</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>AayushmanRampersad18955@example.net</t>
-  </si>
-  <si>
-    <t>1974-04-21</t>
-  </si>
-  <si>
-    <t>369575838131775</t>
-  </si>
-  <si>
-    <t>da8a270273c00bce</t>
-  </si>
-  <si>
-    <t>370543276787257</t>
-  </si>
-  <si>
-    <t>IDEP376158675292SN6H</t>
-  </si>
-  <si>
-    <t>7454603452</t>
-  </si>
-  <si>
-    <t>MunafSahni25864@example.net</t>
-  </si>
-  <si>
-    <t>1987-09-21</t>
-  </si>
-  <si>
-    <t>885052649971240</t>
-  </si>
-  <si>
-    <t>0d32a266293b8010</t>
-  </si>
-  <si>
-    <t>113568629281213</t>
-  </si>
-  <si>
-    <t>IDEP7361588618375IDX</t>
-  </si>
-  <si>
-    <t>6353435889</t>
-  </si>
-  <si>
-    <t>TanayToor73909@example.net</t>
-  </si>
-  <si>
-    <t>1989-08-09</t>
-  </si>
-  <si>
-    <t>350889337883930</t>
-  </si>
-  <si>
-    <t>c1f8653dac3c7111</t>
-  </si>
-  <si>
-    <t>982115557298435</t>
-  </si>
-  <si>
-    <t>IDEP741617983586GK1P</t>
-  </si>
-  <si>
-    <t>8546697308</t>
-  </si>
-  <si>
-    <t>BijoyGera88404@example.net</t>
-  </si>
-  <si>
-    <t>1973-07-13</t>
-  </si>
-  <si>
-    <t>857303054007788</t>
-  </si>
-  <si>
-    <t>7a123b70b95f7bdd</t>
-  </si>
-  <si>
-    <t>002853268311776</t>
-  </si>
-  <si>
-    <t>IDEP641718912127ZVI1</t>
-  </si>
-  <si>
-    <t>9093714693</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>ZeeshanSachar88771@example.net</t>
-  </si>
-  <si>
-    <t>1986-06-02</t>
-  </si>
-  <si>
-    <t>566315055685802</t>
-  </si>
-  <si>
-    <t>ff93b09923d8e8fb</t>
-  </si>
-  <si>
-    <t>192906409202070</t>
-  </si>
-  <si>
-    <t>IDEP7146353916647KEP</t>
-  </si>
-  <si>
-    <t>7976057384</t>
-  </si>
-  <si>
-    <t>NawabMane59000@example.net</t>
-  </si>
-  <si>
-    <t>1986-12-03</t>
-  </si>
-  <si>
-    <t>021203299026273</t>
-  </si>
-  <si>
-    <t>39d82f9eba91ac90</t>
-  </si>
-  <si>
-    <t>423005495312108</t>
-  </si>
-  <si>
-    <t>IDEP647135924679C9I3</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>59999160967</t>
-  </si>
-  <si>
-    <t>RNULOB</t>
-  </si>
-  <si>
-    <t>59999643618</t>
-  </si>
-  <si>
-    <t>CMCTUJ</t>
-  </si>
-  <si>
-    <t>59999368284</t>
-  </si>
-  <si>
-    <t>GFSPGH</t>
-  </si>
-  <si>
-    <t>59999030211</t>
-  </si>
-  <si>
-    <t>NKDQIF</t>
-  </si>
-  <si>
-    <t>59999814337</t>
-  </si>
-  <si>
-    <t>HFCPEP</t>
-  </si>
-  <si>
-    <t>59999997794</t>
-  </si>
-  <si>
-    <t>SFQIUH</t>
-  </si>
-  <si>
-    <t>59999187270</t>
-  </si>
-  <si>
-    <t>AONHUI</t>
-  </si>
-  <si>
-    <t>59999247080</t>
-  </si>
-  <si>
-    <t>PKJLJQ</t>
-  </si>
-  <si>
-    <t>59999994326</t>
-  </si>
-  <si>
-    <t>BBOBHS</t>
-  </si>
-  <si>
-    <t>59999317454</t>
-  </si>
-  <si>
-    <t>SOJGAS</t>
-  </si>
-  <si>
-    <t>8540405566</t>
-  </si>
-  <si>
-    <t>Pinky</t>
-  </si>
-  <si>
-    <t>RamGopalMehan49848@example.net</t>
-  </si>
-  <si>
-    <t>1978-02-28</t>
-  </si>
-  <si>
-    <t>192489639256778</t>
-  </si>
-  <si>
-    <t>870968fe81611ca5</t>
-  </si>
-  <si>
-    <t>159849295463458</t>
-  </si>
-  <si>
-    <t>IDEP47613638888391X8</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>59999314255</t>
-  </si>
-  <si>
-    <t>AQPGLQ</t>
-  </si>
-  <si>
-    <t>BNPL4671365766136413</t>
-  </si>
-  <si>
-    <t>59999574562</t>
-  </si>
-  <si>
-    <t>JCPRPL</t>
-  </si>
-  <si>
-    <t>59999060697</t>
-  </si>
-  <si>
-    <t>GUSDAS</t>
-  </si>
-  <si>
-    <t>59999056151</t>
-  </si>
-  <si>
-    <t>GHRJGA</t>
-  </si>
-  <si>
-    <t>59999343025</t>
-  </si>
-  <si>
-    <t>EGJGQD</t>
-  </si>
-  <si>
-    <t>59999367573</t>
-  </si>
-  <si>
-    <t>TNQQGN</t>
-  </si>
-  <si>
-    <t>59999612236</t>
-  </si>
-  <si>
-    <t>CKUTNP</t>
-  </si>
-  <si>
-    <t>59999675677</t>
-  </si>
-  <si>
-    <t>JTUHLM</t>
-  </si>
-  <si>
-    <t>59999909043</t>
-  </si>
-  <si>
-    <t>LSLUSJ</t>
-  </si>
-  <si>
-    <t>59999890860</t>
-  </si>
-  <si>
-    <t>SGEADO</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>335577018540405566</t>
-  </si>
-  <si>
-    <t>ICIC86647310614</t>
-  </si>
-  <si>
-    <t>ICIC97093324118</t>
-  </si>
-  <si>
-    <t>9864045513</t>
+    <t>59999855538</t>
+  </si>
+  <si>
+    <t>JNOKIT</t>
+  </si>
+  <si>
+    <t>BNPL1647214742462684</t>
+  </si>
+  <si>
+    <t>59999068775</t>
+  </si>
+  <si>
+    <t>MHRRIF</t>
+  </si>
+  <si>
+    <t>59999363069</t>
+  </si>
+  <si>
+    <t>JMEJPR</t>
+  </si>
+  <si>
+    <t>59999364998</t>
+  </si>
+  <si>
+    <t>OIHAJU</t>
+  </si>
+  <si>
+    <t>59999513287</t>
+  </si>
+  <si>
+    <t>HOJDGE</t>
+  </si>
+  <si>
+    <t>59999277223</t>
+  </si>
+  <si>
+    <t>NNPCEI</t>
+  </si>
+  <si>
+    <t>59999030498</t>
+  </si>
+  <si>
+    <t>MDEASB</t>
+  </si>
+  <si>
+    <t>59999776440</t>
+  </si>
+  <si>
+    <t>CRNDRR</t>
+  </si>
+  <si>
+    <t>59999045302</t>
+  </si>
+  <si>
+    <t>QESERP</t>
+  </si>
+  <si>
+    <t>59999963133</t>
+  </si>
+  <si>
+    <t>BJETEJ</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>335577016192388313</t>
+  </si>
+  <si>
+    <t>ICIC88665421403</t>
+  </si>
+  <si>
+    <t>ICIC82970467095</t>
+  </si>
+  <si>
+    <t>8204206090</t>
   </si>
   <si>
     <t>Nancy</t>
   </si>
   <si>
-    <t>AatifSidhu52049@example.net</t>
-  </si>
-  <si>
-    <t>1983-04-19</t>
-  </si>
-  <si>
-    <t>359182245474633</t>
-  </si>
-  <si>
-    <t>d6e8fd31d30a4283</t>
-  </si>
-  <si>
-    <t>543421456561358</t>
-  </si>
-  <si>
-    <t>IDEP714636725119PZ6W</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>59999116418</t>
-  </si>
-  <si>
-    <t>UKNODI</t>
-  </si>
-  <si>
-    <t>BNPL1764369274376392</t>
-  </si>
-  <si>
-    <t>59999970060</t>
-  </si>
-  <si>
-    <t>PGGNUQ</t>
-  </si>
-  <si>
-    <t>59999743592</t>
-  </si>
-  <si>
-    <t>NHJEAG</t>
-  </si>
-  <si>
-    <t>59999911089</t>
-  </si>
-  <si>
-    <t>RRLTNE</t>
-  </si>
-  <si>
-    <t>59999167025</t>
-  </si>
-  <si>
-    <t>STHJAP</t>
-  </si>
-  <si>
-    <t>59999487853</t>
-  </si>
-  <si>
-    <t>HACNSA</t>
-  </si>
-  <si>
-    <t>59999384263</t>
-  </si>
-  <si>
-    <t>RNSGHI</t>
-  </si>
-  <si>
-    <t>59999321818</t>
-  </si>
-  <si>
-    <t>UOJBDH</t>
-  </si>
-  <si>
-    <t>59999594502</t>
-  </si>
-  <si>
-    <t>TBKJNE</t>
-  </si>
-  <si>
-    <t>59999482410</t>
-  </si>
-  <si>
-    <t>NGTBIQ</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>335577019864045513</t>
-  </si>
-  <si>
-    <t>ICIC85090379669</t>
-  </si>
-  <si>
-    <t>ICIC88859096402</t>
-  </si>
-  <si>
-    <t>6940783559</t>
-  </si>
-  <si>
-    <t>Bhanupriya</t>
-  </si>
-  <si>
-    <t>RashidRao41193@example.net</t>
-  </si>
-  <si>
-    <t>1976-01-14</t>
-  </si>
-  <si>
-    <t>291222526306699</t>
-  </si>
-  <si>
-    <t>343a9b1883bd7982</t>
-  </si>
-  <si>
-    <t>492686513096462</t>
-  </si>
-  <si>
-    <t>IDEP164737846593WTQZ</t>
-  </si>
-  <si>
-    <t>6761103181</t>
-  </si>
-  <si>
-    <t>AayushmanPandey18076@example.net</t>
-  </si>
-  <si>
-    <t>1991-05-16</t>
-  </si>
-  <si>
-    <t>688164601804449</t>
-  </si>
-  <si>
-    <t>b32eba25c97209a2</t>
-  </si>
-  <si>
-    <t>449399573715823</t>
-  </si>
-  <si>
-    <t>IDEP471638854189L4F7</t>
-  </si>
-  <si>
-    <t>6934002365</t>
-  </si>
-  <si>
-    <t>Kirti</t>
-  </si>
-  <si>
-    <t>AneesBajaj72444@example.net</t>
-  </si>
-  <si>
-    <t>1995-08-23</t>
-  </si>
-  <si>
-    <t>837123114473811</t>
-  </si>
-  <si>
-    <t>3fcba02e0f7cffbd</t>
-  </si>
-  <si>
-    <t>610969177331954</t>
-  </si>
-  <si>
-    <t>IDEP716438292154JEKQ</t>
-  </si>
-  <si>
-    <t>59999631571</t>
-  </si>
-  <si>
-    <t>THLRNT</t>
-  </si>
-  <si>
-    <t>BNPL6147385849876235</t>
-  </si>
-  <si>
-    <t>59999877662</t>
-  </si>
-  <si>
-    <t>TGNQBR</t>
-  </si>
-  <si>
-    <t>59999732470</t>
-  </si>
-  <si>
-    <t>FINMIO</t>
-  </si>
-  <si>
-    <t>59999139150</t>
-  </si>
-  <si>
-    <t>IIEHGL</t>
-  </si>
-  <si>
-    <t>59999818475</t>
-  </si>
-  <si>
-    <t>OGPRBA</t>
-  </si>
-  <si>
-    <t>59999826931</t>
-  </si>
-  <si>
-    <t>FRADQA</t>
-  </si>
-  <si>
-    <t>59999347091</t>
-  </si>
-  <si>
-    <t>CFAFMB</t>
-  </si>
-  <si>
-    <t>59999622154</t>
-  </si>
-  <si>
-    <t>QIMEHT</t>
-  </si>
-  <si>
-    <t>59999313044</t>
-  </si>
-  <si>
-    <t>OLDOTS</t>
-  </si>
-  <si>
-    <t>59999875386</t>
-  </si>
-  <si>
-    <t>QQOJAO</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>335577016934002365</t>
-  </si>
-  <si>
-    <t>ICIC86889221223</t>
-  </si>
-  <si>
-    <t>ICIC96201691463</t>
-  </si>
-  <si>
-    <t>6202371170</t>
-  </si>
-  <si>
-    <t>Nagma</t>
-  </si>
-  <si>
-    <t>ArjunLoyal28727@example.net</t>
-  </si>
-  <si>
-    <t>1988-01-14</t>
-  </si>
-  <si>
-    <t>214129022799927</t>
-  </si>
-  <si>
-    <t>940a39490686a102</t>
-  </si>
-  <si>
-    <t>235136918485292</t>
-  </si>
-  <si>
-    <t>IDEP461748121193ERK7</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>59999217241</t>
-  </si>
-  <si>
-    <t>MCOJBS</t>
-  </si>
-  <si>
-    <t>59999431752</t>
-  </si>
-  <si>
-    <t>RIUEDT</t>
-  </si>
-  <si>
-    <t>59999611977</t>
-  </si>
-  <si>
-    <t>OQMOHJ</t>
-  </si>
-  <si>
-    <t>59999838391</t>
-  </si>
-  <si>
-    <t>RQFKLL</t>
-  </si>
-  <si>
-    <t>59999914332</t>
-  </si>
-  <si>
-    <t>NDDOTE</t>
-  </si>
-  <si>
-    <t>59999412825</t>
-  </si>
-  <si>
-    <t>CJALFS</t>
-  </si>
-  <si>
-    <t>59999075871</t>
-  </si>
-  <si>
-    <t>LOTCHC</t>
-  </si>
-  <si>
-    <t>59999897419</t>
-  </si>
-  <si>
-    <t>IMHMUF</t>
-  </si>
-  <si>
-    <t>59999179937</t>
-  </si>
-  <si>
-    <t>ETUJDT</t>
-  </si>
-  <si>
-    <t>59999833213</t>
-  </si>
-  <si>
-    <t>DMLCPC</t>
-  </si>
-  <si>
-    <t>8449526857</t>
-  </si>
-  <si>
-    <t>Parminder</t>
-  </si>
-  <si>
-    <t>PrabhatPrabhu18834@example.net</t>
-  </si>
-  <si>
-    <t>1983-09-05</t>
-  </si>
-  <si>
-    <t>234828045406990</t>
-  </si>
-  <si>
-    <t>73ef5033539fba5b</t>
-  </si>
-  <si>
-    <t>694079498198519</t>
-  </si>
-  <si>
-    <t>IDEP47164218759885ND</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>59999076713</t>
-  </si>
-  <si>
-    <t>DRJJNM</t>
-  </si>
-  <si>
-    <t>59999274256</t>
-  </si>
-  <si>
-    <t>IBEESK</t>
-  </si>
-  <si>
-    <t>59999123043</t>
-  </si>
-  <si>
-    <t>DCRRAG</t>
-  </si>
-  <si>
-    <t>59999348773</t>
-  </si>
-  <si>
-    <t>QKPOOC</t>
-  </si>
-  <si>
-    <t>59999349098</t>
-  </si>
-  <si>
-    <t>LEECNJ</t>
-  </si>
-  <si>
-    <t>59999329446</t>
-  </si>
-  <si>
-    <t>TODUNU</t>
-  </si>
-  <si>
-    <t>59999850756</t>
-  </si>
-  <si>
-    <t>GNLTPM</t>
-  </si>
-  <si>
-    <t>59999967262</t>
-  </si>
-  <si>
-    <t>DTEBHK</t>
-  </si>
-  <si>
-    <t>59999024984</t>
-  </si>
-  <si>
-    <t>ASJSIN</t>
-  </si>
-  <si>
-    <t>59999408940</t>
-  </si>
-  <si>
-    <t>GMQMPH</t>
-  </si>
-  <si>
-    <t>7509873595</t>
-  </si>
-  <si>
-    <t>Akhila</t>
-  </si>
-  <si>
-    <t>TanayParsa28698@example.net</t>
-  </si>
-  <si>
-    <t>1990-11-26</t>
-  </si>
-  <si>
-    <t>393434186479743</t>
-  </si>
-  <si>
-    <t>a4224bde9d354f07</t>
-  </si>
-  <si>
-    <t>402144140670977</t>
-  </si>
-  <si>
-    <t>IDEP174643179313Y3TL</t>
-  </si>
-  <si>
-    <t>7709695269</t>
-  </si>
-  <si>
-    <t>Ritika</t>
-  </si>
-  <si>
-    <t>RehmanBiswas46218@example.net</t>
-  </si>
-  <si>
-    <t>1986-11-12</t>
-  </si>
-  <si>
-    <t>474210649904002</t>
-  </si>
-  <si>
-    <t>c294f0ffaf8aea4c</t>
-  </si>
-  <si>
-    <t>703809962578856</t>
-  </si>
-  <si>
-    <t>IDEP164743351122JZXF</t>
-  </si>
-  <si>
-    <t>8803297524</t>
-  </si>
-  <si>
-    <t>Zeenat</t>
-  </si>
-  <si>
-    <t>AadishBhasin38871@example.net</t>
-  </si>
-  <si>
-    <t>1977-04-28</t>
-  </si>
-  <si>
-    <t>011901648230825</t>
-  </si>
-  <si>
-    <t>2028b22ac7f50d2e</t>
-  </si>
-  <si>
-    <t>846864489658481</t>
-  </si>
-  <si>
-    <t>IDEP4671435182639FB7</t>
-  </si>
-  <si>
-    <t>9753181712</t>
-  </si>
-  <si>
-    <t>Jiya</t>
-  </si>
-  <si>
-    <t>KalpitLata17598@example.net</t>
-  </si>
-  <si>
-    <t>1975-01-31</t>
-  </si>
-  <si>
-    <t>981992802001579</t>
-  </si>
-  <si>
-    <t>b37f43675e5b01c3</t>
-  </si>
-  <si>
-    <t>494463507100454</t>
-  </si>
-  <si>
-    <t>IDEP714643693236SN8P</t>
-  </si>
-  <si>
-    <t>9742539237</t>
-  </si>
-  <si>
-    <t>HarbhajanKade11312@example.net</t>
-  </si>
-  <si>
-    <t>1985-08-02</t>
-  </si>
-  <si>
-    <t>171224495247248</t>
-  </si>
-  <si>
-    <t>fd47e796e0fca8f7</t>
-  </si>
-  <si>
-    <t>484364751881603</t>
-  </si>
-  <si>
-    <t>IDEP416743868345DB7I</t>
-  </si>
-  <si>
-    <t>7214979511</t>
-  </si>
-  <si>
-    <t>Kasturi</t>
-  </si>
-  <si>
-    <t>RajeshPandey33783@example.net</t>
-  </si>
-  <si>
-    <t>1972-04-28</t>
-  </si>
-  <si>
-    <t>493722814861392</t>
-  </si>
-  <si>
-    <t>6cc4670bc81996db</t>
-  </si>
-  <si>
-    <t>788407723496290</t>
-  </si>
-  <si>
-    <t>IDEP4167895866185IU2</t>
-  </si>
-  <si>
-    <t>9573161296</t>
-  </si>
-  <si>
-    <t>SuryaKurian93395@example.net</t>
-  </si>
-  <si>
-    <t>1994-03-25</t>
-  </si>
-  <si>
-    <t>060220819208126</t>
-  </si>
-  <si>
-    <t>edda29b171e6ffe5</t>
-  </si>
-  <si>
-    <t>600900381588750</t>
-  </si>
-  <si>
-    <t>IDEP761489786319N39F</t>
-  </si>
-  <si>
-    <t>59999379782</t>
-  </si>
-  <si>
-    <t>NTNBSE</t>
-  </si>
-  <si>
-    <t>59999609604</t>
-  </si>
-  <si>
-    <t>BDBPNT</t>
-  </si>
-  <si>
-    <t>59999733491</t>
-  </si>
-  <si>
-    <t>LJLNKA</t>
-  </si>
-  <si>
-    <t>59999695545</t>
-  </si>
-  <si>
-    <t>DIBJGM</t>
-  </si>
-  <si>
-    <t>59999205904</t>
-  </si>
-  <si>
-    <t>RKHEBC</t>
-  </si>
-  <si>
-    <t>59999407556</t>
-  </si>
-  <si>
-    <t>PQUMBC</t>
-  </si>
-  <si>
-    <t>59999632585</t>
-  </si>
-  <si>
-    <t>FJDUKE</t>
-  </si>
-  <si>
-    <t>59999263493</t>
-  </si>
-  <si>
-    <t>BKRJBT</t>
-  </si>
-  <si>
-    <t>59999270367</t>
-  </si>
-  <si>
-    <t>SIGDQS</t>
-  </si>
-  <si>
-    <t>59999967821</t>
-  </si>
-  <si>
-    <t>KBEGRE</t>
-  </si>
-  <si>
-    <t>6520204924</t>
-  </si>
-  <si>
-    <t>Laveena</t>
-  </si>
-  <si>
-    <t>LalitSinha95019@example.net</t>
-  </si>
-  <si>
-    <t>1981-09-03</t>
-  </si>
-  <si>
-    <t>104670242598386</t>
-  </si>
-  <si>
-    <t>9be6d5176844f92d</t>
-  </si>
-  <si>
-    <t>232504580274653</t>
-  </si>
-  <si>
-    <t>IDEP476111791948J4Y1</t>
-  </si>
-  <si>
-    <t>7926237478</t>
-  </si>
-  <si>
-    <t>ManpreetKapadia85611@example.net</t>
-  </si>
-  <si>
-    <t>1984-02-22</t>
-  </si>
-  <si>
-    <t>236799879477514</t>
-  </si>
-  <si>
-    <t>f9f210d3ecca7ca6</t>
-  </si>
-  <si>
-    <t>708448462337300</t>
-  </si>
-  <si>
-    <t>IDEP476112878887GH2W</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>59999360427</t>
-  </si>
-  <si>
-    <t>AKMATF</t>
-  </si>
-  <si>
-    <t>BNPL1647122829899841</t>
-  </si>
-  <si>
-    <t>59999949596</t>
-  </si>
-  <si>
-    <t>HDIPIP</t>
-  </si>
-  <si>
-    <t>59999393647</t>
-  </si>
-  <si>
-    <t>TNMORQ</t>
-  </si>
-  <si>
-    <t>59999272729</t>
-  </si>
-  <si>
-    <t>CDHIKB</t>
-  </si>
-  <si>
-    <t>59999651947</t>
-  </si>
-  <si>
-    <t>KCPPOL</t>
-  </si>
-  <si>
-    <t>59999869965</t>
-  </si>
-  <si>
-    <t>TTGNRI</t>
-  </si>
-  <si>
-    <t>59999396082</t>
-  </si>
-  <si>
-    <t>RHCBPF</t>
-  </si>
-  <si>
-    <t>59999805420</t>
-  </si>
-  <si>
-    <t>LNGTDA</t>
-  </si>
-  <si>
-    <t>59999337559</t>
-  </si>
-  <si>
-    <t>KCEAFI</t>
-  </si>
-  <si>
-    <t>59999315094</t>
-  </si>
-  <si>
-    <t>JEFCSL</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>335577017926237478</t>
-  </si>
-  <si>
-    <t>ICIC91907787269</t>
-  </si>
-  <si>
-    <t>ICIC81061113739</t>
-  </si>
-  <si>
-    <t>6402325123</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>MukulMurty20051@example.net</t>
-  </si>
-  <si>
-    <t>1994-06-13</t>
-  </si>
-  <si>
-    <t>680058977732069</t>
-  </si>
-  <si>
-    <t>0920957f8ed9aa8f</t>
-  </si>
-  <si>
-    <t>021001311896974</t>
-  </si>
-  <si>
-    <t>IDEP1467129548686XIP</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>59999510722</t>
-  </si>
-  <si>
-    <t>MFGLBJ</t>
-  </si>
-  <si>
-    <t>BNPL4716131468127165</t>
-  </si>
-  <si>
-    <t>59999700405</t>
-  </si>
-  <si>
-    <t>CEHKAU</t>
-  </si>
-  <si>
-    <t>59999655961</t>
-  </si>
-  <si>
-    <t>OJFKGU</t>
-  </si>
-  <si>
-    <t>59999463849</t>
-  </si>
-  <si>
-    <t>NASBIK</t>
-  </si>
-  <si>
-    <t>59999469414</t>
-  </si>
-  <si>
-    <t>TFCEBT</t>
-  </si>
-  <si>
-    <t>59999081107</t>
-  </si>
-  <si>
-    <t>PCMDNK</t>
-  </si>
-  <si>
-    <t>59999589968</t>
-  </si>
-  <si>
-    <t>FQNRQM</t>
-  </si>
-  <si>
-    <t>59999359514</t>
-  </si>
-  <si>
-    <t>SLGLNT</t>
-  </si>
-  <si>
-    <t>59999238447</t>
-  </si>
-  <si>
-    <t>PRTCSB</t>
-  </si>
-  <si>
-    <t>59999592835</t>
-  </si>
-  <si>
-    <t>UKJQHH</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>335577016402325123</t>
-  </si>
-  <si>
-    <t>ICIC96372178056</t>
-  </si>
-  <si>
-    <t>ICIC88665401665</t>
-  </si>
-  <si>
-    <t>7141825283</t>
-  </si>
-  <si>
-    <t>AbhinavChandran32698@example.net</t>
-  </si>
-  <si>
-    <t>1994-12-04</t>
-  </si>
-  <si>
-    <t>312206470550985</t>
-  </si>
-  <si>
-    <t>c9d914aa6ab73dd9</t>
-  </si>
-  <si>
-    <t>934899987375702</t>
-  </si>
-  <si>
-    <t>IDEP6714284577283OHX</t>
-  </si>
-  <si>
-    <t>59999609471</t>
-  </si>
-  <si>
-    <t>DBCCLO</t>
-  </si>
-  <si>
-    <t>BNPL4761286424675394</t>
-  </si>
-  <si>
-    <t>59999133303</t>
-  </si>
-  <si>
-    <t>GFANTM</t>
-  </si>
-  <si>
-    <t>59999559796</t>
-  </si>
-  <si>
-    <t>LKMTMS</t>
-  </si>
-  <si>
-    <t>59999596155</t>
-  </si>
-  <si>
-    <t>DFUTGE</t>
-  </si>
-  <si>
-    <t>59999173051</t>
-  </si>
-  <si>
-    <t>KAJNFF</t>
-  </si>
-  <si>
-    <t>59999427289</t>
-  </si>
-  <si>
-    <t>PDGNIK</t>
-  </si>
-  <si>
-    <t>59999618888</t>
-  </si>
-  <si>
-    <t>FRAHAT</t>
-  </si>
-  <si>
-    <t>59999466866</t>
-  </si>
-  <si>
-    <t>KJMSBE</t>
-  </si>
-  <si>
-    <t>59999839486</t>
-  </si>
-  <si>
-    <t>CMPQQL</t>
-  </si>
-  <si>
-    <t>59999794363</t>
-  </si>
-  <si>
-    <t>IQPELT</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>335577017141825283</t>
-  </si>
-  <si>
-    <t>ICIC89987597468</t>
-  </si>
-  <si>
-    <t>ICIC95238253010</t>
-  </si>
-  <si>
-    <t>9604962194</t>
-  </si>
-  <si>
-    <t>Tejaswani</t>
-  </si>
-  <si>
-    <t>MehulDeo14113@example.net</t>
-  </si>
-  <si>
-    <t>1987-02-26</t>
-  </si>
-  <si>
-    <t>890884425885134</t>
-  </si>
-  <si>
-    <t>3609e436e8ab2b57</t>
-  </si>
-  <si>
-    <t>722738395662382</t>
-  </si>
-  <si>
-    <t>IDEP467129822935O2WD</t>
-  </si>
-  <si>
-    <t>8827768491</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>UmeshDas18819@example.net</t>
-  </si>
-  <si>
-    <t>1977-07-12</t>
-  </si>
-  <si>
-    <t>378552758893485</t>
-  </si>
-  <si>
-    <t>873357aecf9b9922</t>
-  </si>
-  <si>
-    <t>023561682533728</t>
-  </si>
-  <si>
-    <t>IDEP761438823388F3JD</t>
-  </si>
-  <si>
-    <t>9344331490</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>HrishikeshTiwari18334@example.net</t>
-  </si>
-  <si>
-    <t>1982-03-04</t>
-  </si>
-  <si>
-    <t>522447570685521</t>
-  </si>
-  <si>
-    <t>4304c2a4789b5a21</t>
-  </si>
-  <si>
-    <t>804300151752286</t>
-  </si>
-  <si>
-    <t>IDEP614738212239U247</t>
-  </si>
-  <si>
-    <t>9030885173</t>
-  </si>
-  <si>
-    <t>WafiqKhare53811@example.net</t>
-  </si>
-  <si>
-    <t>1984-10-13</t>
-  </si>
-  <si>
-    <t>540112954113197</t>
-  </si>
-  <si>
-    <t>fa13d953a0173255</t>
-  </si>
-  <si>
-    <t>443993743723539</t>
-  </si>
-  <si>
-    <t>IDEP614738483354AR4N</t>
-  </si>
-  <si>
-    <t>9878885189</t>
-  </si>
-  <si>
-    <t>Narmada</t>
-  </si>
-  <si>
-    <t>ViratBajaj49256@example.net</t>
-  </si>
-  <si>
-    <t>1973-11-01</t>
-  </si>
-  <si>
-    <t>739836196770429</t>
-  </si>
-  <si>
-    <t>05d0e7eecda41bd7</t>
-  </si>
-  <si>
-    <t>466699138367160</t>
-  </si>
-  <si>
-    <t>IDEP6714985445316MN8</t>
-  </si>
-  <si>
-    <t>8318199827</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>RahimSetty20297@example.net</t>
-  </si>
-  <si>
-    <t>1990-02-14</t>
-  </si>
-  <si>
-    <t>080485892414182</t>
-  </si>
-  <si>
-    <t>487e83a934e588e7</t>
-  </si>
-  <si>
-    <t>148975417170277</t>
-  </si>
-  <si>
-    <t>IDEP641713963188S6M3</t>
-  </si>
-  <si>
-    <t>6329833790</t>
-  </si>
-  <si>
-    <t>Shobha</t>
-  </si>
-  <si>
-    <t>PirzadaNazareth67178@example.net</t>
-  </si>
-  <si>
-    <t>1988-11-14</t>
-  </si>
-  <si>
-    <t>294814747214541</t>
-  </si>
-  <si>
-    <t>d027d140f18826d2</t>
-  </si>
-  <si>
-    <t>064393226197079</t>
-  </si>
-  <si>
-    <t>IDEP461715583483E6PZ</t>
-  </si>
-  <si>
-    <t>9944006563</t>
-  </si>
-  <si>
-    <t>Runjhun</t>
-  </si>
-  <si>
-    <t>QabeelParekh77172@example.net</t>
-  </si>
-  <si>
-    <t>1971-09-15</t>
-  </si>
-  <si>
-    <t>342090184828950</t>
-  </si>
-  <si>
-    <t>bb8f33c7d51b1b70</t>
-  </si>
-  <si>
-    <t>300242083561543</t>
-  </si>
-  <si>
-    <t>IDEP764115782898HYLD</t>
-  </si>
-  <si>
-    <t>6922100787</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>SaurabhDua64162@example.net</t>
-  </si>
-  <si>
-    <t>1987-12-31</t>
-  </si>
-  <si>
-    <t>079351124640213</t>
-  </si>
-  <si>
-    <t>4ba55188aecce00d</t>
-  </si>
-  <si>
-    <t>255827965771759</t>
-  </si>
-  <si>
-    <t>IDEP416751668883JUZX</t>
-  </si>
-  <si>
-    <t>8960988520</t>
-  </si>
-  <si>
-    <t>Sukriti</t>
-  </si>
-  <si>
-    <t>RajuBalan66012@example.net</t>
-  </si>
-  <si>
-    <t>1989-07-16</t>
-  </si>
-  <si>
-    <t>894805813712511</t>
-  </si>
-  <si>
-    <t>211c04837703963c</t>
-  </si>
-  <si>
-    <t>153260752793963</t>
-  </si>
-  <si>
-    <t>IDEP76146827826987AS</t>
-  </si>
-  <si>
-    <t>6770369581</t>
-  </si>
-  <si>
-    <t>Falguni</t>
-  </si>
-  <si>
-    <t>FakaruddinChanda54069@example.net</t>
-  </si>
-  <si>
-    <t>355956708365600</t>
-  </si>
-  <si>
-    <t>c627c1381bcd032d</t>
-  </si>
-  <si>
-    <t>312271736005976</t>
-  </si>
-  <si>
-    <t>IDEP741668686711RDLS</t>
-  </si>
-  <si>
-    <t>8387925258</t>
-  </si>
-  <si>
-    <t>PreetMurthy64729@example.net</t>
-  </si>
-  <si>
-    <t>1982-03-19</t>
-  </si>
-  <si>
-    <t>176319410016218</t>
-  </si>
-  <si>
-    <t>13b082907e2ccdd8</t>
-  </si>
-  <si>
-    <t>955530755618551</t>
-  </si>
-  <si>
-    <t>IDEP614768865596TO1M</t>
-  </si>
-  <si>
-    <t>9945657397</t>
-  </si>
-  <si>
-    <t>JawaharVig97986@example.net</t>
-  </si>
-  <si>
-    <t>1986-07-03</t>
-  </si>
-  <si>
-    <t>465432208737794</t>
-  </si>
-  <si>
-    <t>d316e7dac3c0d4e5</t>
-  </si>
-  <si>
-    <t>798408307689324</t>
-  </si>
-  <si>
-    <t>IDEP7146693619825DXY</t>
-  </si>
-  <si>
-    <t>7367074016</t>
-  </si>
-  <si>
-    <t>Niyati</t>
-  </si>
-  <si>
-    <t>ZaadTank77759@example.net</t>
-  </si>
-  <si>
-    <t>1984-09-27</t>
-  </si>
-  <si>
-    <t>146589485972548</t>
-  </si>
-  <si>
-    <t>edbf594d749fdc1d</t>
-  </si>
-  <si>
-    <t>491111230301781</t>
-  </si>
-  <si>
-    <t>IDEP714669628199RA91</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>59999657239</t>
-  </si>
-  <si>
-    <t>IMMHFU</t>
-  </si>
-  <si>
-    <t>BNPL4167698123774395</t>
-  </si>
-  <si>
-    <t>59999624099</t>
-  </si>
-  <si>
-    <t>PUMTPU</t>
-  </si>
-  <si>
-    <t>59999592221</t>
-  </si>
-  <si>
-    <t>QUDKQC</t>
-  </si>
-  <si>
-    <t>59999041563</t>
-  </si>
-  <si>
-    <t>IHIJBB</t>
-  </si>
-  <si>
-    <t>59999034169</t>
-  </si>
-  <si>
-    <t>HAGQDF</t>
-  </si>
-  <si>
-    <t>59999146727</t>
-  </si>
-  <si>
-    <t>ORMDAT</t>
-  </si>
-  <si>
-    <t>59999837937</t>
-  </si>
-  <si>
-    <t>DBMRDK</t>
-  </si>
-  <si>
-    <t>59999997081</t>
-  </si>
-  <si>
-    <t>CHAMRS</t>
-  </si>
-  <si>
-    <t>59999614984</t>
-  </si>
-  <si>
-    <t>GDRFJS</t>
-  </si>
-  <si>
-    <t>59999096907</t>
-  </si>
-  <si>
-    <t>FCGUAL</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>335577017367074016</t>
-  </si>
-  <si>
-    <t>ICIC84102738057</t>
-  </si>
-  <si>
-    <t>ICIC87606207486</t>
-  </si>
-  <si>
-    <t>9810256306</t>
-  </si>
-  <si>
-    <t>Preshita</t>
-  </si>
-  <si>
-    <t>KailashArya53676@example.net</t>
-  </si>
-  <si>
-    <t>1981-09-28</t>
-  </si>
-  <si>
-    <t>644947399486343</t>
-  </si>
-  <si>
-    <t>c83c833e1b38e215</t>
-  </si>
-  <si>
-    <t>021310264150291</t>
-  </si>
-  <si>
-    <t>IDEP764174393193CFLO</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>59999587801</t>
-  </si>
-  <si>
-    <t>EERIFA</t>
-  </si>
-  <si>
-    <t>BNPL1764745723885734</t>
-  </si>
-  <si>
-    <t>59999708616</t>
-  </si>
-  <si>
-    <t>BBRKGN</t>
-  </si>
-  <si>
-    <t>59999239216</t>
-  </si>
-  <si>
-    <t>PKADFN</t>
-  </si>
-  <si>
-    <t>59999826151</t>
-  </si>
-  <si>
-    <t>EAHHEL</t>
-  </si>
-  <si>
-    <t>59999220367</t>
-  </si>
-  <si>
-    <t>HJDAPB</t>
-  </si>
-  <si>
-    <t>59999805662</t>
-  </si>
-  <si>
-    <t>ERCBPH</t>
-  </si>
-  <si>
-    <t>59999957297</t>
-  </si>
-  <si>
-    <t>FFOGNF</t>
-  </si>
-  <si>
-    <t>59999261452</t>
-  </si>
-  <si>
-    <t>JJTUUB</t>
-  </si>
-  <si>
-    <t>59999656169</t>
-  </si>
-  <si>
-    <t>EARLEC</t>
-  </si>
-  <si>
-    <t>59999173805</t>
-  </si>
-  <si>
-    <t>LNRUKN</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>335577019810256306</t>
-  </si>
-  <si>
-    <t>ICIC82023800413</t>
-  </si>
-  <si>
-    <t>ICIC93334610588</t>
-  </si>
-  <si>
-    <t>6147357734</t>
-  </si>
-  <si>
-    <t>Nidhi</t>
-  </si>
-  <si>
-    <t>DhanushVarghese47412@example.net</t>
-  </si>
-  <si>
-    <t>1994-08-17</t>
-  </si>
-  <si>
-    <t>737273353460093</t>
-  </si>
-  <si>
-    <t>ee21b765e06860fb</t>
-  </si>
-  <si>
-    <t>822875192999838</t>
-  </si>
-  <si>
-    <t>IDEP7614763484816UIS</t>
-  </si>
-  <si>
-    <t>7799076892</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>ZeeshanRamanathan83624@example.net</t>
-  </si>
-  <si>
-    <t>1987-03-25</t>
-  </si>
-  <si>
-    <t>762275521608832</t>
-  </si>
-  <si>
-    <t>92727aabaeea2020</t>
-  </si>
-  <si>
-    <t>683606941076273</t>
-  </si>
-  <si>
-    <t>8032159207</t>
-  </si>
-  <si>
-    <t>HemendraMallick22605@example.net</t>
-  </si>
-  <si>
-    <t>1971-04-08</t>
-  </si>
-  <si>
-    <t>044854121876906</t>
-  </si>
-  <si>
-    <t>8342d9c11649403f</t>
-  </si>
-  <si>
-    <t>583009636503894</t>
-  </si>
-  <si>
-    <t>IDEP461738463834WH9N</t>
+    <t>SharadSood31939@example.net</t>
+  </si>
+  <si>
+    <t>1987-09-25</t>
+  </si>
+  <si>
+    <t>779777037455492</t>
+  </si>
+  <si>
+    <t>54a32282667429c0</t>
+  </si>
+  <si>
+    <t>054129975576366</t>
+  </si>
+  <si>
+    <t>IDEP7156643167687KLT</t>
+  </si>
+  <si>
+    <t>59999838460</t>
+  </si>
+  <si>
+    <t>TPTGDC</t>
+  </si>
+  <si>
+    <t>BNPL1576644889559745</t>
+  </si>
+  <si>
+    <t>59999090706</t>
+  </si>
+  <si>
+    <t>CEBQJI</t>
+  </si>
+  <si>
+    <t>59999185614</t>
+  </si>
+  <si>
+    <t>MBFMRK</t>
+  </si>
+  <si>
+    <t>59999035896</t>
+  </si>
+  <si>
+    <t>JSJJPL</t>
+  </si>
+  <si>
+    <t>59999244309</t>
+  </si>
+  <si>
+    <t>PLMNUC</t>
+  </si>
+  <si>
+    <t>59999557816</t>
+  </si>
+  <si>
+    <t>ELAIKH</t>
+  </si>
+  <si>
+    <t>59999403824</t>
+  </si>
+  <si>
+    <t>OQKARN</t>
+  </si>
+  <si>
+    <t>59999964550</t>
+  </si>
+  <si>
+    <t>QCCBRL</t>
+  </si>
+  <si>
+    <t>59999940794</t>
+  </si>
+  <si>
+    <t>SFPMBD</t>
+  </si>
+  <si>
+    <t>59999597803</t>
+  </si>
+  <si>
+    <t>LFOGNS</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>335577018204206090</t>
+  </si>
+  <si>
+    <t>ICIC89229703795</t>
+  </si>
+  <si>
+    <t>ICIC88030984678</t>
   </si>
 </sst>
 </file>
@@ -4204,7 +1771,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4290,12 +1857,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4342,7 +1903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4389,7 +1950,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4703,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4823,22 +2383,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1356</v>
+        <v>567</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>1357</v>
+        <v>568</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -5175,7 +2735,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1339</v>
+        <v>550</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -5272,16 +2832,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1381</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>1382</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1380</v>
+        <v>544</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5384,7 +2944,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1359</v>
+        <v>570</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5396,7 +2956,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1360</v>
+        <v>571</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5405,7 +2965,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>161.0</v>
+        <v>152.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5497,13 +3057,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1379</v>
+        <v>543</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5852,13 +3412,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1379</v>
+        <v>543</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6167,13 +3727,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1379</v>
+        <v>543</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -6267,13 +3827,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1379</v>
+        <v>543</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6582,13 +4142,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1379</v>
+        <v>543</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -6707,7 +4267,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1359</v>
+        <v>570</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -6719,7 +4279,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1361</v>
+        <v>572</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -6728,7 +4288,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>161.0</v>
+        <v>152.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6773,8 +4333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6855,10 +4415,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>1378</v>
+        <v>542</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -6870,7 +4430,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1380</v>
+        <v>544</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -6879,10 +4439,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="M2" t="n">
-        <v>4220951.0</v>
+        <v>4224448.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -6908,7 +4468,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -6920,7 +4480,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -6929,7 +4489,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -6992,7 +4552,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7009,7 +4569,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7026,7 +4586,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7043,7 +4603,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7060,7 +4620,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1377</v>
+        <v>540</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7229,7 +4789,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1380</v>
+        <v>544</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7473,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1380</v>
+        <v>544</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7688,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -7771,7 +5331,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -8069,7 +5629,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8089,7 +5649,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8109,7 +5669,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -8129,7 +5689,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8149,7 +5709,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8169,7 +5729,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8189,7 +5749,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1383</v>
+        <v>547</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8248,7 +5808,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>329</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8262,7 +5822,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>592</v>
+        <v>329</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="588">
   <si>
     <t>TestCases</t>
   </si>
@@ -1764,6 +1764,51 @@
   </si>
   <si>
     <t>ICIC88030984678</t>
+  </si>
+  <si>
+    <t>7062978472</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>AjinkyaBhatt64712@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-05</t>
+  </si>
+  <si>
+    <t>413549323431913</t>
+  </si>
+  <si>
+    <t>3c3e967477ca7c67</t>
+  </si>
+  <si>
+    <t>135978126931257</t>
+  </si>
+  <si>
+    <t>9959705724</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>GulzarParsa46333@example.net</t>
+  </si>
+  <si>
+    <t>1992-05-28</t>
+  </si>
+  <si>
+    <t>610731179524154</t>
+  </si>
+  <si>
+    <t>06404979cc71cd6f</t>
+  </si>
+  <si>
+    <t>887494573881383</t>
+  </si>
+  <si>
+    <t>IDEP716577983421MLWC</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2383,7 +2428,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
         <v>329</v>
@@ -2832,16 +2877,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3057,13 +3102,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3412,13 +3457,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3727,13 +3772,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3827,13 +3872,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4142,13 +4187,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4415,10 +4460,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4430,7 +4475,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4439,10 +4484,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="M2" t="n">
-        <v>4224448.0</v>
+        <v>4224663.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4489,7 +4534,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4552,7 +4597,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4569,7 +4614,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4586,7 +4631,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4603,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4620,7 +4665,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4789,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5033,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5248,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5331,7 +5376,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5629,7 +5674,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5649,7 +5694,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5669,7 +5714,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5689,7 +5734,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5709,7 +5754,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5729,7 +5774,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5749,7 +5794,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="595">
   <si>
     <t>TestCases</t>
   </si>
@@ -1809,6 +1809,27 @@
   </si>
   <si>
     <t>IDEP716577983421MLWC</t>
+  </si>
+  <si>
+    <t>9664878146</t>
+  </si>
+  <si>
+    <t>Heer</t>
+  </si>
+  <si>
+    <t>VijayDin97937@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-26</t>
+  </si>
+  <si>
+    <t>813638254240710</t>
+  </si>
+  <si>
+    <t>daf4c8bf94174ceb</t>
+  </si>
+  <si>
+    <t>632058596691141</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2877,16 +2898,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3102,13 +3123,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3457,13 +3478,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3772,13 +3793,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3872,13 +3893,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E2" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4187,13 +4208,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4460,10 +4481,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4475,7 +4496,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4597,7 +4618,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4614,7 +4635,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4631,7 +4652,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4648,7 +4669,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4665,7 +4686,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4834,7 +4855,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5078,7 +5099,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5293,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="667">
   <si>
     <t>TestCases</t>
   </si>
@@ -1830,6 +1830,222 @@
   </si>
   <si>
     <t>632058596691141</t>
+  </si>
+  <si>
+    <t>6701126900</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>DarpanSankar45633@example.net</t>
+  </si>
+  <si>
+    <t>1983-11-18</t>
+  </si>
+  <si>
+    <t>840040391453313</t>
+  </si>
+  <si>
+    <t>14044f5dda2bfc55</t>
+  </si>
+  <si>
+    <t>852399888508244</t>
+  </si>
+  <si>
+    <t>IDEP6715981161915QF2</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999802323</t>
+  </si>
+  <si>
+    <t>RNIQTB</t>
+  </si>
+  <si>
+    <t>59999124312</t>
+  </si>
+  <si>
+    <t>UNFFND</t>
+  </si>
+  <si>
+    <t>59999466956</t>
+  </si>
+  <si>
+    <t>IKRBNI</t>
+  </si>
+  <si>
+    <t>59999292167</t>
+  </si>
+  <si>
+    <t>DOORKD</t>
+  </si>
+  <si>
+    <t>59999232552</t>
+  </si>
+  <si>
+    <t>NTSAJH</t>
+  </si>
+  <si>
+    <t>59999215442</t>
+  </si>
+  <si>
+    <t>ERMCMF</t>
+  </si>
+  <si>
+    <t>59999437019</t>
+  </si>
+  <si>
+    <t>MNCEES</t>
+  </si>
+  <si>
+    <t>59999039586</t>
+  </si>
+  <si>
+    <t>FQUKMN</t>
+  </si>
+  <si>
+    <t>59999500691</t>
+  </si>
+  <si>
+    <t>GTCGFM</t>
+  </si>
+  <si>
+    <t>59999757853</t>
+  </si>
+  <si>
+    <t>FMGOTH</t>
+  </si>
+  <si>
+    <t>7050866555</t>
+  </si>
+  <si>
+    <t>Shweta</t>
+  </si>
+  <si>
+    <t>DeepSing79765@example.net</t>
+  </si>
+  <si>
+    <t>1994-04-29</t>
+  </si>
+  <si>
+    <t>417333639350836</t>
+  </si>
+  <si>
+    <t>980777e50eab5e3f</t>
+  </si>
+  <si>
+    <t>375884055339638</t>
+  </si>
+  <si>
+    <t>IDEP756191186396NIES</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>59999692146</t>
+  </si>
+  <si>
+    <t>ROAFIQ</t>
+  </si>
+  <si>
+    <t>BNPL5716912862975379</t>
+  </si>
+  <si>
+    <t>59999363471</t>
+  </si>
+  <si>
+    <t>PAPMCL</t>
+  </si>
+  <si>
+    <t>59999537970</t>
+  </si>
+  <si>
+    <t>KGKJBL</t>
+  </si>
+  <si>
+    <t>59999138428</t>
+  </si>
+  <si>
+    <t>FDTORQ</t>
+  </si>
+  <si>
+    <t>59999949888</t>
+  </si>
+  <si>
+    <t>HQCLAA</t>
+  </si>
+  <si>
+    <t>59999563745</t>
+  </si>
+  <si>
+    <t>UEBNMH</t>
+  </si>
+  <si>
+    <t>59999865453</t>
+  </si>
+  <si>
+    <t>TAHBBB</t>
+  </si>
+  <si>
+    <t>59999110426</t>
+  </si>
+  <si>
+    <t>QLIJEH</t>
+  </si>
+  <si>
+    <t>59999186918</t>
+  </si>
+  <si>
+    <t>CUJLQE</t>
+  </si>
+  <si>
+    <t>59999125590</t>
+  </si>
+  <si>
+    <t>GGMQET</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>335577017050866555</t>
+  </si>
+  <si>
+    <t>ICIC99880282847</t>
+  </si>
+  <si>
+    <t>ICIC89873122672</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2449,22 +2665,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>641</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2801,7 +3017,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2898,16 +3114,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3010,7 +3226,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3022,7 +3238,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3031,7 +3247,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0</v>
+        <v>139.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3123,13 +3339,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3478,13 +3694,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3793,13 +4009,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3893,13 +4109,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E2" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4208,13 +4424,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4333,7 +4549,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4345,7 +4561,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>666</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4354,7 +4570,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0</v>
+        <v>139.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4481,10 +4697,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4496,7 +4712,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4505,10 +4721,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="M2" t="n">
-        <v>4224663.0</v>
+        <v>4224887.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4555,7 +4771,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4618,7 +4834,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4635,7 +4851,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4652,7 +4868,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4669,7 +4885,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4686,7 +4902,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4855,7 +5071,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5099,7 +5315,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5314,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5397,7 +5613,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5695,7 +5911,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5715,7 +5931,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5735,7 +5951,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5755,7 +5971,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5775,7 +5991,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5795,7 +6011,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5815,7 +6031,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5874,7 +6090,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5888,7 +6104,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>641</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="720">
   <si>
     <t>TestCases</t>
   </si>
@@ -2046,6 +2046,165 @@
   </si>
   <si>
     <t>ICIC89873122672</t>
+  </si>
+  <si>
+    <t>7884746406</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>SamirRamkissoon79447@example.net</t>
+  </si>
+  <si>
+    <t>1986-12-21</t>
+  </si>
+  <si>
+    <t>835307172698789</t>
+  </si>
+  <si>
+    <t>aeaaf4f5840d6b17</t>
+  </si>
+  <si>
+    <t>782925367725555</t>
+  </si>
+  <si>
+    <t>8475988525</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>BrockKadakia30452@example.net</t>
+  </si>
+  <si>
+    <t>1976-05-15</t>
+  </si>
+  <si>
+    <t>883489596268604</t>
+  </si>
+  <si>
+    <t>b6747561c2f09166</t>
+  </si>
+  <si>
+    <t>896480984035684</t>
+  </si>
+  <si>
+    <t>7610211303</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>GaneshDeshmukh74924@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-16</t>
+  </si>
+  <si>
+    <t>828370307436458</t>
+  </si>
+  <si>
+    <t>90e3bc6f0302eca1</t>
+  </si>
+  <si>
+    <t>375392320428426</t>
+  </si>
+  <si>
+    <t>IDEP176542918628SUM4</t>
+  </si>
+  <si>
+    <t>8906700214</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>OmarCheema98589@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-04</t>
+  </si>
+  <si>
+    <t>950267163274801</t>
+  </si>
+  <si>
+    <t>ec74a07f9957ea07</t>
+  </si>
+  <si>
+    <t>532241234645528</t>
+  </si>
+  <si>
+    <t>IDEP651743227675FKDW</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>59999244740</t>
+  </si>
+  <si>
+    <t>BMUAUE</t>
+  </si>
+  <si>
+    <t>59999872790</t>
+  </si>
+  <si>
+    <t>AFHIBD</t>
+  </si>
+  <si>
+    <t>59999010533</t>
+  </si>
+  <si>
+    <t>TDCUPS</t>
+  </si>
+  <si>
+    <t>59999612626</t>
+  </si>
+  <si>
+    <t>CIOFTE</t>
+  </si>
+  <si>
+    <t>59999887972</t>
+  </si>
+  <si>
+    <t>DPOTER</t>
+  </si>
+  <si>
+    <t>59999687964</t>
+  </si>
+  <si>
+    <t>RRPOGD</t>
+  </si>
+  <si>
+    <t>59999327174</t>
+  </si>
+  <si>
+    <t>FNPFDU</t>
+  </si>
+  <si>
+    <t>59999981343</t>
+  </si>
+  <si>
+    <t>FBAFIA</t>
+  </si>
+  <si>
+    <t>59999249094</t>
+  </si>
+  <si>
+    <t>RJSJTQ</t>
+  </si>
+  <si>
+    <t>59999109657</t>
+  </si>
+  <si>
+    <t>ERBJRK</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2665,22 +2824,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C2" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3016,9 +3175,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>644</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3114,16 +3271,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
-        <v>634</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3339,13 +3496,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3694,13 +3851,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4009,13 +4166,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4109,13 +4266,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4424,13 +4581,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4697,10 +4854,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4712,7 +4869,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4721,10 +4878,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="M2" t="n">
-        <v>4224887.0</v>
+        <v>4225055.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4771,7 +4928,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4834,7 +4991,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4851,7 +5008,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4868,7 +5025,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4885,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4902,7 +5059,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5071,7 +5228,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5315,7 +5472,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5530,7 +5687,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5613,7 +5770,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5911,7 +6068,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5931,7 +6088,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5951,7 +6108,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5971,7 +6128,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5991,7 +6148,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6011,7 +6168,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6031,7 +6188,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6090,7 +6247,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6104,7 +6261,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="898">
   <si>
     <t>TestCases</t>
   </si>
@@ -2205,6 +2205,540 @@
   </si>
   <si>
     <t>ERBJRK</t>
+  </si>
+  <si>
+    <t>6186759527</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>DeepSandal57036@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-23</t>
+  </si>
+  <si>
+    <t>944542713215077</t>
+  </si>
+  <si>
+    <t>024a0f51613779df</t>
+  </si>
+  <si>
+    <t>438319359129497</t>
+  </si>
+  <si>
+    <t>IDEP576146433959IAZF</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>59999784072</t>
+  </si>
+  <si>
+    <t>PCKNGT</t>
+  </si>
+  <si>
+    <t>59999922491</t>
+  </si>
+  <si>
+    <t>QFGNLF</t>
+  </si>
+  <si>
+    <t>59999774531</t>
+  </si>
+  <si>
+    <t>DIJFGI</t>
+  </si>
+  <si>
+    <t>59999868943</t>
+  </si>
+  <si>
+    <t>KKSNJQ</t>
+  </si>
+  <si>
+    <t>59999829161</t>
+  </si>
+  <si>
+    <t>KHHPGM</t>
+  </si>
+  <si>
+    <t>59999485711</t>
+  </si>
+  <si>
+    <t>SFEENL</t>
+  </si>
+  <si>
+    <t>59999842760</t>
+  </si>
+  <si>
+    <t>BEPUMQ</t>
+  </si>
+  <si>
+    <t>59999676002</t>
+  </si>
+  <si>
+    <t>CHBJHO</t>
+  </si>
+  <si>
+    <t>59999743489</t>
+  </si>
+  <si>
+    <t>LGGMSH</t>
+  </si>
+  <si>
+    <t>59999038770</t>
+  </si>
+  <si>
+    <t>IMNTDE</t>
+  </si>
+  <si>
+    <t>8233021908</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>UmarKashyap63053@example.net</t>
+  </si>
+  <si>
+    <t>1985-04-14</t>
+  </si>
+  <si>
+    <t>999725898171074</t>
+  </si>
+  <si>
+    <t>4369bcf1f7200913</t>
+  </si>
+  <si>
+    <t>910968692107383</t>
+  </si>
+  <si>
+    <t>IDEP571647492683MUE3</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>59999354412</t>
+  </si>
+  <si>
+    <t>EQGFIB</t>
+  </si>
+  <si>
+    <t>BNPL7516476795294715</t>
+  </si>
+  <si>
+    <t>59999471256</t>
+  </si>
+  <si>
+    <t>GTJBJM</t>
+  </si>
+  <si>
+    <t>59999310490</t>
+  </si>
+  <si>
+    <t>NOELNJ</t>
+  </si>
+  <si>
+    <t>59999706862</t>
+  </si>
+  <si>
+    <t>DNUKUS</t>
+  </si>
+  <si>
+    <t>59999646729</t>
+  </si>
+  <si>
+    <t>GKJIOD</t>
+  </si>
+  <si>
+    <t>59999447093</t>
+  </si>
+  <si>
+    <t>MEFFRN</t>
+  </si>
+  <si>
+    <t>59999908852</t>
+  </si>
+  <si>
+    <t>GGDFQR</t>
+  </si>
+  <si>
+    <t>59999163533</t>
+  </si>
+  <si>
+    <t>GIAPIC</t>
+  </si>
+  <si>
+    <t>59999725002</t>
+  </si>
+  <si>
+    <t>NIFRBF</t>
+  </si>
+  <si>
+    <t>59999999420</t>
+  </si>
+  <si>
+    <t>JLJDUD</t>
+  </si>
+  <si>
+    <t>335577018233021908</t>
+  </si>
+  <si>
+    <t>ICIC81683865015</t>
+  </si>
+  <si>
+    <t>ICIC89923320620</t>
+  </si>
+  <si>
+    <t>8383087883</t>
+  </si>
+  <si>
+    <t>KarimRaja27298@example.net</t>
+  </si>
+  <si>
+    <t>1983-02-12</t>
+  </si>
+  <si>
+    <t>630249607070381</t>
+  </si>
+  <si>
+    <t>f6ff0e859fe80b8f</t>
+  </si>
+  <si>
+    <t>588045529793098</t>
+  </si>
+  <si>
+    <t>IDEP765148333613SVNM</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>59999560804</t>
+  </si>
+  <si>
+    <t>AEKFSA</t>
+  </si>
+  <si>
+    <t>BNPL7516485339863895</t>
+  </si>
+  <si>
+    <t>59999496185</t>
+  </si>
+  <si>
+    <t>RKGLAB</t>
+  </si>
+  <si>
+    <t>59999681842</t>
+  </si>
+  <si>
+    <t>KSQLUS</t>
+  </si>
+  <si>
+    <t>59999547705</t>
+  </si>
+  <si>
+    <t>APTPRH</t>
+  </si>
+  <si>
+    <t>59999618587</t>
+  </si>
+  <si>
+    <t>RBEPRC</t>
+  </si>
+  <si>
+    <t>59999391492</t>
+  </si>
+  <si>
+    <t>CEFAPT</t>
+  </si>
+  <si>
+    <t>59999618490</t>
+  </si>
+  <si>
+    <t>GUDNRC</t>
+  </si>
+  <si>
+    <t>59999723905</t>
+  </si>
+  <si>
+    <t>IQSQIG</t>
+  </si>
+  <si>
+    <t>59999626333</t>
+  </si>
+  <si>
+    <t>TUPFLF</t>
+  </si>
+  <si>
+    <t>59999629577</t>
+  </si>
+  <si>
+    <t>AAENCR</t>
+  </si>
+  <si>
+    <t>9379536591</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>ParvezChad13968@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-08</t>
+  </si>
+  <si>
+    <t>170257811008408</t>
+  </si>
+  <si>
+    <t>91611c2936b5bbb2</t>
+  </si>
+  <si>
+    <t>521391875099270</t>
+  </si>
+  <si>
+    <t>IDEP516748661688KT2P</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>59999614616</t>
+  </si>
+  <si>
+    <t>JBTPOF</t>
+  </si>
+  <si>
+    <t>BNPL7561488548628346</t>
+  </si>
+  <si>
+    <t>59999024930</t>
+  </si>
+  <si>
+    <t>ATENRT</t>
+  </si>
+  <si>
+    <t>59999892898</t>
+  </si>
+  <si>
+    <t>JKRULH</t>
+  </si>
+  <si>
+    <t>59999826219</t>
+  </si>
+  <si>
+    <t>GIBFQT</t>
+  </si>
+  <si>
+    <t>59999120613</t>
+  </si>
+  <si>
+    <t>SEUQUO</t>
+  </si>
+  <si>
+    <t>59999980300</t>
+  </si>
+  <si>
+    <t>AMBIQH</t>
+  </si>
+  <si>
+    <t>59999004950</t>
+  </si>
+  <si>
+    <t>LMCQBP</t>
+  </si>
+  <si>
+    <t>59999605825</t>
+  </si>
+  <si>
+    <t>FSLGRJ</t>
+  </si>
+  <si>
+    <t>59999728288</t>
+  </si>
+  <si>
+    <t>OLDIJE</t>
+  </si>
+  <si>
+    <t>59999618289</t>
+  </si>
+  <si>
+    <t>SLOFBM</t>
+  </si>
+  <si>
+    <t>6332082366</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>RajendraBanik86333@example.net</t>
+  </si>
+  <si>
+    <t>1970-06-03</t>
+  </si>
+  <si>
+    <t>837084311828415</t>
+  </si>
+  <si>
+    <t>f2306ae294c0626c</t>
+  </si>
+  <si>
+    <t>743906204923817</t>
+  </si>
+  <si>
+    <t>6824115249</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>NavalMitter68520@example.net</t>
+  </si>
+  <si>
+    <t>1974-05-29</t>
+  </si>
+  <si>
+    <t>446554424640900</t>
+  </si>
+  <si>
+    <t>1c64854f295c9ac5</t>
+  </si>
+  <si>
+    <t>510039350341542</t>
+  </si>
+  <si>
+    <t>IDEP165749329248KTV5</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>59999764049</t>
+  </si>
+  <si>
+    <t>BBQOJU</t>
+  </si>
+  <si>
+    <t>BNPL5176495239916415</t>
+  </si>
+  <si>
+    <t>59999925389</t>
+  </si>
+  <si>
+    <t>UNSFRT</t>
+  </si>
+  <si>
+    <t>59999447711</t>
+  </si>
+  <si>
+    <t>POSUCR</t>
+  </si>
+  <si>
+    <t>59999689477</t>
+  </si>
+  <si>
+    <t>LLKFCD</t>
+  </si>
+  <si>
+    <t>59999149641</t>
+  </si>
+  <si>
+    <t>NRBTGD</t>
+  </si>
+  <si>
+    <t>59999476623</t>
+  </si>
+  <si>
+    <t>OPCLUJ</t>
+  </si>
+  <si>
+    <t>59999928511</t>
+  </si>
+  <si>
+    <t>PCULIE</t>
+  </si>
+  <si>
+    <t>59999579301</t>
+  </si>
+  <si>
+    <t>HSARKO</t>
+  </si>
+  <si>
+    <t>59999882706</t>
+  </si>
+  <si>
+    <t>JMJGSK</t>
+  </si>
+  <si>
+    <t>59999223267</t>
+  </si>
+  <si>
+    <t>QMQOBL</t>
+  </si>
+  <si>
+    <t>9908803617</t>
+  </si>
+  <si>
+    <t>EkbalNaik44800@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-02</t>
+  </si>
+  <si>
+    <t>288392813191255</t>
+  </si>
+  <si>
+    <t>cd5f3f853336b746</t>
+  </si>
+  <si>
+    <t>253271244283827</t>
+  </si>
+  <si>
+    <t>7727514729</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>KailashPanchal53281@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-12</t>
+  </si>
+  <si>
+    <t>757946911853249</t>
+  </si>
+  <si>
+    <t>06e1b15e598cfad1</t>
+  </si>
+  <si>
+    <t>557457636771296</t>
+  </si>
+  <si>
+    <t>IDEP156749798863N96O</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2824,22 +3358,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>473</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>718</v>
+        <v>882</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>719</v>
+        <v>883</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3175,7 +3709,9 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>865</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3271,16 +3807,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>895</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>896</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>894</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3383,7 +3919,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>783</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3395,7 +3931,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>665</v>
+        <v>784</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3404,7 +3940,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>139.0</v>
+        <v>99.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3496,13 +4032,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>692</v>
+        <v>893</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3851,13 +4387,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>692</v>
+        <v>893</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4166,13 +4702,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>692</v>
+        <v>893</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4266,13 +4802,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>692</v>
+        <v>893</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4581,13 +5117,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>692</v>
+        <v>893</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4706,7 +5242,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>783</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4718,7 +5254,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>666</v>
+        <v>785</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4727,7 +5263,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>139.0</v>
+        <v>99.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4854,10 +5390,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
+        <v>892</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4869,7 +5405,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>693</v>
+        <v>894</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4878,10 +5414,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="M2" t="n">
-        <v>4225055.0</v>
+        <v>4225209.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4928,7 +5464,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -4991,7 +5527,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5008,7 +5544,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5025,7 +5561,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5042,7 +5578,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5059,7 +5595,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>689</v>
+        <v>890</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5228,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>693</v>
+        <v>894</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5472,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>693</v>
+        <v>894</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5687,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5770,7 +6306,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6068,7 +6604,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6088,7 +6624,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6108,7 +6644,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -6128,7 +6664,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6148,7 +6684,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6168,7 +6704,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6188,7 +6724,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>696</v>
+        <v>897</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6247,7 +6783,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>473</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6261,7 +6797,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>699</v>
+        <v>473</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1187">
   <si>
     <t>TestCases</t>
   </si>
@@ -2739,6 +2739,873 @@
   </si>
   <si>
     <t>IDEP156749798863N96O</t>
+  </si>
+  <si>
+    <t>7307688250</t>
+  </si>
+  <si>
+    <t>BalajiVarma28749@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-07</t>
+  </si>
+  <si>
+    <t>363032981712221</t>
+  </si>
+  <si>
+    <t>f73274622870210c</t>
+  </si>
+  <si>
+    <t>367093957786702</t>
+  </si>
+  <si>
+    <t>IDEP651768362365VX2M</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>59999589733</t>
+  </si>
+  <si>
+    <t>TORPPA</t>
+  </si>
+  <si>
+    <t>59999815857</t>
+  </si>
+  <si>
+    <t>LTFQEI</t>
+  </si>
+  <si>
+    <t>59999137959</t>
+  </si>
+  <si>
+    <t>UFNPPP</t>
+  </si>
+  <si>
+    <t>59999727943</t>
+  </si>
+  <si>
+    <t>CHCLSB</t>
+  </si>
+  <si>
+    <t>59999814326</t>
+  </si>
+  <si>
+    <t>RTJSDU</t>
+  </si>
+  <si>
+    <t>59999428516</t>
+  </si>
+  <si>
+    <t>GOGEFS</t>
+  </si>
+  <si>
+    <t>59999801540</t>
+  </si>
+  <si>
+    <t>KSGJSG</t>
+  </si>
+  <si>
+    <t>59999298002</t>
+  </si>
+  <si>
+    <t>HCNAFD</t>
+  </si>
+  <si>
+    <t>59999738805</t>
+  </si>
+  <si>
+    <t>HURILS</t>
+  </si>
+  <si>
+    <t>59999169125</t>
+  </si>
+  <si>
+    <t>ROKTCK</t>
+  </si>
+  <si>
+    <t>8946543598</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>GovindDeep66993@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-22</t>
+  </si>
+  <si>
+    <t>442170943522000</t>
+  </si>
+  <si>
+    <t>6574db2705c84836</t>
+  </si>
+  <si>
+    <t>061405195308389</t>
+  </si>
+  <si>
+    <t>8373628806</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>AjayGrover35702@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-09</t>
+  </si>
+  <si>
+    <t>858528736653877</t>
+  </si>
+  <si>
+    <t>8728a8df86e3e0d0</t>
+  </si>
+  <si>
+    <t>689504340643005</t>
+  </si>
+  <si>
+    <t>IDEP156768725858FTCD</t>
+  </si>
+  <si>
+    <t>59999262411</t>
+  </si>
+  <si>
+    <t>LNDLHR</t>
+  </si>
+  <si>
+    <t>BNPL7516689286449281</t>
+  </si>
+  <si>
+    <t>59999120575</t>
+  </si>
+  <si>
+    <t>QLQJAB</t>
+  </si>
+  <si>
+    <t>59999612213</t>
+  </si>
+  <si>
+    <t>UPOTIT</t>
+  </si>
+  <si>
+    <t>59999126788</t>
+  </si>
+  <si>
+    <t>OUQKRI</t>
+  </si>
+  <si>
+    <t>59999759565</t>
+  </si>
+  <si>
+    <t>NBBRNU</t>
+  </si>
+  <si>
+    <t>59999000433</t>
+  </si>
+  <si>
+    <t>HMQHON</t>
+  </si>
+  <si>
+    <t>59999145813</t>
+  </si>
+  <si>
+    <t>ISLNSD</t>
+  </si>
+  <si>
+    <t>59999157995</t>
+  </si>
+  <si>
+    <t>JTQABI</t>
+  </si>
+  <si>
+    <t>59999171220</t>
+  </si>
+  <si>
+    <t>JKQADT</t>
+  </si>
+  <si>
+    <t>59999193744</t>
+  </si>
+  <si>
+    <t>GBTTNH</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>335577018373628806</t>
+  </si>
+  <si>
+    <t>ICIC80751753450</t>
+  </si>
+  <si>
+    <t>ICIC82412855736</t>
+  </si>
+  <si>
+    <t>8126801610</t>
+  </si>
+  <si>
+    <t>Nupur</t>
+  </si>
+  <si>
+    <t>AnimeshDatta98037@example.net</t>
+  </si>
+  <si>
+    <t>1980-08-21</t>
+  </si>
+  <si>
+    <t>605160116023814</t>
+  </si>
+  <si>
+    <t>1ec0ec2b8698074d</t>
+  </si>
+  <si>
+    <t>302070613259173</t>
+  </si>
+  <si>
+    <t>IDEP517661848272398Q</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>59999258302</t>
+  </si>
+  <si>
+    <t>DTDAOJ</t>
+  </si>
+  <si>
+    <t>BNPL6175612423685967</t>
+  </si>
+  <si>
+    <t>59999431100</t>
+  </si>
+  <si>
+    <t>FLCIUE</t>
+  </si>
+  <si>
+    <t>59999640822</t>
+  </si>
+  <si>
+    <t>ISUAIS</t>
+  </si>
+  <si>
+    <t>59999885336</t>
+  </si>
+  <si>
+    <t>LUTDTK</t>
+  </si>
+  <si>
+    <t>59999980667</t>
+  </si>
+  <si>
+    <t>GFDFFF</t>
+  </si>
+  <si>
+    <t>59999952721</t>
+  </si>
+  <si>
+    <t>JRNTFL</t>
+  </si>
+  <si>
+    <t>59999695886</t>
+  </si>
+  <si>
+    <t>AFHLIG</t>
+  </si>
+  <si>
+    <t>59999770012</t>
+  </si>
+  <si>
+    <t>MTEJKH</t>
+  </si>
+  <si>
+    <t>59999281153</t>
+  </si>
+  <si>
+    <t>DEROCK</t>
+  </si>
+  <si>
+    <t>59999046694</t>
+  </si>
+  <si>
+    <t>JIOPBJ</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>335577018126801610</t>
+  </si>
+  <si>
+    <t>ICIC87515544173</t>
+  </si>
+  <si>
+    <t>ICIC90865357043</t>
+  </si>
+  <si>
+    <t>7090425434</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>NaseerChakraborty21433@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-14</t>
+  </si>
+  <si>
+    <t>793726233879684</t>
+  </si>
+  <si>
+    <t>4d19cc32bbca4a58</t>
+  </si>
+  <si>
+    <t>406993369303215</t>
+  </si>
+  <si>
+    <t>IDEP567161329544Z3VQ</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>59999673531</t>
+  </si>
+  <si>
+    <t>OLEEKN</t>
+  </si>
+  <si>
+    <t>BNPL5716615342123942</t>
+  </si>
+  <si>
+    <t>59999130091</t>
+  </si>
+  <si>
+    <t>GSLBJB</t>
+  </si>
+  <si>
+    <t>59999432098</t>
+  </si>
+  <si>
+    <t>HOIPNA</t>
+  </si>
+  <si>
+    <t>59999207191</t>
+  </si>
+  <si>
+    <t>GUHHPF</t>
+  </si>
+  <si>
+    <t>59999219555</t>
+  </si>
+  <si>
+    <t>HGBAAF</t>
+  </si>
+  <si>
+    <t>59999440183</t>
+  </si>
+  <si>
+    <t>HBGHRB</t>
+  </si>
+  <si>
+    <t>59999341636</t>
+  </si>
+  <si>
+    <t>MHNAOT</t>
+  </si>
+  <si>
+    <t>59999410454</t>
+  </si>
+  <si>
+    <t>CJPUGT</t>
+  </si>
+  <si>
+    <t>59999042029</t>
+  </si>
+  <si>
+    <t>CILBMT</t>
+  </si>
+  <si>
+    <t>59999461985</t>
+  </si>
+  <si>
+    <t>PGPNHC</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>335577017090425434</t>
+  </si>
+  <si>
+    <t>ICIC81081990352</t>
+  </si>
+  <si>
+    <t>ICIC80304211926</t>
+  </si>
+  <si>
+    <t>8207909135</t>
+  </si>
+  <si>
+    <t>Prerna</t>
+  </si>
+  <si>
+    <t>NirmalChoudhry53145@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-29</t>
+  </si>
+  <si>
+    <t>230797605958183</t>
+  </si>
+  <si>
+    <t>438aa81599f19ee3</t>
+  </si>
+  <si>
+    <t>580738651798608</t>
+  </si>
+  <si>
+    <t>IDEP651761887488KBVC</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>59999311981</t>
+  </si>
+  <si>
+    <t>OUFLDT</t>
+  </si>
+  <si>
+    <t>BNPL6571628861266852</t>
+  </si>
+  <si>
+    <t>59999856217</t>
+  </si>
+  <si>
+    <t>MUSNTT</t>
+  </si>
+  <si>
+    <t>59999748398</t>
+  </si>
+  <si>
+    <t>KSPLUD</t>
+  </si>
+  <si>
+    <t>59999008248</t>
+  </si>
+  <si>
+    <t>LENGCP</t>
+  </si>
+  <si>
+    <t>59999830669</t>
+  </si>
+  <si>
+    <t>EKQMOA</t>
+  </si>
+  <si>
+    <t>59999281494</t>
+  </si>
+  <si>
+    <t>CEUUNF</t>
+  </si>
+  <si>
+    <t>59999003730</t>
+  </si>
+  <si>
+    <t>BFJSHG</t>
+  </si>
+  <si>
+    <t>59999001639</t>
+  </si>
+  <si>
+    <t>NMQLCP</t>
+  </si>
+  <si>
+    <t>59999114376</t>
+  </si>
+  <si>
+    <t>UQDINP</t>
+  </si>
+  <si>
+    <t>59999791630</t>
+  </si>
+  <si>
+    <t>BSSJKS</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>335577018207909135</t>
+  </si>
+  <si>
+    <t>ICIC93451128668</t>
+  </si>
+  <si>
+    <t>ICIC91279775788</t>
+  </si>
+  <si>
+    <t>6935144553</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>ChiragShenoy36014@example.net</t>
+  </si>
+  <si>
+    <t>1992-12-31</t>
+  </si>
+  <si>
+    <t>214400075203624</t>
+  </si>
+  <si>
+    <t>3b8d63b26a7ea971</t>
+  </si>
+  <si>
+    <t>880185846447385</t>
+  </si>
+  <si>
+    <t>IDEP567162667518UR3X</t>
+  </si>
+  <si>
+    <t>9353062089</t>
+  </si>
+  <si>
+    <t>Trishana</t>
+  </si>
+  <si>
+    <t>NakulMadan77318@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-09</t>
+  </si>
+  <si>
+    <t>625053489049886</t>
+  </si>
+  <si>
+    <t>6291d2b120cdb1c8</t>
+  </si>
+  <si>
+    <t>400098560072316</t>
+  </si>
+  <si>
+    <t>IDEP517662749897N7MW</t>
+  </si>
+  <si>
+    <t>9079518669</t>
+  </si>
+  <si>
+    <t>Lalita</t>
+  </si>
+  <si>
+    <t>MotiSaran60136@example.net</t>
+  </si>
+  <si>
+    <t>1990-09-18</t>
+  </si>
+  <si>
+    <t>602652288571631</t>
+  </si>
+  <si>
+    <t>d8c308c78d219753</t>
+  </si>
+  <si>
+    <t>806717270086809</t>
+  </si>
+  <si>
+    <t>IDEP615763889948FV18</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>59999643775</t>
+  </si>
+  <si>
+    <t>NNPGRJ</t>
+  </si>
+  <si>
+    <t>BNPL1567632854192497</t>
+  </si>
+  <si>
+    <t>59999997803</t>
+  </si>
+  <si>
+    <t>EIKGDU</t>
+  </si>
+  <si>
+    <t>59999994674</t>
+  </si>
+  <si>
+    <t>DSBSQT</t>
+  </si>
+  <si>
+    <t>59999886809</t>
+  </si>
+  <si>
+    <t>FRFSOG</t>
+  </si>
+  <si>
+    <t>59999547396</t>
+  </si>
+  <si>
+    <t>OASEFH</t>
+  </si>
+  <si>
+    <t>59999125923</t>
+  </si>
+  <si>
+    <t>DEUTDD</t>
+  </si>
+  <si>
+    <t>59999912230</t>
+  </si>
+  <si>
+    <t>BAFMPQ</t>
+  </si>
+  <si>
+    <t>59999460229</t>
+  </si>
+  <si>
+    <t>RFIMAG</t>
+  </si>
+  <si>
+    <t>59999067874</t>
+  </si>
+  <si>
+    <t>CQATFL</t>
+  </si>
+  <si>
+    <t>59999274052</t>
+  </si>
+  <si>
+    <t>QSNNME</t>
+  </si>
+  <si>
+    <t>8326349768</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>AbbasSethi62520@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-10</t>
+  </si>
+  <si>
+    <t>577497630892868</t>
+  </si>
+  <si>
+    <t>e4d610ca605779d3</t>
+  </si>
+  <si>
+    <t>617549098335889</t>
+  </si>
+  <si>
+    <t>IDEP1657642658316AK1</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>59999064362</t>
+  </si>
+  <si>
+    <t>OBIMCC</t>
+  </si>
+  <si>
+    <t>BNPL1765644488869372</t>
+  </si>
+  <si>
+    <t>59999096483</t>
+  </si>
+  <si>
+    <t>SQGPUR</t>
+  </si>
+  <si>
+    <t>59999634906</t>
+  </si>
+  <si>
+    <t>RALUSF</t>
+  </si>
+  <si>
+    <t>59999743358</t>
+  </si>
+  <si>
+    <t>NPSJSB</t>
+  </si>
+  <si>
+    <t>59999920352</t>
+  </si>
+  <si>
+    <t>IKJKHF</t>
+  </si>
+  <si>
+    <t>59999874767</t>
+  </si>
+  <si>
+    <t>OREIUC</t>
+  </si>
+  <si>
+    <t>59999687877</t>
+  </si>
+  <si>
+    <t>EDCULT</t>
+  </si>
+  <si>
+    <t>59999887402</t>
+  </si>
+  <si>
+    <t>JNTPHI</t>
+  </si>
+  <si>
+    <t>59999095981</t>
+  </si>
+  <si>
+    <t>KOGEMS</t>
+  </si>
+  <si>
+    <t>59999687166</t>
+  </si>
+  <si>
+    <t>DEMRJO</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>335577018326349768</t>
+  </si>
+  <si>
+    <t>ICIC95523119945</t>
+  </si>
+  <si>
+    <t>ICIC86367803136</t>
+  </si>
+  <si>
+    <t>6492625533</t>
+  </si>
+  <si>
+    <t>Hira</t>
+  </si>
+  <si>
+    <t>JaswantMalhotra97028@example.net</t>
+  </si>
+  <si>
+    <t>1978-01-17</t>
+  </si>
+  <si>
+    <t>987129534260835</t>
+  </si>
+  <si>
+    <t>6f93c37c4f433685</t>
+  </si>
+  <si>
+    <t>286898728273188</t>
+  </si>
+  <si>
+    <t>IDEP567165266848CFW7</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>59999186945</t>
+  </si>
+  <si>
+    <t>KBOLPM</t>
+  </si>
+  <si>
+    <t>BNPL6751654471997184</t>
+  </si>
+  <si>
+    <t>59999262085</t>
+  </si>
+  <si>
+    <t>KKDDPS</t>
+  </si>
+  <si>
+    <t>59999877415</t>
+  </si>
+  <si>
+    <t>PDMBQB</t>
+  </si>
+  <si>
+    <t>59999907622</t>
+  </si>
+  <si>
+    <t>BTQCAS</t>
+  </si>
+  <si>
+    <t>59999528109</t>
+  </si>
+  <si>
+    <t>QQIRKC</t>
+  </si>
+  <si>
+    <t>59999503320</t>
+  </si>
+  <si>
+    <t>IPFIDL</t>
+  </si>
+  <si>
+    <t>59999797494</t>
+  </si>
+  <si>
+    <t>EHPTFC</t>
+  </si>
+  <si>
+    <t>59999817084</t>
+  </si>
+  <si>
+    <t>LGKIQA</t>
+  </si>
+  <si>
+    <t>59999580933</t>
+  </si>
+  <si>
+    <t>TOQNAN</t>
+  </si>
+  <si>
+    <t>59999790792</t>
+  </si>
+  <si>
+    <t>NBCIFR</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3358,22 +4225,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>882</v>
+        <v>1185</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>883</v>
+        <v>1186</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3710,7 +4577,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>865</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3807,16 +4674,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>895</v>
+        <v>1162</v>
       </c>
       <c r="C2" t="s">
-        <v>896</v>
+        <v>1163</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>894</v>
+        <v>1161</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3919,7 +4786,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>783</v>
+        <v>1154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3931,7 +4798,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>784</v>
+        <v>1155</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3940,7 +4807,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>99.0</v>
+        <v>179.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4032,13 +4899,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>893</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4387,13 +5254,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>893</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4702,13 +5569,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>893</v>
+        <v>1160</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4802,13 +5669,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="E2" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>893</v>
+        <v>1160</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5117,13 +5984,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>893</v>
+        <v>1160</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5242,7 +6109,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>783</v>
+        <v>1154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5254,7 +6121,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>785</v>
+        <v>1156</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5263,7 +6130,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>99.0</v>
+        <v>179.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5390,10 +6257,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="E2" t="s">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5405,7 +6272,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>894</v>
+        <v>1161</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5414,10 +6281,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="M2" t="n">
-        <v>4225209.0</v>
+        <v>4225438.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5464,7 +6331,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -5527,7 +6394,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5544,7 +6411,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5561,7 +6428,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5578,7 +6445,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5595,7 +6462,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>890</v>
+        <v>1157</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5764,7 +6631,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>894</v>
+        <v>1161</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6008,7 +6875,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>894</v>
+        <v>1161</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6223,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>891</v>
+        <v>1158</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6306,7 +7173,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6604,7 +7471,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6624,7 +7491,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6644,7 +7511,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -6664,7 +7531,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6684,7 +7551,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6704,7 +7571,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6724,7 +7591,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6783,7 +7650,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6797,7 +7664,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1191">
   <si>
     <t>TestCases</t>
   </si>
@@ -3606,6 +3606,18 @@
   </si>
   <si>
     <t>NBCIFR</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>335577016492625533</t>
+  </si>
+  <si>
+    <t>ICIC85809016153</t>
+  </si>
+  <si>
+    <t>ICIC83124812446</t>
   </si>
 </sst>
 </file>
@@ -4786,7 +4798,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4798,7 +4810,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1155</v>
+        <v>1189</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4807,7 +4819,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -6109,7 +6121,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -6121,7 +6133,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1156</v>
+        <v>1190</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -6130,7 +6142,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4879" uniqueCount="1504">
   <si>
     <t>TestCases</t>
   </si>
@@ -3618,6 +3618,945 @@
   </si>
   <si>
     <t>ICIC83124812446</t>
+  </si>
+  <si>
+    <t>7716455129</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>NawabMisra51573@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-19</t>
+  </si>
+  <si>
+    <t>461863791172763</t>
+  </si>
+  <si>
+    <t>10420cd3b24a8a06</t>
+  </si>
+  <si>
+    <t>306121219605511</t>
+  </si>
+  <si>
+    <t>6678471286</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>RajeshMalhotra80853@example.net</t>
+  </si>
+  <si>
+    <t>1982-07-22</t>
+  </si>
+  <si>
+    <t>271595823833323</t>
+  </si>
+  <si>
+    <t>d2fd1dadb7fecc3d</t>
+  </si>
+  <si>
+    <t>312473155365549</t>
+  </si>
+  <si>
+    <t>8811488167</t>
+  </si>
+  <si>
+    <t>HimeshKata23019@example.net</t>
+  </si>
+  <si>
+    <t>1976-02-13</t>
+  </si>
+  <si>
+    <t>494246457506881</t>
+  </si>
+  <si>
+    <t>c4c1d2f30edc6644</t>
+  </si>
+  <si>
+    <t>244103108553056</t>
+  </si>
+  <si>
+    <t>8111170190</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>EliasShan88052@example.net</t>
+  </si>
+  <si>
+    <t>1986-07-06</t>
+  </si>
+  <si>
+    <t>749516079884590</t>
+  </si>
+  <si>
+    <t>748551d5d54f59f1</t>
+  </si>
+  <si>
+    <t>121476739162606</t>
+  </si>
+  <si>
+    <t>8993039364</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>SiddharthBandi31723@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-02</t>
+  </si>
+  <si>
+    <t>072575116094578</t>
+  </si>
+  <si>
+    <t>083916c7f067560e</t>
+  </si>
+  <si>
+    <t>735164972922948</t>
+  </si>
+  <si>
+    <t>6494890592</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>UmeshNaik56078@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-13</t>
+  </si>
+  <si>
+    <t>843364109549965</t>
+  </si>
+  <si>
+    <t>47cc96f9c05614cf</t>
+  </si>
+  <si>
+    <t>514170494437650</t>
+  </si>
+  <si>
+    <t>9183012923</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>TanayKakar13354@example.net</t>
+  </si>
+  <si>
+    <t>1981-11-06</t>
+  </si>
+  <si>
+    <t>536068528496672</t>
+  </si>
+  <si>
+    <t>75acb90670709cc9</t>
+  </si>
+  <si>
+    <t>397015558551312</t>
+  </si>
+  <si>
+    <t>IDEP571658583685L2FE</t>
+  </si>
+  <si>
+    <t>7581687217</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>SrinivasanGoda33482@example.net</t>
+  </si>
+  <si>
+    <t>1979-06-25</t>
+  </si>
+  <si>
+    <t>804865471610117</t>
+  </si>
+  <si>
+    <t>023cc5f10e12cc43</t>
+  </si>
+  <si>
+    <t>258440244933872</t>
+  </si>
+  <si>
+    <t>IDEP651758599916KVB6</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999969247</t>
+  </si>
+  <si>
+    <t>IGCRRI</t>
+  </si>
+  <si>
+    <t>59999848366</t>
+  </si>
+  <si>
+    <t>IUGSBT</t>
+  </si>
+  <si>
+    <t>59999883806</t>
+  </si>
+  <si>
+    <t>LITMNC</t>
+  </si>
+  <si>
+    <t>59999675080</t>
+  </si>
+  <si>
+    <t>POUSDN</t>
+  </si>
+  <si>
+    <t>59999900276</t>
+  </si>
+  <si>
+    <t>OPURQF</t>
+  </si>
+  <si>
+    <t>59999959818</t>
+  </si>
+  <si>
+    <t>TKBOOC</t>
+  </si>
+  <si>
+    <t>59999107028</t>
+  </si>
+  <si>
+    <t>SSDSGJ</t>
+  </si>
+  <si>
+    <t>59999175104</t>
+  </si>
+  <si>
+    <t>CNFSQI</t>
+  </si>
+  <si>
+    <t>59999840637</t>
+  </si>
+  <si>
+    <t>SIPJSS</t>
+  </si>
+  <si>
+    <t>59999308209</t>
+  </si>
+  <si>
+    <t>DPULQO</t>
+  </si>
+  <si>
+    <t>7034795902</t>
+  </si>
+  <si>
+    <t>VarunShan85095@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-04</t>
+  </si>
+  <si>
+    <t>548209666129677</t>
+  </si>
+  <si>
+    <t>c40b98b191afb754</t>
+  </si>
+  <si>
+    <t>393934263909116</t>
+  </si>
+  <si>
+    <t>IDEP165751889745IYJ7</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>59999716296</t>
+  </si>
+  <si>
+    <t>UEEILR</t>
+  </si>
+  <si>
+    <t>BNPL5761513613753251</t>
+  </si>
+  <si>
+    <t>59999714806</t>
+  </si>
+  <si>
+    <t>FNPRBA</t>
+  </si>
+  <si>
+    <t>59999105842</t>
+  </si>
+  <si>
+    <t>ILFEIB</t>
+  </si>
+  <si>
+    <t>59999784948</t>
+  </si>
+  <si>
+    <t>LAUROM</t>
+  </si>
+  <si>
+    <t>59999920507</t>
+  </si>
+  <si>
+    <t>UBGDCH</t>
+  </si>
+  <si>
+    <t>59999735428</t>
+  </si>
+  <si>
+    <t>GGIKCM</t>
+  </si>
+  <si>
+    <t>59999952210</t>
+  </si>
+  <si>
+    <t>OQDBGR</t>
+  </si>
+  <si>
+    <t>59999235192</t>
+  </si>
+  <si>
+    <t>DPKQTR</t>
+  </si>
+  <si>
+    <t>59999944401</t>
+  </si>
+  <si>
+    <t>KQFQKK</t>
+  </si>
+  <si>
+    <t>59999330163</t>
+  </si>
+  <si>
+    <t>RFNINJ</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>335577017034795902</t>
+  </si>
+  <si>
+    <t>ICIC86615139805</t>
+  </si>
+  <si>
+    <t>ICIC96080644945</t>
+  </si>
+  <si>
+    <t>9610241571</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>AniruddhNarayan55297@example.net</t>
+  </si>
+  <si>
+    <t>1991-02-23</t>
+  </si>
+  <si>
+    <t>596341395303843</t>
+  </si>
+  <si>
+    <t>8c66d1b40a6aa7b1</t>
+  </si>
+  <si>
+    <t>208772664967415</t>
+  </si>
+  <si>
+    <t>IDEP156751739882XTPK</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>59999716167</t>
+  </si>
+  <si>
+    <t>LQKKHJ</t>
+  </si>
+  <si>
+    <t>BNPL1657528166184187</t>
+  </si>
+  <si>
+    <t>59999437987</t>
+  </si>
+  <si>
+    <t>PTURRI</t>
+  </si>
+  <si>
+    <t>59999168602</t>
+  </si>
+  <si>
+    <t>GSCBGT</t>
+  </si>
+  <si>
+    <t>59999898127</t>
+  </si>
+  <si>
+    <t>PEBCIL</t>
+  </si>
+  <si>
+    <t>59999006370</t>
+  </si>
+  <si>
+    <t>UBHCCL</t>
+  </si>
+  <si>
+    <t>59999747391</t>
+  </si>
+  <si>
+    <t>KAJLEA</t>
+  </si>
+  <si>
+    <t>59999344018</t>
+  </si>
+  <si>
+    <t>TAQUPD</t>
+  </si>
+  <si>
+    <t>59999476152</t>
+  </si>
+  <si>
+    <t>PBAQFM</t>
+  </si>
+  <si>
+    <t>59999421295</t>
+  </si>
+  <si>
+    <t>QCULHB</t>
+  </si>
+  <si>
+    <t>59999597436</t>
+  </si>
+  <si>
+    <t>MRPLQE</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>335577019610241571</t>
+  </si>
+  <si>
+    <t>ICIC83069115120</t>
+  </si>
+  <si>
+    <t>ICIC99021572061</t>
+  </si>
+  <si>
+    <t>6223674803</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>PrabhatKar71675@example.net</t>
+  </si>
+  <si>
+    <t>1971-02-21</t>
+  </si>
+  <si>
+    <t>715017670526193</t>
+  </si>
+  <si>
+    <t>9759c31ee62c6a4e</t>
+  </si>
+  <si>
+    <t>517767953457819</t>
+  </si>
+  <si>
+    <t>IDEP175616587468RWD5</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>59999937858</t>
+  </si>
+  <si>
+    <t>ESTMED</t>
+  </si>
+  <si>
+    <t>BNPL1576166928843785</t>
+  </si>
+  <si>
+    <t>59999635576</t>
+  </si>
+  <si>
+    <t>LKTBUG</t>
+  </si>
+  <si>
+    <t>59999412242</t>
+  </si>
+  <si>
+    <t>OKTCQH</t>
+  </si>
+  <si>
+    <t>59999586964</t>
+  </si>
+  <si>
+    <t>LQTURE</t>
+  </si>
+  <si>
+    <t>59999251345</t>
+  </si>
+  <si>
+    <t>KUIGLA</t>
+  </si>
+  <si>
+    <t>59999731643</t>
+  </si>
+  <si>
+    <t>FFPGCH</t>
+  </si>
+  <si>
+    <t>59999509161</t>
+  </si>
+  <si>
+    <t>HNTJMP</t>
+  </si>
+  <si>
+    <t>59999821934</t>
+  </si>
+  <si>
+    <t>GBQBPT</t>
+  </si>
+  <si>
+    <t>59999294028</t>
+  </si>
+  <si>
+    <t>PCMBFE</t>
+  </si>
+  <si>
+    <t>59999175882</t>
+  </si>
+  <si>
+    <t>NRGNCI</t>
+  </si>
+  <si>
+    <t>335577016223674803</t>
+  </si>
+  <si>
+    <t>ICIC99798807982</t>
+  </si>
+  <si>
+    <t>ICIC86632994454</t>
+  </si>
+  <si>
+    <t>7439851261</t>
+  </si>
+  <si>
+    <t>BaalkrishanKhatri93116@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-23</t>
+  </si>
+  <si>
+    <t>864920263506721</t>
+  </si>
+  <si>
+    <t>9d2d9e442f7ac72d</t>
+  </si>
+  <si>
+    <t>400044498506249</t>
+  </si>
+  <si>
+    <t>IDEP516718848333TMDR</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>59999361656</t>
+  </si>
+  <si>
+    <t>GFTBNR</t>
+  </si>
+  <si>
+    <t>BNPL5716182486836982</t>
+  </si>
+  <si>
+    <t>59999313093</t>
+  </si>
+  <si>
+    <t>LFATDP</t>
+  </si>
+  <si>
+    <t>59999801774</t>
+  </si>
+  <si>
+    <t>LJDKTI</t>
+  </si>
+  <si>
+    <t>59999931898</t>
+  </si>
+  <si>
+    <t>LNSBUM</t>
+  </si>
+  <si>
+    <t>59999545418</t>
+  </si>
+  <si>
+    <t>OUOSKN</t>
+  </si>
+  <si>
+    <t>59999711210</t>
+  </si>
+  <si>
+    <t>MIUOBS</t>
+  </si>
+  <si>
+    <t>59999845238</t>
+  </si>
+  <si>
+    <t>AGNNUN</t>
+  </si>
+  <si>
+    <t>59999532789</t>
+  </si>
+  <si>
+    <t>MGGGGB</t>
+  </si>
+  <si>
+    <t>59999773386</t>
+  </si>
+  <si>
+    <t>ACRQAS</t>
+  </si>
+  <si>
+    <t>59999133314</t>
+  </si>
+  <si>
+    <t>ABPQKB</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>335577017439851261</t>
+  </si>
+  <si>
+    <t>ICIC86300981032</t>
+  </si>
+  <si>
+    <t>ICIC85467333333</t>
+  </si>
+  <si>
+    <t>7520318257</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>JatinBail82205@example.net</t>
+  </si>
+  <si>
+    <t>1970-12-13</t>
+  </si>
+  <si>
+    <t>520160899972163</t>
+  </si>
+  <si>
+    <t>d3e8cc3c90fa5a3e</t>
+  </si>
+  <si>
+    <t>180619545752361</t>
+  </si>
+  <si>
+    <t>IDEP7615198864147GEP</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>59999027519</t>
+  </si>
+  <si>
+    <t>EGHRJE</t>
+  </si>
+  <si>
+    <t>BNPL5176191976862431</t>
+  </si>
+  <si>
+    <t>59999796747</t>
+  </si>
+  <si>
+    <t>IDIONP</t>
+  </si>
+  <si>
+    <t>59999747058</t>
+  </si>
+  <si>
+    <t>KKPNCU</t>
+  </si>
+  <si>
+    <t>59999789789</t>
+  </si>
+  <si>
+    <t>TURLUJ</t>
+  </si>
+  <si>
+    <t>59999035803</t>
+  </si>
+  <si>
+    <t>ABOHDP</t>
+  </si>
+  <si>
+    <t>59999390100</t>
+  </si>
+  <si>
+    <t>BMCPEQ</t>
+  </si>
+  <si>
+    <t>59999293346</t>
+  </si>
+  <si>
+    <t>IGECEC</t>
+  </si>
+  <si>
+    <t>59999125823</t>
+  </si>
+  <si>
+    <t>DJEBUQ</t>
+  </si>
+  <si>
+    <t>59999170844</t>
+  </si>
+  <si>
+    <t>KJGAQK</t>
+  </si>
+  <si>
+    <t>59999234997</t>
+  </si>
+  <si>
+    <t>UBKOAS</t>
+  </si>
+  <si>
+    <t>335577017520318257</t>
+  </si>
+  <si>
+    <t>ICIC99749448800</t>
+  </si>
+  <si>
+    <t>ICIC91781295678</t>
+  </si>
+  <si>
+    <t>9645186768</t>
+  </si>
+  <si>
+    <t>Teena</t>
+  </si>
+  <si>
+    <t>AnilTiwari66227@example.net</t>
+  </si>
+  <si>
+    <t>1987-07-02</t>
+  </si>
+  <si>
+    <t>540601953320704</t>
+  </si>
+  <si>
+    <t>0b89301f78e810fb</t>
+  </si>
+  <si>
+    <t>694505583598817</t>
+  </si>
+  <si>
+    <t>IDEP6571384433324PX6</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>59999452917</t>
+  </si>
+  <si>
+    <t>SHKDKS</t>
+  </si>
+  <si>
+    <t>BNPL6175386562848273</t>
+  </si>
+  <si>
+    <t>59999951622</t>
+  </si>
+  <si>
+    <t>KBTEIR</t>
+  </si>
+  <si>
+    <t>59999512511</t>
+  </si>
+  <si>
+    <t>SEMSTR</t>
+  </si>
+  <si>
+    <t>59999175486</t>
+  </si>
+  <si>
+    <t>FHUBMO</t>
+  </si>
+  <si>
+    <t>59999949475</t>
+  </si>
+  <si>
+    <t>UOQUCC</t>
+  </si>
+  <si>
+    <t>59999793469</t>
+  </si>
+  <si>
+    <t>HIMMGL</t>
+  </si>
+  <si>
+    <t>59999127992</t>
+  </si>
+  <si>
+    <t>GFEQED</t>
+  </si>
+  <si>
+    <t>59999522252</t>
+  </si>
+  <si>
+    <t>IRQDHO</t>
+  </si>
+  <si>
+    <t>59999894116</t>
+  </si>
+  <si>
+    <t>DMTATA</t>
+  </si>
+  <si>
+    <t>59999025767</t>
+  </si>
+  <si>
+    <t>NRQROF</t>
+  </si>
+  <si>
+    <t>335577019645186768</t>
+  </si>
+  <si>
+    <t>ICIC92798766438</t>
+  </si>
+  <si>
+    <t>ICIC93494641011</t>
+  </si>
+  <si>
+    <t>9818225544</t>
+  </si>
+  <si>
+    <t>Juhi</t>
+  </si>
+  <si>
+    <t>VickyArora76416@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-24</t>
+  </si>
+  <si>
+    <t>815808346061287</t>
+  </si>
+  <si>
+    <t>854ccb508a544cc2</t>
+  </si>
+  <si>
+    <t>134556889164315</t>
+  </si>
+  <si>
+    <t>IDEP756132846788W2ZY</t>
+  </si>
+  <si>
+    <t>59999082089</t>
+  </si>
+  <si>
+    <t>TELCBA</t>
+  </si>
+  <si>
+    <t>BNPL5761338464321569</t>
+  </si>
+  <si>
+    <t>59999093584</t>
+  </si>
+  <si>
+    <t>IGJNMG</t>
+  </si>
+  <si>
+    <t>59999119785</t>
+  </si>
+  <si>
+    <t>ANJGGL</t>
+  </si>
+  <si>
+    <t>59999969062</t>
+  </si>
+  <si>
+    <t>FJLIHE</t>
+  </si>
+  <si>
+    <t>59999955610</t>
+  </si>
+  <si>
+    <t>UKLJAL</t>
+  </si>
+  <si>
+    <t>59999863282</t>
+  </si>
+  <si>
+    <t>AIRREP</t>
+  </si>
+  <si>
+    <t>59999264731</t>
+  </si>
+  <si>
+    <t>KHUAGR</t>
+  </si>
+  <si>
+    <t>59999504366</t>
+  </si>
+  <si>
+    <t>IJPTHN</t>
+  </si>
+  <si>
+    <t>59999479178</t>
+  </si>
+  <si>
+    <t>TTQAAJ</t>
+  </si>
+  <si>
+    <t>59999713384</t>
+  </si>
+  <si>
+    <t>FNSMCB</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>335577019818225544</t>
+  </si>
+  <si>
+    <t>ICIC91804203989</t>
+  </si>
+  <si>
+    <t>ICIC84317582333</t>
   </si>
 </sst>
 </file>
@@ -4117,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4237,22 +5176,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1185</v>
+        <v>1498</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>1186</v>
+        <v>1499</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4589,7 +5528,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1168</v>
+        <v>1481</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -4686,16 +5625,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1476</v>
       </c>
       <c r="C2" t="s">
-        <v>1163</v>
+        <v>1477</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1161</v>
+        <v>1475</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4798,7 +5737,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1188</v>
+        <v>1501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4810,7 +5749,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1189</v>
+        <v>1502</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4819,7 +5758,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>93.0</v>
+        <v>157.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4911,13 +5850,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1160</v>
+        <v>1474</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5266,13 +6205,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1160</v>
+        <v>1474</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5581,13 +6520,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1160</v>
+        <v>1474</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5681,13 +6620,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="E2" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1160</v>
+        <v>1474</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5996,13 +6935,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1160</v>
+        <v>1474</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -6121,7 +7060,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1188</v>
+        <v>1501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -6133,7 +7072,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1190</v>
+        <v>1503</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -6142,7 +7081,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>93.0</v>
+        <v>157.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6269,10 +7208,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="E2" t="s">
-        <v>1159</v>
+        <v>1473</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -6284,7 +7223,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1161</v>
+        <v>1475</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -6293,10 +7232,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="M2" t="n">
-        <v>4225438.0</v>
+        <v>4233481.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -6343,7 +7282,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -6406,7 +7345,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6423,7 +7362,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6440,7 +7379,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6457,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6474,7 +7413,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1157</v>
+        <v>1471</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6643,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1161</v>
+        <v>1475</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6887,7 +7826,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1161</v>
+        <v>1475</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7102,7 +8041,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1158</v>
+        <v>1472</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -7185,7 +8124,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -7483,7 +8422,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7503,7 +8442,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7523,7 +8462,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -7543,7 +8482,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7563,7 +8502,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7583,7 +8522,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7603,7 +8542,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1164</v>
+        <v>1478</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7662,7 +8601,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -7676,7 +8615,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_Merchant_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4879" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="799">
   <si>
     <t>TestCases</t>
   </si>
@@ -1667,2896 +1667,781 @@
     <t>ICIC82970467095</t>
   </si>
   <si>
-    <t>8204206090</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>SharadSood31939@example.net</t>
-  </si>
-  <si>
-    <t>1987-09-25</t>
-  </si>
-  <si>
-    <t>779777037455492</t>
-  </si>
-  <si>
-    <t>54a32282667429c0</t>
-  </si>
-  <si>
-    <t>054129975576366</t>
-  </si>
-  <si>
-    <t>IDEP7156643167687KLT</t>
-  </si>
-  <si>
-    <t>59999838460</t>
-  </si>
-  <si>
-    <t>TPTGDC</t>
-  </si>
-  <si>
-    <t>BNPL1576644889559745</t>
-  </si>
-  <si>
-    <t>59999090706</t>
-  </si>
-  <si>
-    <t>CEBQJI</t>
-  </si>
-  <si>
-    <t>59999185614</t>
-  </si>
-  <si>
-    <t>MBFMRK</t>
-  </si>
-  <si>
-    <t>59999035896</t>
-  </si>
-  <si>
-    <t>JSJJPL</t>
-  </si>
-  <si>
-    <t>59999244309</t>
-  </si>
-  <si>
-    <t>PLMNUC</t>
-  </si>
-  <si>
-    <t>59999557816</t>
-  </si>
-  <si>
-    <t>ELAIKH</t>
-  </si>
-  <si>
-    <t>59999403824</t>
-  </si>
-  <si>
-    <t>OQKARN</t>
-  </si>
-  <si>
-    <t>59999964550</t>
-  </si>
-  <si>
-    <t>QCCBRL</t>
-  </si>
-  <si>
-    <t>59999940794</t>
-  </si>
-  <si>
-    <t>SFPMBD</t>
-  </si>
-  <si>
-    <t>59999597803</t>
-  </si>
-  <si>
-    <t>LFOGNS</t>
+    <t>6824122813</t>
+  </si>
+  <si>
+    <t>Mayawati</t>
+  </si>
+  <si>
+    <t>NakulDhawan23656@example.net</t>
+  </si>
+  <si>
+    <t>1973-05-09</t>
+  </si>
+  <si>
+    <t>032168494475947</t>
+  </si>
+  <si>
+    <t>7bacf4d49581aff1</t>
+  </si>
+  <si>
+    <t>410965759231176</t>
+  </si>
+  <si>
+    <t>IDEP571616657148XG4L</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>bnpl59999078367</t>
+  </si>
+  <si>
+    <t>JLOFEM</t>
+  </si>
+  <si>
+    <t>bnpl59999138325</t>
+  </si>
+  <si>
+    <t>JUQUTK</t>
+  </si>
+  <si>
+    <t>bnpl59999099214</t>
+  </si>
+  <si>
+    <t>SHDBUR</t>
+  </si>
+  <si>
+    <t>bnpl59999377022</t>
+  </si>
+  <si>
+    <t>BLSPQK</t>
+  </si>
+  <si>
+    <t>bnpl59999437391</t>
+  </si>
+  <si>
+    <t>NBHGRU</t>
+  </si>
+  <si>
+    <t>bnpl59999051939</t>
+  </si>
+  <si>
+    <t>JKOQDT</t>
+  </si>
+  <si>
+    <t>bnpl59999901763</t>
+  </si>
+  <si>
+    <t>CMEPJS</t>
+  </si>
+  <si>
+    <t>bnpl59999139650</t>
+  </si>
+  <si>
+    <t>SHOIES</t>
+  </si>
+  <si>
+    <t>bnpl59999794884</t>
+  </si>
+  <si>
+    <t>RQPDTJ</t>
+  </si>
+  <si>
+    <t>bnpl59999458396</t>
+  </si>
+  <si>
+    <t>LCOUQN</t>
+  </si>
+  <si>
+    <t>6310782156</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>ZaadBansal48450@example.net</t>
+  </si>
+  <si>
+    <t>1992-09-22</t>
+  </si>
+  <si>
+    <t>700329756431744</t>
+  </si>
+  <si>
+    <t>e5fdb4644d434ba2</t>
+  </si>
+  <si>
+    <t>231285648944872</t>
+  </si>
+  <si>
+    <t>IDEP1576169498117CIT</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>bnpl59999282771</t>
+  </si>
+  <si>
+    <t>FJJIAT</t>
+  </si>
+  <si>
+    <t>BNPL7561171412918643</t>
+  </si>
+  <si>
+    <t>bnpl59999476706</t>
+  </si>
+  <si>
+    <t>ACHMSG</t>
+  </si>
+  <si>
+    <t>bnpl59999727612</t>
+  </si>
+  <si>
+    <t>AKUCBM</t>
+  </si>
+  <si>
+    <t>bnpl59999105628</t>
+  </si>
+  <si>
+    <t>UECGLM</t>
+  </si>
+  <si>
+    <t>bnpl59999448061</t>
+  </si>
+  <si>
+    <t>FNIBFI</t>
+  </si>
+  <si>
+    <t>bnpl59999418388</t>
+  </si>
+  <si>
+    <t>KREGQS</t>
+  </si>
+  <si>
+    <t>bnpl59999676438</t>
+  </si>
+  <si>
+    <t>LFJSNK</t>
+  </si>
+  <si>
+    <t>bnpl59999025126</t>
+  </si>
+  <si>
+    <t>DNSTIL</t>
+  </si>
+  <si>
+    <t>bnpl59999373037</t>
+  </si>
+  <si>
+    <t>UOQULI</t>
+  </si>
+  <si>
+    <t>bnpl59999614613</t>
+  </si>
+  <si>
+    <t>JETFIR</t>
   </si>
   <si>
     <t>148.0</t>
   </si>
   <si>
-    <t>335577018204206090</t>
-  </si>
-  <si>
-    <t>ICIC89229703795</t>
-  </si>
-  <si>
-    <t>ICIC88030984678</t>
-  </si>
-  <si>
-    <t>7062978472</t>
-  </si>
-  <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>AjinkyaBhatt64712@example.net</t>
-  </si>
-  <si>
-    <t>1993-03-05</t>
-  </si>
-  <si>
-    <t>413549323431913</t>
-  </si>
-  <si>
-    <t>3c3e967477ca7c67</t>
-  </si>
-  <si>
-    <t>135978126931257</t>
-  </si>
-  <si>
-    <t>9959705724</t>
-  </si>
-  <si>
-    <t>Upasana</t>
-  </si>
-  <si>
-    <t>GulzarParsa46333@example.net</t>
-  </si>
-  <si>
-    <t>1992-05-28</t>
-  </si>
-  <si>
-    <t>610731179524154</t>
-  </si>
-  <si>
-    <t>06404979cc71cd6f</t>
-  </si>
-  <si>
-    <t>887494573881383</t>
-  </si>
-  <si>
-    <t>IDEP716577983421MLWC</t>
-  </si>
-  <si>
-    <t>9664878146</t>
-  </si>
-  <si>
-    <t>Heer</t>
-  </si>
-  <si>
-    <t>VijayDin97937@example.net</t>
-  </si>
-  <si>
-    <t>1985-05-26</t>
-  </si>
-  <si>
-    <t>813638254240710</t>
-  </si>
-  <si>
-    <t>daf4c8bf94174ceb</t>
-  </si>
-  <si>
-    <t>632058596691141</t>
-  </si>
-  <si>
-    <t>6701126900</t>
-  </si>
-  <si>
-    <t>Anshula</t>
-  </si>
-  <si>
-    <t>DarpanSankar45633@example.net</t>
-  </si>
-  <si>
-    <t>1983-11-18</t>
-  </si>
-  <si>
-    <t>840040391453313</t>
-  </si>
-  <si>
-    <t>14044f5dda2bfc55</t>
-  </si>
-  <si>
-    <t>852399888508244</t>
-  </si>
-  <si>
-    <t>IDEP6715981161915QF2</t>
+    <t>335577016310782156</t>
+  </si>
+  <si>
+    <t>ICIC95919949017</t>
+  </si>
+  <si>
+    <t>ICIC84091835434</t>
+  </si>
+  <si>
+    <t>8986260330</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>MalikKar52408@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-07</t>
+  </si>
+  <si>
+    <t>129271084150823</t>
+  </si>
+  <si>
+    <t>d33346dcbb072c56</t>
+  </si>
+  <si>
+    <t>983841732644404</t>
+  </si>
+  <si>
+    <t>IDEP765117885458HALJ</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
+    <t>bnpl59999534307</t>
+  </si>
+  <si>
+    <t>DERSTU</t>
+  </si>
+  <si>
+    <t>BNPL1765188862875369</t>
+  </si>
+  <si>
+    <t>bnpl59999079154</t>
+  </si>
+  <si>
+    <t>RHSJFR</t>
+  </si>
+  <si>
+    <t>bnpl59999589435</t>
+  </si>
+  <si>
+    <t>THGCGU</t>
+  </si>
+  <si>
+    <t>bnpl59999587107</t>
+  </si>
+  <si>
+    <t>PSSUFD</t>
+  </si>
+  <si>
+    <t>bnpl59999803114</t>
+  </si>
+  <si>
+    <t>SMDDMA</t>
+  </si>
+  <si>
+    <t>bnpl59999305769</t>
+  </si>
+  <si>
+    <t>CFTNAP</t>
+  </si>
+  <si>
+    <t>bnpl59999015931</t>
+  </si>
+  <si>
+    <t>KARKRK</t>
+  </si>
+  <si>
+    <t>bnpl59999527820</t>
+  </si>
+  <si>
+    <t>KFBMHS</t>
+  </si>
+  <si>
+    <t>bnpl59999767922</t>
+  </si>
+  <si>
+    <t>NOSEDC</t>
+  </si>
+  <si>
+    <t>bnpl59999985711</t>
+  </si>
+  <si>
+    <t>EIUSGN</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>335577018986260330</t>
+  </si>
+  <si>
+    <t>ICIC98785834013</t>
+  </si>
+  <si>
+    <t>ICIC87153534119</t>
+  </si>
+  <si>
+    <t>6590856401</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>DeepBaria43299@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-11</t>
+  </si>
+  <si>
+    <t>437211645029972</t>
+  </si>
+  <si>
+    <t>0ed499cfcee421ef</t>
+  </si>
+  <si>
+    <t>793436940254920</t>
+  </si>
+  <si>
+    <t>IDEP1576189844687EXR</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>bnpl59999145948</t>
+  </si>
+  <si>
+    <t>BSMTKL</t>
+  </si>
+  <si>
+    <t>BNPL6517191835735183</t>
+  </si>
+  <si>
+    <t>bnpl59999845936</t>
+  </si>
+  <si>
+    <t>EUJEOH</t>
+  </si>
+  <si>
+    <t>bnpl59999789093</t>
+  </si>
+  <si>
+    <t>IACANN</t>
+  </si>
+  <si>
+    <t>bnpl59999162702</t>
+  </si>
+  <si>
+    <t>GBTUDM</t>
+  </si>
+  <si>
+    <t>bnpl59999816752</t>
+  </si>
+  <si>
+    <t>DGJEDM</t>
+  </si>
+  <si>
+    <t>bnpl59999116651</t>
+  </si>
+  <si>
+    <t>MAGEUJ</t>
+  </si>
+  <si>
+    <t>bnpl59999675442</t>
+  </si>
+  <si>
+    <t>GMKJUA</t>
+  </si>
+  <si>
+    <t>bnpl59999690117</t>
+  </si>
+  <si>
+    <t>ODLSJE</t>
+  </si>
+  <si>
+    <t>bnpl59999366939</t>
+  </si>
+  <si>
+    <t>BTIPIS</t>
+  </si>
+  <si>
+    <t>bnpl59999303370</t>
+  </si>
+  <si>
+    <t>ADIOEM</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>335577016590856401</t>
+  </si>
+  <si>
+    <t>ICIC87535314275</t>
+  </si>
+  <si>
+    <t>ICIC91483455854</t>
+  </si>
+  <si>
+    <t>9881366614</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>AbhinavGolla10862@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-23</t>
+  </si>
+  <si>
+    <t>476369383218876</t>
+  </si>
+  <si>
+    <t>57a486d40c4238ae</t>
+  </si>
+  <si>
+    <t>488588002946395</t>
+  </si>
+  <si>
+    <t>IDEP765128522982KA5B</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>bnpl59999064666</t>
+  </si>
+  <si>
+    <t>UAKRNO</t>
+  </si>
+  <si>
+    <t>BNPL7516287273996289</t>
+  </si>
+  <si>
+    <t>bnpl59999939929</t>
+  </si>
+  <si>
+    <t>OKKENC</t>
+  </si>
+  <si>
+    <t>bnpl59999753036</t>
+  </si>
+  <si>
+    <t>EMSGRP</t>
+  </si>
+  <si>
+    <t>bnpl59999864930</t>
+  </si>
+  <si>
+    <t>OSREMR</t>
+  </si>
+  <si>
+    <t>bnpl59999182429</t>
+  </si>
+  <si>
+    <t>NCJIPU</t>
+  </si>
+  <si>
+    <t>bnpl59999706667</t>
+  </si>
+  <si>
+    <t>FFLGRB</t>
+  </si>
+  <si>
+    <t>bnpl59999672385</t>
+  </si>
+  <si>
+    <t>JRIGHK</t>
+  </si>
+  <si>
+    <t>bnpl59999053960</t>
+  </si>
+  <si>
+    <t>RUKONP</t>
+  </si>
+  <si>
+    <t>bnpl59999226298</t>
+  </si>
+  <si>
+    <t>BKCOUI</t>
+  </si>
+  <si>
+    <t>bnpl59999836419</t>
+  </si>
+  <si>
+    <t>TEOBBL</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>335577019881366614</t>
+  </si>
+  <si>
+    <t>ICIC92277364404</t>
+  </si>
+  <si>
+    <t>ICIC81630172437</t>
+  </si>
+  <si>
+    <t>9917864869</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>ParveenChaudhari41448@example.net</t>
+  </si>
+  <si>
+    <t>1974-04-29</t>
+  </si>
+  <si>
+    <t>672052827503192</t>
+  </si>
+  <si>
+    <t>936cff8f3f8d5e88</t>
+  </si>
+  <si>
+    <t>643130114425513</t>
+  </si>
+  <si>
+    <t>IDEP516721535848JR7B</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>bnpl59999164849</t>
+  </si>
+  <si>
+    <t>CETQCJ</t>
+  </si>
+  <si>
+    <t>BNPL5761217399319538</t>
+  </si>
+  <si>
+    <t>bnpl59999202594</t>
+  </si>
+  <si>
+    <t>GHGTAJ</t>
+  </si>
+  <si>
+    <t>bnpl59999917750</t>
+  </si>
+  <si>
+    <t>KEKUDN</t>
+  </si>
+  <si>
+    <t>bnpl59999225034</t>
+  </si>
+  <si>
+    <t>TRALCG</t>
+  </si>
+  <si>
+    <t>bnpl59999404544</t>
+  </si>
+  <si>
+    <t>SOGRII</t>
+  </si>
+  <si>
+    <t>bnpl59999969459</t>
+  </si>
+  <si>
+    <t>PRAJUN</t>
+  </si>
+  <si>
+    <t>bnpl59999925819</t>
+  </si>
+  <si>
+    <t>GCCKHU</t>
+  </si>
+  <si>
+    <t>bnpl59999616056</t>
+  </si>
+  <si>
+    <t>DCFJCO</t>
+  </si>
+  <si>
+    <t>bnpl59999540196</t>
+  </si>
+  <si>
+    <t>DOOQBB</t>
+  </si>
+  <si>
+    <t>bnpl59999796902</t>
+  </si>
+  <si>
+    <t>IJTSOD</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>335577019917864869</t>
+  </si>
+  <si>
+    <t>ICIC90050648932</t>
+  </si>
+  <si>
+    <t>ICIC87710827633</t>
+  </si>
+  <si>
+    <t>7196527280</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>JagdishSani98984@example.net</t>
+  </si>
+  <si>
+    <t>1995-12-22</t>
+  </si>
+  <si>
+    <t>581631256851188</t>
+  </si>
+  <si>
+    <t>0c61e48b3150e231</t>
+  </si>
+  <si>
+    <t>055186493726138</t>
+  </si>
+  <si>
+    <t>IDEP715622558563MEPR</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>186</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>59999802323</t>
-  </si>
-  <si>
-    <t>RNIQTB</t>
-  </si>
-  <si>
-    <t>59999124312</t>
-  </si>
-  <si>
-    <t>UNFFND</t>
-  </si>
-  <si>
-    <t>59999466956</t>
-  </si>
-  <si>
-    <t>IKRBNI</t>
-  </si>
-  <si>
-    <t>59999292167</t>
-  </si>
-  <si>
-    <t>DOORKD</t>
-  </si>
-  <si>
-    <t>59999232552</t>
-  </si>
-  <si>
-    <t>NTSAJH</t>
-  </si>
-  <si>
-    <t>59999215442</t>
-  </si>
-  <si>
-    <t>ERMCMF</t>
-  </si>
-  <si>
-    <t>59999437019</t>
-  </si>
-  <si>
-    <t>MNCEES</t>
-  </si>
-  <si>
-    <t>59999039586</t>
-  </si>
-  <si>
-    <t>FQUKMN</t>
-  </si>
-  <si>
-    <t>59999500691</t>
-  </si>
-  <si>
-    <t>GTCGFM</t>
-  </si>
-  <si>
-    <t>59999757853</t>
-  </si>
-  <si>
-    <t>FMGOTH</t>
-  </si>
-  <si>
-    <t>7050866555</t>
-  </si>
-  <si>
-    <t>Shweta</t>
-  </si>
-  <si>
-    <t>DeepSing79765@example.net</t>
-  </si>
-  <si>
-    <t>1994-04-29</t>
-  </si>
-  <si>
-    <t>417333639350836</t>
-  </si>
-  <si>
-    <t>980777e50eab5e3f</t>
-  </si>
-  <si>
-    <t>375884055339638</t>
-  </si>
-  <si>
-    <t>IDEP756191186396NIES</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>59999692146</t>
-  </si>
-  <si>
-    <t>ROAFIQ</t>
-  </si>
-  <si>
-    <t>BNPL5716912862975379</t>
-  </si>
-  <si>
-    <t>59999363471</t>
-  </si>
-  <si>
-    <t>PAPMCL</t>
-  </si>
-  <si>
-    <t>59999537970</t>
-  </si>
-  <si>
-    <t>KGKJBL</t>
-  </si>
-  <si>
-    <t>59999138428</t>
-  </si>
-  <si>
-    <t>FDTORQ</t>
-  </si>
-  <si>
-    <t>59999949888</t>
-  </si>
-  <si>
-    <t>HQCLAA</t>
-  </si>
-  <si>
-    <t>59999563745</t>
-  </si>
-  <si>
-    <t>UEBNMH</t>
-  </si>
-  <si>
-    <t>59999865453</t>
-  </si>
-  <si>
-    <t>TAHBBB</t>
-  </si>
-  <si>
-    <t>59999110426</t>
-  </si>
-  <si>
-    <t>QLIJEH</t>
-  </si>
-  <si>
-    <t>59999186918</t>
-  </si>
-  <si>
-    <t>CUJLQE</t>
-  </si>
-  <si>
-    <t>59999125590</t>
-  </si>
-  <si>
-    <t>GGMQET</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>335577017050866555</t>
-  </si>
-  <si>
-    <t>ICIC99880282847</t>
-  </si>
-  <si>
-    <t>ICIC89873122672</t>
-  </si>
-  <si>
-    <t>7884746406</t>
-  </si>
-  <si>
-    <t>Rakhi</t>
-  </si>
-  <si>
-    <t>SamirRamkissoon79447@example.net</t>
-  </si>
-  <si>
-    <t>1986-12-21</t>
-  </si>
-  <si>
-    <t>835307172698789</t>
-  </si>
-  <si>
-    <t>aeaaf4f5840d6b17</t>
-  </si>
-  <si>
-    <t>782925367725555</t>
-  </si>
-  <si>
-    <t>8475988525</t>
-  </si>
-  <si>
-    <t>Indira</t>
-  </si>
-  <si>
-    <t>BrockKadakia30452@example.net</t>
-  </si>
-  <si>
-    <t>1976-05-15</t>
-  </si>
-  <si>
-    <t>883489596268604</t>
-  </si>
-  <si>
-    <t>b6747561c2f09166</t>
-  </si>
-  <si>
-    <t>896480984035684</t>
-  </si>
-  <si>
-    <t>7610211303</t>
-  </si>
-  <si>
-    <t>Urmila</t>
-  </si>
-  <si>
-    <t>GaneshDeshmukh74924@example.net</t>
-  </si>
-  <si>
-    <t>1987-04-16</t>
-  </si>
-  <si>
-    <t>828370307436458</t>
-  </si>
-  <si>
-    <t>90e3bc6f0302eca1</t>
-  </si>
-  <si>
-    <t>375392320428426</t>
-  </si>
-  <si>
-    <t>IDEP176542918628SUM4</t>
-  </si>
-  <si>
-    <t>8906700214</t>
-  </si>
-  <si>
-    <t>Rimi</t>
-  </si>
-  <si>
-    <t>OmarCheema98589@example.net</t>
-  </si>
-  <si>
-    <t>1991-06-04</t>
-  </si>
-  <si>
-    <t>950267163274801</t>
-  </si>
-  <si>
-    <t>ec74a07f9957ea07</t>
-  </si>
-  <si>
-    <t>532241234645528</t>
-  </si>
-  <si>
-    <t>IDEP651743227675FKDW</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>59999244740</t>
-  </si>
-  <si>
-    <t>BMUAUE</t>
-  </si>
-  <si>
-    <t>59999872790</t>
-  </si>
-  <si>
-    <t>AFHIBD</t>
-  </si>
-  <si>
-    <t>59999010533</t>
-  </si>
-  <si>
-    <t>TDCUPS</t>
-  </si>
-  <si>
-    <t>59999612626</t>
-  </si>
-  <si>
-    <t>CIOFTE</t>
-  </si>
-  <si>
-    <t>59999887972</t>
-  </si>
-  <si>
-    <t>DPOTER</t>
-  </si>
-  <si>
-    <t>59999687964</t>
-  </si>
-  <si>
-    <t>RRPOGD</t>
-  </si>
-  <si>
-    <t>59999327174</t>
-  </si>
-  <si>
-    <t>FNPFDU</t>
-  </si>
-  <si>
-    <t>59999981343</t>
-  </si>
-  <si>
-    <t>FBAFIA</t>
-  </si>
-  <si>
-    <t>59999249094</t>
-  </si>
-  <si>
-    <t>RJSJTQ</t>
-  </si>
-  <si>
-    <t>59999109657</t>
-  </si>
-  <si>
-    <t>ERBJRK</t>
-  </si>
-  <si>
-    <t>6186759527</t>
-  </si>
-  <si>
-    <t>Geetanjali</t>
-  </si>
-  <si>
-    <t>DeepSandal57036@example.net</t>
-  </si>
-  <si>
-    <t>1995-09-23</t>
-  </si>
-  <si>
-    <t>944542713215077</t>
-  </si>
-  <si>
-    <t>024a0f51613779df</t>
-  </si>
-  <si>
-    <t>438319359129497</t>
-  </si>
-  <si>
-    <t>IDEP576146433959IAZF</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>59999784072</t>
-  </si>
-  <si>
-    <t>PCKNGT</t>
-  </si>
-  <si>
-    <t>59999922491</t>
-  </si>
-  <si>
-    <t>QFGNLF</t>
-  </si>
-  <si>
-    <t>59999774531</t>
-  </si>
-  <si>
-    <t>DIJFGI</t>
-  </si>
-  <si>
-    <t>59999868943</t>
-  </si>
-  <si>
-    <t>KKSNJQ</t>
-  </si>
-  <si>
-    <t>59999829161</t>
-  </si>
-  <si>
-    <t>KHHPGM</t>
-  </si>
-  <si>
-    <t>59999485711</t>
-  </si>
-  <si>
-    <t>SFEENL</t>
-  </si>
-  <si>
-    <t>59999842760</t>
-  </si>
-  <si>
-    <t>BEPUMQ</t>
-  </si>
-  <si>
-    <t>59999676002</t>
-  </si>
-  <si>
-    <t>CHBJHO</t>
-  </si>
-  <si>
-    <t>59999743489</t>
-  </si>
-  <si>
-    <t>LGGMSH</t>
-  </si>
-  <si>
-    <t>59999038770</t>
-  </si>
-  <si>
-    <t>IMNTDE</t>
-  </si>
-  <si>
-    <t>8233021908</t>
-  </si>
-  <si>
-    <t>Pushpa</t>
-  </si>
-  <si>
-    <t>UmarKashyap63053@example.net</t>
-  </si>
-  <si>
-    <t>1985-04-14</t>
-  </si>
-  <si>
-    <t>999725898171074</t>
-  </si>
-  <si>
-    <t>4369bcf1f7200913</t>
-  </si>
-  <si>
-    <t>910968692107383</t>
-  </si>
-  <si>
-    <t>IDEP571647492683MUE3</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>59999354412</t>
-  </si>
-  <si>
-    <t>EQGFIB</t>
-  </si>
-  <si>
-    <t>BNPL7516476795294715</t>
-  </si>
-  <si>
-    <t>59999471256</t>
-  </si>
-  <si>
-    <t>GTJBJM</t>
-  </si>
-  <si>
-    <t>59999310490</t>
-  </si>
-  <si>
-    <t>NOELNJ</t>
-  </si>
-  <si>
-    <t>59999706862</t>
-  </si>
-  <si>
-    <t>DNUKUS</t>
-  </si>
-  <si>
-    <t>59999646729</t>
-  </si>
-  <si>
-    <t>GKJIOD</t>
-  </si>
-  <si>
-    <t>59999447093</t>
-  </si>
-  <si>
-    <t>MEFFRN</t>
-  </si>
-  <si>
-    <t>59999908852</t>
-  </si>
-  <si>
-    <t>GGDFQR</t>
-  </si>
-  <si>
-    <t>59999163533</t>
-  </si>
-  <si>
-    <t>GIAPIC</t>
-  </si>
-  <si>
-    <t>59999725002</t>
-  </si>
-  <si>
-    <t>NIFRBF</t>
-  </si>
-  <si>
-    <t>59999999420</t>
-  </si>
-  <si>
-    <t>JLJDUD</t>
-  </si>
-  <si>
-    <t>335577018233021908</t>
-  </si>
-  <si>
-    <t>ICIC81683865015</t>
-  </si>
-  <si>
-    <t>ICIC89923320620</t>
-  </si>
-  <si>
-    <t>8383087883</t>
-  </si>
-  <si>
-    <t>KarimRaja27298@example.net</t>
-  </si>
-  <si>
-    <t>1983-02-12</t>
-  </si>
-  <si>
-    <t>630249607070381</t>
-  </si>
-  <si>
-    <t>f6ff0e859fe80b8f</t>
-  </si>
-  <si>
-    <t>588045529793098</t>
-  </si>
-  <si>
-    <t>IDEP765148333613SVNM</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>59999560804</t>
-  </si>
-  <si>
-    <t>AEKFSA</t>
-  </si>
-  <si>
-    <t>BNPL7516485339863895</t>
-  </si>
-  <si>
-    <t>59999496185</t>
-  </si>
-  <si>
-    <t>RKGLAB</t>
-  </si>
-  <si>
-    <t>59999681842</t>
-  </si>
-  <si>
-    <t>KSQLUS</t>
-  </si>
-  <si>
-    <t>59999547705</t>
-  </si>
-  <si>
-    <t>APTPRH</t>
-  </si>
-  <si>
-    <t>59999618587</t>
-  </si>
-  <si>
-    <t>RBEPRC</t>
-  </si>
-  <si>
-    <t>59999391492</t>
-  </si>
-  <si>
-    <t>CEFAPT</t>
-  </si>
-  <si>
-    <t>59999618490</t>
-  </si>
-  <si>
-    <t>GUDNRC</t>
-  </si>
-  <si>
-    <t>59999723905</t>
-  </si>
-  <si>
-    <t>IQSQIG</t>
-  </si>
-  <si>
-    <t>59999626333</t>
-  </si>
-  <si>
-    <t>TUPFLF</t>
-  </si>
-  <si>
-    <t>59999629577</t>
-  </si>
-  <si>
-    <t>AAENCR</t>
-  </si>
-  <si>
-    <t>9379536591</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>ParvezChad13968@example.net</t>
-  </si>
-  <si>
-    <t>1994-07-08</t>
-  </si>
-  <si>
-    <t>170257811008408</t>
-  </si>
-  <si>
-    <t>91611c2936b5bbb2</t>
-  </si>
-  <si>
-    <t>521391875099270</t>
-  </si>
-  <si>
-    <t>IDEP516748661688KT2P</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>59999614616</t>
-  </si>
-  <si>
-    <t>JBTPOF</t>
-  </si>
-  <si>
-    <t>BNPL7561488548628346</t>
-  </si>
-  <si>
-    <t>59999024930</t>
-  </si>
-  <si>
-    <t>ATENRT</t>
-  </si>
-  <si>
-    <t>59999892898</t>
-  </si>
-  <si>
-    <t>JKRULH</t>
-  </si>
-  <si>
-    <t>59999826219</t>
-  </si>
-  <si>
-    <t>GIBFQT</t>
-  </si>
-  <si>
-    <t>59999120613</t>
-  </si>
-  <si>
-    <t>SEUQUO</t>
-  </si>
-  <si>
-    <t>59999980300</t>
-  </si>
-  <si>
-    <t>AMBIQH</t>
-  </si>
-  <si>
-    <t>59999004950</t>
-  </si>
-  <si>
-    <t>LMCQBP</t>
-  </si>
-  <si>
-    <t>59999605825</t>
-  </si>
-  <si>
-    <t>FSLGRJ</t>
-  </si>
-  <si>
-    <t>59999728288</t>
-  </si>
-  <si>
-    <t>OLDIJE</t>
-  </si>
-  <si>
-    <t>59999618289</t>
-  </si>
-  <si>
-    <t>SLOFBM</t>
-  </si>
-  <si>
-    <t>6332082366</t>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>RajendraBanik86333@example.net</t>
-  </si>
-  <si>
-    <t>1970-06-03</t>
-  </si>
-  <si>
-    <t>837084311828415</t>
-  </si>
-  <si>
-    <t>f2306ae294c0626c</t>
-  </si>
-  <si>
-    <t>743906204923817</t>
-  </si>
-  <si>
-    <t>6824115249</t>
-  </si>
-  <si>
-    <t>Alpa</t>
-  </si>
-  <si>
-    <t>NavalMitter68520@example.net</t>
-  </si>
-  <si>
-    <t>1974-05-29</t>
-  </si>
-  <si>
-    <t>446554424640900</t>
-  </si>
-  <si>
-    <t>1c64854f295c9ac5</t>
-  </si>
-  <si>
-    <t>510039350341542</t>
-  </si>
-  <si>
-    <t>IDEP165749329248KTV5</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>59999764049</t>
-  </si>
-  <si>
-    <t>BBQOJU</t>
-  </si>
-  <si>
-    <t>BNPL5176495239916415</t>
-  </si>
-  <si>
-    <t>59999925389</t>
-  </si>
-  <si>
-    <t>UNSFRT</t>
-  </si>
-  <si>
-    <t>59999447711</t>
-  </si>
-  <si>
-    <t>POSUCR</t>
-  </si>
-  <si>
-    <t>59999689477</t>
-  </si>
-  <si>
-    <t>LLKFCD</t>
-  </si>
-  <si>
-    <t>59999149641</t>
-  </si>
-  <si>
-    <t>NRBTGD</t>
-  </si>
-  <si>
-    <t>59999476623</t>
-  </si>
-  <si>
-    <t>OPCLUJ</t>
-  </si>
-  <si>
-    <t>59999928511</t>
-  </si>
-  <si>
-    <t>PCULIE</t>
-  </si>
-  <si>
-    <t>59999579301</t>
-  </si>
-  <si>
-    <t>HSARKO</t>
-  </si>
-  <si>
-    <t>59999882706</t>
-  </si>
-  <si>
-    <t>JMJGSK</t>
-  </si>
-  <si>
-    <t>59999223267</t>
-  </si>
-  <si>
-    <t>QMQOBL</t>
-  </si>
-  <si>
-    <t>9908803617</t>
-  </si>
-  <si>
-    <t>EkbalNaik44800@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-02</t>
-  </si>
-  <si>
-    <t>288392813191255</t>
-  </si>
-  <si>
-    <t>cd5f3f853336b746</t>
-  </si>
-  <si>
-    <t>253271244283827</t>
-  </si>
-  <si>
-    <t>7727514729</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>KailashPanchal53281@example.net</t>
-  </si>
-  <si>
-    <t>1995-02-12</t>
-  </si>
-  <si>
-    <t>757946911853249</t>
-  </si>
-  <si>
-    <t>06e1b15e598cfad1</t>
-  </si>
-  <si>
-    <t>557457636771296</t>
-  </si>
-  <si>
-    <t>IDEP156749798863N96O</t>
-  </si>
-  <si>
-    <t>7307688250</t>
-  </si>
-  <si>
-    <t>BalajiVarma28749@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-07</t>
-  </si>
-  <si>
-    <t>363032981712221</t>
-  </si>
-  <si>
-    <t>f73274622870210c</t>
-  </si>
-  <si>
-    <t>367093957786702</t>
-  </si>
-  <si>
-    <t>IDEP651768362365VX2M</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>59999589733</t>
-  </si>
-  <si>
-    <t>TORPPA</t>
-  </si>
-  <si>
-    <t>59999815857</t>
-  </si>
-  <si>
-    <t>LTFQEI</t>
-  </si>
-  <si>
-    <t>59999137959</t>
-  </si>
-  <si>
-    <t>UFNPPP</t>
-  </si>
-  <si>
-    <t>59999727943</t>
-  </si>
-  <si>
-    <t>CHCLSB</t>
-  </si>
-  <si>
-    <t>59999814326</t>
-  </si>
-  <si>
-    <t>RTJSDU</t>
-  </si>
-  <si>
-    <t>59999428516</t>
-  </si>
-  <si>
-    <t>GOGEFS</t>
-  </si>
-  <si>
-    <t>59999801540</t>
-  </si>
-  <si>
-    <t>KSGJSG</t>
-  </si>
-  <si>
-    <t>59999298002</t>
-  </si>
-  <si>
-    <t>HCNAFD</t>
-  </si>
-  <si>
-    <t>59999738805</t>
-  </si>
-  <si>
-    <t>HURILS</t>
-  </si>
-  <si>
-    <t>59999169125</t>
-  </si>
-  <si>
-    <t>ROKTCK</t>
-  </si>
-  <si>
-    <t>8946543598</t>
-  </si>
-  <si>
-    <t>Sona</t>
-  </si>
-  <si>
-    <t>GovindDeep66993@example.net</t>
-  </si>
-  <si>
-    <t>1984-09-22</t>
-  </si>
-  <si>
-    <t>442170943522000</t>
-  </si>
-  <si>
-    <t>6574db2705c84836</t>
-  </si>
-  <si>
-    <t>061405195308389</t>
-  </si>
-  <si>
-    <t>8373628806</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>AjayGrover35702@example.net</t>
-  </si>
-  <si>
-    <t>1995-05-09</t>
-  </si>
-  <si>
-    <t>858528736653877</t>
-  </si>
-  <si>
-    <t>8728a8df86e3e0d0</t>
-  </si>
-  <si>
-    <t>689504340643005</t>
-  </si>
-  <si>
-    <t>IDEP156768725858FTCD</t>
-  </si>
-  <si>
-    <t>59999262411</t>
-  </si>
-  <si>
-    <t>LNDLHR</t>
-  </si>
-  <si>
-    <t>BNPL7516689286449281</t>
-  </si>
-  <si>
-    <t>59999120575</t>
-  </si>
-  <si>
-    <t>QLQJAB</t>
-  </si>
-  <si>
-    <t>59999612213</t>
-  </si>
-  <si>
-    <t>UPOTIT</t>
-  </si>
-  <si>
-    <t>59999126788</t>
-  </si>
-  <si>
-    <t>OUQKRI</t>
-  </si>
-  <si>
-    <t>59999759565</t>
-  </si>
-  <si>
-    <t>NBBRNU</t>
-  </si>
-  <si>
-    <t>59999000433</t>
-  </si>
-  <si>
-    <t>HMQHON</t>
-  </si>
-  <si>
-    <t>59999145813</t>
-  </si>
-  <si>
-    <t>ISLNSD</t>
-  </si>
-  <si>
-    <t>59999157995</t>
-  </si>
-  <si>
-    <t>JTQABI</t>
-  </si>
-  <si>
-    <t>59999171220</t>
-  </si>
-  <si>
-    <t>JKQADT</t>
-  </si>
-  <si>
-    <t>59999193744</t>
-  </si>
-  <si>
-    <t>GBTTNH</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>335577018373628806</t>
-  </si>
-  <si>
-    <t>ICIC80751753450</t>
-  </si>
-  <si>
-    <t>ICIC82412855736</t>
-  </si>
-  <si>
-    <t>8126801610</t>
-  </si>
-  <si>
-    <t>Nupur</t>
-  </si>
-  <si>
-    <t>AnimeshDatta98037@example.net</t>
-  </si>
-  <si>
-    <t>1980-08-21</t>
-  </si>
-  <si>
-    <t>605160116023814</t>
-  </si>
-  <si>
-    <t>1ec0ec2b8698074d</t>
-  </si>
-  <si>
-    <t>302070613259173</t>
-  </si>
-  <si>
-    <t>IDEP517661848272398Q</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>59999258302</t>
-  </si>
-  <si>
-    <t>DTDAOJ</t>
-  </si>
-  <si>
-    <t>BNPL6175612423685967</t>
-  </si>
-  <si>
-    <t>59999431100</t>
-  </si>
-  <si>
-    <t>FLCIUE</t>
-  </si>
-  <si>
-    <t>59999640822</t>
-  </si>
-  <si>
-    <t>ISUAIS</t>
-  </si>
-  <si>
-    <t>59999885336</t>
-  </si>
-  <si>
-    <t>LUTDTK</t>
-  </si>
-  <si>
-    <t>59999980667</t>
-  </si>
-  <si>
-    <t>GFDFFF</t>
-  </si>
-  <si>
-    <t>59999952721</t>
-  </si>
-  <si>
-    <t>JRNTFL</t>
-  </si>
-  <si>
-    <t>59999695886</t>
-  </si>
-  <si>
-    <t>AFHLIG</t>
-  </si>
-  <si>
-    <t>59999770012</t>
-  </si>
-  <si>
-    <t>MTEJKH</t>
-  </si>
-  <si>
-    <t>59999281153</t>
-  </si>
-  <si>
-    <t>DEROCK</t>
-  </si>
-  <si>
-    <t>59999046694</t>
-  </si>
-  <si>
-    <t>JIOPBJ</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>335577018126801610</t>
-  </si>
-  <si>
-    <t>ICIC87515544173</t>
-  </si>
-  <si>
-    <t>ICIC90865357043</t>
-  </si>
-  <si>
-    <t>7090425434</t>
-  </si>
-  <si>
-    <t>Smriti</t>
-  </si>
-  <si>
-    <t>NaseerChakraborty21433@example.net</t>
-  </si>
-  <si>
-    <t>1993-04-14</t>
-  </si>
-  <si>
-    <t>793726233879684</t>
-  </si>
-  <si>
-    <t>4d19cc32bbca4a58</t>
-  </si>
-  <si>
-    <t>406993369303215</t>
-  </si>
-  <si>
-    <t>IDEP567161329544Z3VQ</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>59999673531</t>
-  </si>
-  <si>
-    <t>OLEEKN</t>
-  </si>
-  <si>
-    <t>BNPL5716615342123942</t>
-  </si>
-  <si>
-    <t>59999130091</t>
-  </si>
-  <si>
-    <t>GSLBJB</t>
-  </si>
-  <si>
-    <t>59999432098</t>
-  </si>
-  <si>
-    <t>HOIPNA</t>
-  </si>
-  <si>
-    <t>59999207191</t>
-  </si>
-  <si>
-    <t>GUHHPF</t>
-  </si>
-  <si>
-    <t>59999219555</t>
-  </si>
-  <si>
-    <t>HGBAAF</t>
-  </si>
-  <si>
-    <t>59999440183</t>
-  </si>
-  <si>
-    <t>HBGHRB</t>
-  </si>
-  <si>
-    <t>59999341636</t>
-  </si>
-  <si>
-    <t>MHNAOT</t>
-  </si>
-  <si>
-    <t>59999410454</t>
-  </si>
-  <si>
-    <t>CJPUGT</t>
-  </si>
-  <si>
-    <t>59999042029</t>
-  </si>
-  <si>
-    <t>CILBMT</t>
-  </si>
-  <si>
-    <t>59999461985</t>
-  </si>
-  <si>
-    <t>PGPNHC</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>335577017090425434</t>
-  </si>
-  <si>
-    <t>ICIC81081990352</t>
-  </si>
-  <si>
-    <t>ICIC80304211926</t>
-  </si>
-  <si>
-    <t>8207909135</t>
-  </si>
-  <si>
-    <t>Prerna</t>
-  </si>
-  <si>
-    <t>NirmalChoudhry53145@example.net</t>
-  </si>
-  <si>
-    <t>1982-04-29</t>
-  </si>
-  <si>
-    <t>230797605958183</t>
-  </si>
-  <si>
-    <t>438aa81599f19ee3</t>
-  </si>
-  <si>
-    <t>580738651798608</t>
-  </si>
-  <si>
-    <t>IDEP651761887488KBVC</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>59999311981</t>
-  </si>
-  <si>
-    <t>OUFLDT</t>
-  </si>
-  <si>
-    <t>BNPL6571628861266852</t>
-  </si>
-  <si>
-    <t>59999856217</t>
-  </si>
-  <si>
-    <t>MUSNTT</t>
-  </si>
-  <si>
-    <t>59999748398</t>
-  </si>
-  <si>
-    <t>KSPLUD</t>
-  </si>
-  <si>
-    <t>59999008248</t>
-  </si>
-  <si>
-    <t>LENGCP</t>
-  </si>
-  <si>
-    <t>59999830669</t>
-  </si>
-  <si>
-    <t>EKQMOA</t>
-  </si>
-  <si>
-    <t>59999281494</t>
-  </si>
-  <si>
-    <t>CEUUNF</t>
-  </si>
-  <si>
-    <t>59999003730</t>
-  </si>
-  <si>
-    <t>BFJSHG</t>
-  </si>
-  <si>
-    <t>59999001639</t>
-  </si>
-  <si>
-    <t>NMQLCP</t>
-  </si>
-  <si>
-    <t>59999114376</t>
-  </si>
-  <si>
-    <t>UQDINP</t>
-  </si>
-  <si>
-    <t>59999791630</t>
-  </si>
-  <si>
-    <t>BSSJKS</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>335577018207909135</t>
-  </si>
-  <si>
-    <t>ICIC93451128668</t>
-  </si>
-  <si>
-    <t>ICIC91279775788</t>
-  </si>
-  <si>
-    <t>6935144553</t>
-  </si>
-  <si>
-    <t>Aarti</t>
-  </si>
-  <si>
-    <t>ChiragShenoy36014@example.net</t>
-  </si>
-  <si>
-    <t>1992-12-31</t>
-  </si>
-  <si>
-    <t>214400075203624</t>
-  </si>
-  <si>
-    <t>3b8d63b26a7ea971</t>
-  </si>
-  <si>
-    <t>880185846447385</t>
-  </si>
-  <si>
-    <t>IDEP567162667518UR3X</t>
-  </si>
-  <si>
-    <t>9353062089</t>
-  </si>
-  <si>
-    <t>Trishana</t>
-  </si>
-  <si>
-    <t>NakulMadan77318@example.net</t>
-  </si>
-  <si>
-    <t>1982-03-09</t>
-  </si>
-  <si>
-    <t>625053489049886</t>
-  </si>
-  <si>
-    <t>6291d2b120cdb1c8</t>
-  </si>
-  <si>
-    <t>400098560072316</t>
-  </si>
-  <si>
-    <t>IDEP517662749897N7MW</t>
-  </si>
-  <si>
-    <t>9079518669</t>
-  </si>
-  <si>
-    <t>Lalita</t>
-  </si>
-  <si>
-    <t>MotiSaran60136@example.net</t>
-  </si>
-  <si>
-    <t>1990-09-18</t>
-  </si>
-  <si>
-    <t>602652288571631</t>
-  </si>
-  <si>
-    <t>d8c308c78d219753</t>
-  </si>
-  <si>
-    <t>806717270086809</t>
-  </si>
-  <si>
-    <t>IDEP615763889948FV18</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
     <t>156</t>
   </si>
   <si>
-    <t>59999643775</t>
-  </si>
-  <si>
-    <t>NNPGRJ</t>
-  </si>
-  <si>
-    <t>BNPL1567632854192497</t>
-  </si>
-  <si>
-    <t>59999997803</t>
-  </si>
-  <si>
-    <t>EIKGDU</t>
-  </si>
-  <si>
-    <t>59999994674</t>
-  </si>
-  <si>
-    <t>DSBSQT</t>
-  </si>
-  <si>
-    <t>59999886809</t>
-  </si>
-  <si>
-    <t>FRFSOG</t>
-  </si>
-  <si>
-    <t>59999547396</t>
-  </si>
-  <si>
-    <t>OASEFH</t>
-  </si>
-  <si>
-    <t>59999125923</t>
-  </si>
-  <si>
-    <t>DEUTDD</t>
-  </si>
-  <si>
-    <t>59999912230</t>
-  </si>
-  <si>
-    <t>BAFMPQ</t>
-  </si>
-  <si>
-    <t>59999460229</t>
-  </si>
-  <si>
-    <t>RFIMAG</t>
-  </si>
-  <si>
-    <t>59999067874</t>
-  </si>
-  <si>
-    <t>CQATFL</t>
-  </si>
-  <si>
-    <t>59999274052</t>
-  </si>
-  <si>
-    <t>QSNNME</t>
-  </si>
-  <si>
-    <t>8326349768</t>
-  </si>
-  <si>
-    <t>Aishwarya</t>
-  </si>
-  <si>
-    <t>AbbasSethi62520@example.net</t>
-  </si>
-  <si>
-    <t>1986-10-10</t>
-  </si>
-  <si>
-    <t>577497630892868</t>
-  </si>
-  <si>
-    <t>e4d610ca605779d3</t>
-  </si>
-  <si>
-    <t>617549098335889</t>
-  </si>
-  <si>
-    <t>IDEP1657642658316AK1</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>59999064362</t>
-  </si>
-  <si>
-    <t>OBIMCC</t>
-  </si>
-  <si>
-    <t>BNPL1765644488869372</t>
-  </si>
-  <si>
-    <t>59999096483</t>
-  </si>
-  <si>
-    <t>SQGPUR</t>
-  </si>
-  <si>
-    <t>59999634906</t>
-  </si>
-  <si>
-    <t>RALUSF</t>
-  </si>
-  <si>
-    <t>59999743358</t>
-  </si>
-  <si>
-    <t>NPSJSB</t>
-  </si>
-  <si>
-    <t>59999920352</t>
-  </si>
-  <si>
-    <t>IKJKHF</t>
-  </si>
-  <si>
-    <t>59999874767</t>
-  </si>
-  <si>
-    <t>OREIUC</t>
-  </si>
-  <si>
-    <t>59999687877</t>
-  </si>
-  <si>
-    <t>EDCULT</t>
-  </si>
-  <si>
-    <t>59999887402</t>
-  </si>
-  <si>
-    <t>JNTPHI</t>
-  </si>
-  <si>
-    <t>59999095981</t>
-  </si>
-  <si>
-    <t>KOGEMS</t>
-  </si>
-  <si>
-    <t>59999687166</t>
-  </si>
-  <si>
-    <t>DEMRJO</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>335577018326349768</t>
-  </si>
-  <si>
-    <t>ICIC95523119945</t>
-  </si>
-  <si>
-    <t>ICIC86367803136</t>
-  </si>
-  <si>
-    <t>6492625533</t>
-  </si>
-  <si>
-    <t>Hira</t>
-  </si>
-  <si>
-    <t>JaswantMalhotra97028@example.net</t>
-  </si>
-  <si>
-    <t>1978-01-17</t>
-  </si>
-  <si>
-    <t>987129534260835</t>
-  </si>
-  <si>
-    <t>6f93c37c4f433685</t>
-  </si>
-  <si>
-    <t>286898728273188</t>
-  </si>
-  <si>
-    <t>IDEP567165266848CFW7</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>59999186945</t>
-  </si>
-  <si>
-    <t>KBOLPM</t>
-  </si>
-  <si>
-    <t>BNPL6751654471997184</t>
-  </si>
-  <si>
-    <t>59999262085</t>
-  </si>
-  <si>
-    <t>KKDDPS</t>
-  </si>
-  <si>
-    <t>59999877415</t>
-  </si>
-  <si>
-    <t>PDMBQB</t>
-  </si>
-  <si>
-    <t>59999907622</t>
-  </si>
-  <si>
-    <t>BTQCAS</t>
-  </si>
-  <si>
-    <t>59999528109</t>
-  </si>
-  <si>
-    <t>QQIRKC</t>
-  </si>
-  <si>
-    <t>59999503320</t>
-  </si>
-  <si>
-    <t>IPFIDL</t>
-  </si>
-  <si>
-    <t>59999797494</t>
-  </si>
-  <si>
-    <t>EHPTFC</t>
-  </si>
-  <si>
-    <t>59999817084</t>
-  </si>
-  <si>
-    <t>LGKIQA</t>
-  </si>
-  <si>
-    <t>59999580933</t>
-  </si>
-  <si>
-    <t>TOQNAN</t>
-  </si>
-  <si>
-    <t>59999790792</t>
-  </si>
-  <si>
-    <t>NBCIFR</t>
-  </si>
-  <si>
-    <t>179.0</t>
-  </si>
-  <si>
-    <t>335577016492625533</t>
-  </si>
-  <si>
-    <t>ICIC85809016153</t>
-  </si>
-  <si>
-    <t>ICIC83124812446</t>
-  </si>
-  <si>
-    <t>7716455129</t>
-  </si>
-  <si>
-    <t>Kalyani</t>
-  </si>
-  <si>
-    <t>NawabMisra51573@example.net</t>
-  </si>
-  <si>
-    <t>1989-03-19</t>
-  </si>
-  <si>
-    <t>461863791172763</t>
-  </si>
-  <si>
-    <t>10420cd3b24a8a06</t>
-  </si>
-  <si>
-    <t>306121219605511</t>
-  </si>
-  <si>
-    <t>6678471286</t>
-  </si>
-  <si>
-    <t>Bagwati</t>
-  </si>
-  <si>
-    <t>RajeshMalhotra80853@example.net</t>
-  </si>
-  <si>
-    <t>1982-07-22</t>
-  </si>
-  <si>
-    <t>271595823833323</t>
-  </si>
-  <si>
-    <t>d2fd1dadb7fecc3d</t>
-  </si>
-  <si>
-    <t>312473155365549</t>
-  </si>
-  <si>
-    <t>8811488167</t>
-  </si>
-  <si>
-    <t>HimeshKata23019@example.net</t>
-  </si>
-  <si>
-    <t>1976-02-13</t>
-  </si>
-  <si>
-    <t>494246457506881</t>
-  </si>
-  <si>
-    <t>c4c1d2f30edc6644</t>
-  </si>
-  <si>
-    <t>244103108553056</t>
-  </si>
-  <si>
-    <t>8111170190</t>
-  </si>
-  <si>
-    <t>Kusum</t>
-  </si>
-  <si>
-    <t>EliasShan88052@example.net</t>
-  </si>
-  <si>
-    <t>1986-07-06</t>
-  </si>
-  <si>
-    <t>749516079884590</t>
-  </si>
-  <si>
-    <t>748551d5d54f59f1</t>
-  </si>
-  <si>
-    <t>121476739162606</t>
-  </si>
-  <si>
-    <t>8993039364</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>SiddharthBandi31723@example.net</t>
-  </si>
-  <si>
-    <t>1995-05-02</t>
-  </si>
-  <si>
-    <t>072575116094578</t>
-  </si>
-  <si>
-    <t>083916c7f067560e</t>
-  </si>
-  <si>
-    <t>735164972922948</t>
-  </si>
-  <si>
-    <t>6494890592</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>UmeshNaik56078@example.net</t>
-  </si>
-  <si>
-    <t>1978-08-13</t>
-  </si>
-  <si>
-    <t>843364109549965</t>
-  </si>
-  <si>
-    <t>47cc96f9c05614cf</t>
-  </si>
-  <si>
-    <t>514170494437650</t>
-  </si>
-  <si>
-    <t>9183012923</t>
-  </si>
-  <si>
-    <t>Binita</t>
-  </si>
-  <si>
-    <t>TanayKakar13354@example.net</t>
-  </si>
-  <si>
-    <t>1981-11-06</t>
-  </si>
-  <si>
-    <t>536068528496672</t>
-  </si>
-  <si>
-    <t>75acb90670709cc9</t>
-  </si>
-  <si>
-    <t>397015558551312</t>
-  </si>
-  <si>
-    <t>IDEP571658583685L2FE</t>
-  </si>
-  <si>
-    <t>7581687217</t>
-  </si>
-  <si>
-    <t>Parminder</t>
-  </si>
-  <si>
-    <t>SrinivasanGoda33482@example.net</t>
-  </si>
-  <si>
-    <t>1979-06-25</t>
-  </si>
-  <si>
-    <t>804865471610117</t>
-  </si>
-  <si>
-    <t>023cc5f10e12cc43</t>
-  </si>
-  <si>
-    <t>258440244933872</t>
-  </si>
-  <si>
-    <t>IDEP651758599916KVB6</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>59999969247</t>
-  </si>
-  <si>
-    <t>IGCRRI</t>
-  </si>
-  <si>
-    <t>59999848366</t>
-  </si>
-  <si>
-    <t>IUGSBT</t>
-  </si>
-  <si>
-    <t>59999883806</t>
-  </si>
-  <si>
-    <t>LITMNC</t>
-  </si>
-  <si>
-    <t>59999675080</t>
-  </si>
-  <si>
-    <t>POUSDN</t>
-  </si>
-  <si>
-    <t>59999900276</t>
-  </si>
-  <si>
-    <t>OPURQF</t>
-  </si>
-  <si>
-    <t>59999959818</t>
-  </si>
-  <si>
-    <t>TKBOOC</t>
-  </si>
-  <si>
-    <t>59999107028</t>
-  </si>
-  <si>
-    <t>SSDSGJ</t>
-  </si>
-  <si>
-    <t>59999175104</t>
-  </si>
-  <si>
-    <t>CNFSQI</t>
-  </si>
-  <si>
-    <t>59999840637</t>
-  </si>
-  <si>
-    <t>SIPJSS</t>
-  </si>
-  <si>
-    <t>59999308209</t>
-  </si>
-  <si>
-    <t>DPULQO</t>
-  </si>
-  <si>
-    <t>7034795902</t>
-  </si>
-  <si>
-    <t>VarunShan85095@example.net</t>
-  </si>
-  <si>
-    <t>1972-05-04</t>
-  </si>
-  <si>
-    <t>548209666129677</t>
-  </si>
-  <si>
-    <t>c40b98b191afb754</t>
-  </si>
-  <si>
-    <t>393934263909116</t>
-  </si>
-  <si>
-    <t>IDEP165751889745IYJ7</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>59999716296</t>
-  </si>
-  <si>
-    <t>UEEILR</t>
-  </si>
-  <si>
-    <t>BNPL5761513613753251</t>
-  </si>
-  <si>
-    <t>59999714806</t>
-  </si>
-  <si>
-    <t>FNPRBA</t>
-  </si>
-  <si>
-    <t>59999105842</t>
-  </si>
-  <si>
-    <t>ILFEIB</t>
-  </si>
-  <si>
-    <t>59999784948</t>
-  </si>
-  <si>
-    <t>LAUROM</t>
-  </si>
-  <si>
-    <t>59999920507</t>
-  </si>
-  <si>
-    <t>UBGDCH</t>
-  </si>
-  <si>
-    <t>59999735428</t>
-  </si>
-  <si>
-    <t>GGIKCM</t>
-  </si>
-  <si>
-    <t>59999952210</t>
-  </si>
-  <si>
-    <t>OQDBGR</t>
-  </si>
-  <si>
-    <t>59999235192</t>
-  </si>
-  <si>
-    <t>DPKQTR</t>
-  </si>
-  <si>
-    <t>59999944401</t>
-  </si>
-  <si>
-    <t>KQFQKK</t>
-  </si>
-  <si>
-    <t>59999330163</t>
-  </si>
-  <si>
-    <t>RFNINJ</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>335577017034795902</t>
-  </si>
-  <si>
-    <t>ICIC86615139805</t>
-  </si>
-  <si>
-    <t>ICIC96080644945</t>
-  </si>
-  <si>
-    <t>9610241571</t>
-  </si>
-  <si>
-    <t>Kasturba</t>
-  </si>
-  <si>
-    <t>AniruddhNarayan55297@example.net</t>
-  </si>
-  <si>
-    <t>1991-02-23</t>
-  </si>
-  <si>
-    <t>596341395303843</t>
-  </si>
-  <si>
-    <t>8c66d1b40a6aa7b1</t>
-  </si>
-  <si>
-    <t>208772664967415</t>
-  </si>
-  <si>
-    <t>IDEP156751739882XTPK</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>59999716167</t>
-  </si>
-  <si>
-    <t>LQKKHJ</t>
-  </si>
-  <si>
-    <t>BNPL1657528166184187</t>
-  </si>
-  <si>
-    <t>59999437987</t>
-  </si>
-  <si>
-    <t>PTURRI</t>
-  </si>
-  <si>
-    <t>59999168602</t>
-  </si>
-  <si>
-    <t>GSCBGT</t>
-  </si>
-  <si>
-    <t>59999898127</t>
-  </si>
-  <si>
-    <t>PEBCIL</t>
-  </si>
-  <si>
-    <t>59999006370</t>
-  </si>
-  <si>
-    <t>UBHCCL</t>
-  </si>
-  <si>
-    <t>59999747391</t>
-  </si>
-  <si>
-    <t>KAJLEA</t>
-  </si>
-  <si>
-    <t>59999344018</t>
-  </si>
-  <si>
-    <t>TAQUPD</t>
-  </si>
-  <si>
-    <t>59999476152</t>
-  </si>
-  <si>
-    <t>PBAQFM</t>
-  </si>
-  <si>
-    <t>59999421295</t>
-  </si>
-  <si>
-    <t>QCULHB</t>
-  </si>
-  <si>
-    <t>59999597436</t>
-  </si>
-  <si>
-    <t>MRPLQE</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>335577019610241571</t>
-  </si>
-  <si>
-    <t>ICIC83069115120</t>
-  </si>
-  <si>
-    <t>ICIC99021572061</t>
-  </si>
-  <si>
-    <t>6223674803</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>PrabhatKar71675@example.net</t>
-  </si>
-  <si>
-    <t>1971-02-21</t>
-  </si>
-  <si>
-    <t>715017670526193</t>
-  </si>
-  <si>
-    <t>9759c31ee62c6a4e</t>
-  </si>
-  <si>
-    <t>517767953457819</t>
-  </si>
-  <si>
-    <t>IDEP175616587468RWD5</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>59999937858</t>
-  </si>
-  <si>
-    <t>ESTMED</t>
-  </si>
-  <si>
-    <t>BNPL1576166928843785</t>
-  </si>
-  <si>
-    <t>59999635576</t>
-  </si>
-  <si>
-    <t>LKTBUG</t>
-  </si>
-  <si>
-    <t>59999412242</t>
-  </si>
-  <si>
-    <t>OKTCQH</t>
-  </si>
-  <si>
-    <t>59999586964</t>
-  </si>
-  <si>
-    <t>LQTURE</t>
-  </si>
-  <si>
-    <t>59999251345</t>
-  </si>
-  <si>
-    <t>KUIGLA</t>
-  </si>
-  <si>
-    <t>59999731643</t>
-  </si>
-  <si>
-    <t>FFPGCH</t>
-  </si>
-  <si>
-    <t>59999509161</t>
-  </si>
-  <si>
-    <t>HNTJMP</t>
-  </si>
-  <si>
-    <t>59999821934</t>
-  </si>
-  <si>
-    <t>GBQBPT</t>
-  </si>
-  <si>
-    <t>59999294028</t>
-  </si>
-  <si>
-    <t>PCMBFE</t>
-  </si>
-  <si>
-    <t>59999175882</t>
-  </si>
-  <si>
-    <t>NRGNCI</t>
-  </si>
-  <si>
-    <t>335577016223674803</t>
-  </si>
-  <si>
-    <t>ICIC99798807982</t>
-  </si>
-  <si>
-    <t>ICIC86632994454</t>
-  </si>
-  <si>
-    <t>7439851261</t>
-  </si>
-  <si>
-    <t>BaalkrishanKhatri93116@example.net</t>
-  </si>
-  <si>
-    <t>1983-12-23</t>
-  </si>
-  <si>
-    <t>864920263506721</t>
-  </si>
-  <si>
-    <t>9d2d9e442f7ac72d</t>
-  </si>
-  <si>
-    <t>400044498506249</t>
-  </si>
-  <si>
-    <t>IDEP516718848333TMDR</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>59999361656</t>
-  </si>
-  <si>
-    <t>GFTBNR</t>
-  </si>
-  <si>
-    <t>BNPL5716182486836982</t>
-  </si>
-  <si>
-    <t>59999313093</t>
-  </si>
-  <si>
-    <t>LFATDP</t>
-  </si>
-  <si>
-    <t>59999801774</t>
-  </si>
-  <si>
-    <t>LJDKTI</t>
-  </si>
-  <si>
-    <t>59999931898</t>
-  </si>
-  <si>
-    <t>LNSBUM</t>
-  </si>
-  <si>
-    <t>59999545418</t>
-  </si>
-  <si>
-    <t>OUOSKN</t>
-  </si>
-  <si>
-    <t>59999711210</t>
-  </si>
-  <si>
-    <t>MIUOBS</t>
-  </si>
-  <si>
-    <t>59999845238</t>
-  </si>
-  <si>
-    <t>AGNNUN</t>
-  </si>
-  <si>
-    <t>59999532789</t>
-  </si>
-  <si>
-    <t>MGGGGB</t>
-  </si>
-  <si>
-    <t>59999773386</t>
-  </si>
-  <si>
-    <t>ACRQAS</t>
-  </si>
-  <si>
-    <t>59999133314</t>
-  </si>
-  <si>
-    <t>ABPQKB</t>
+    <t>bnpl59999951018</t>
+  </si>
+  <si>
+    <t>OJJKKE</t>
+  </si>
+  <si>
+    <t>BNPL6751227553394965</t>
+  </si>
+  <si>
+    <t>bnpl59999891336</t>
+  </si>
+  <si>
+    <t>JUPJQT</t>
+  </si>
+  <si>
+    <t>bnpl59999384760</t>
+  </si>
+  <si>
+    <t>NPPSSF</t>
+  </si>
+  <si>
+    <t>bnpl59999337222</t>
+  </si>
+  <si>
+    <t>EHOABK</t>
+  </si>
+  <si>
+    <t>bnpl59999067335</t>
+  </si>
+  <si>
+    <t>USCTKI</t>
+  </si>
+  <si>
+    <t>bnpl59999291910</t>
+  </si>
+  <si>
+    <t>BLIPBF</t>
+  </si>
+  <si>
+    <t>bnpl59999127795</t>
+  </si>
+  <si>
+    <t>MHQLPC</t>
+  </si>
+  <si>
+    <t>bnpl59999716303</t>
+  </si>
+  <si>
+    <t>FLQUAS</t>
+  </si>
+  <si>
+    <t>bnpl59999439339</t>
+  </si>
+  <si>
+    <t>PLFICO</t>
+  </si>
+  <si>
+    <t>bnpl59999997916</t>
+  </si>
+  <si>
+    <t>JQSPSM</t>
   </si>
   <si>
     <t>103.0</t>
   </si>
   <si>
-    <t>335577017439851261</t>
-  </si>
-  <si>
-    <t>ICIC86300981032</t>
-  </si>
-  <si>
-    <t>ICIC85467333333</t>
-  </si>
-  <si>
-    <t>7520318257</t>
-  </si>
-  <si>
-    <t>Charu</t>
-  </si>
-  <si>
-    <t>JatinBail82205@example.net</t>
-  </si>
-  <si>
-    <t>1970-12-13</t>
-  </si>
-  <si>
-    <t>520160899972163</t>
-  </si>
-  <si>
-    <t>d3e8cc3c90fa5a3e</t>
-  </si>
-  <si>
-    <t>180619545752361</t>
-  </si>
-  <si>
-    <t>IDEP7615198864147GEP</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>59999027519</t>
-  </si>
-  <si>
-    <t>EGHRJE</t>
-  </si>
-  <si>
-    <t>BNPL5176191976862431</t>
-  </si>
-  <si>
-    <t>59999796747</t>
-  </si>
-  <si>
-    <t>IDIONP</t>
-  </si>
-  <si>
-    <t>59999747058</t>
-  </si>
-  <si>
-    <t>KKPNCU</t>
-  </si>
-  <si>
-    <t>59999789789</t>
-  </si>
-  <si>
-    <t>TURLUJ</t>
-  </si>
-  <si>
-    <t>59999035803</t>
-  </si>
-  <si>
-    <t>ABOHDP</t>
-  </si>
-  <si>
-    <t>59999390100</t>
-  </si>
-  <si>
-    <t>BMCPEQ</t>
-  </si>
-  <si>
-    <t>59999293346</t>
-  </si>
-  <si>
-    <t>IGECEC</t>
-  </si>
-  <si>
-    <t>59999125823</t>
-  </si>
-  <si>
-    <t>DJEBUQ</t>
-  </si>
-  <si>
-    <t>59999170844</t>
-  </si>
-  <si>
-    <t>KJGAQK</t>
-  </si>
-  <si>
-    <t>59999234997</t>
-  </si>
-  <si>
-    <t>UBKOAS</t>
-  </si>
-  <si>
-    <t>335577017520318257</t>
-  </si>
-  <si>
-    <t>ICIC99749448800</t>
-  </si>
-  <si>
-    <t>ICIC91781295678</t>
-  </si>
-  <si>
-    <t>9645186768</t>
-  </si>
-  <si>
-    <t>Teena</t>
-  </si>
-  <si>
-    <t>AnilTiwari66227@example.net</t>
-  </si>
-  <si>
-    <t>1987-07-02</t>
-  </si>
-  <si>
-    <t>540601953320704</t>
-  </si>
-  <si>
-    <t>0b89301f78e810fb</t>
-  </si>
-  <si>
-    <t>694505583598817</t>
-  </si>
-  <si>
-    <t>IDEP6571384433324PX6</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>59999452917</t>
-  </si>
-  <si>
-    <t>SHKDKS</t>
-  </si>
-  <si>
-    <t>BNPL6175386562848273</t>
-  </si>
-  <si>
-    <t>59999951622</t>
-  </si>
-  <si>
-    <t>KBTEIR</t>
-  </si>
-  <si>
-    <t>59999512511</t>
-  </si>
-  <si>
-    <t>SEMSTR</t>
-  </si>
-  <si>
-    <t>59999175486</t>
-  </si>
-  <si>
-    <t>FHUBMO</t>
-  </si>
-  <si>
-    <t>59999949475</t>
-  </si>
-  <si>
-    <t>UOQUCC</t>
-  </si>
-  <si>
-    <t>59999793469</t>
-  </si>
-  <si>
-    <t>HIMMGL</t>
-  </si>
-  <si>
-    <t>59999127992</t>
-  </si>
-  <si>
-    <t>GFEQED</t>
-  </si>
-  <si>
-    <t>59999522252</t>
-  </si>
-  <si>
-    <t>IRQDHO</t>
-  </si>
-  <si>
-    <t>59999894116</t>
-  </si>
-  <si>
-    <t>DMTATA</t>
-  </si>
-  <si>
-    <t>59999025767</t>
-  </si>
-  <si>
-    <t>NRQROF</t>
-  </si>
-  <si>
-    <t>335577019645186768</t>
-  </si>
-  <si>
-    <t>ICIC92798766438</t>
-  </si>
-  <si>
-    <t>ICIC93494641011</t>
-  </si>
-  <si>
-    <t>9818225544</t>
-  </si>
-  <si>
-    <t>Juhi</t>
-  </si>
-  <si>
-    <t>VickyArora76416@example.net</t>
-  </si>
-  <si>
-    <t>1981-08-24</t>
-  </si>
-  <si>
-    <t>815808346061287</t>
-  </si>
-  <si>
-    <t>854ccb508a544cc2</t>
-  </si>
-  <si>
-    <t>134556889164315</t>
-  </si>
-  <si>
-    <t>IDEP756132846788W2ZY</t>
-  </si>
-  <si>
-    <t>59999082089</t>
-  </si>
-  <si>
-    <t>TELCBA</t>
-  </si>
-  <si>
-    <t>BNPL5761338464321569</t>
-  </si>
-  <si>
-    <t>59999093584</t>
-  </si>
-  <si>
-    <t>IGJNMG</t>
-  </si>
-  <si>
-    <t>59999119785</t>
-  </si>
-  <si>
-    <t>ANJGGL</t>
-  </si>
-  <si>
-    <t>59999969062</t>
-  </si>
-  <si>
-    <t>FJLIHE</t>
-  </si>
-  <si>
-    <t>59999955610</t>
-  </si>
-  <si>
-    <t>UKLJAL</t>
-  </si>
-  <si>
-    <t>59999863282</t>
-  </si>
-  <si>
-    <t>AIRREP</t>
-  </si>
-  <si>
-    <t>59999264731</t>
-  </si>
-  <si>
-    <t>KHUAGR</t>
-  </si>
-  <si>
-    <t>59999504366</t>
-  </si>
-  <si>
-    <t>IJPTHN</t>
-  </si>
-  <si>
-    <t>59999479178</t>
-  </si>
-  <si>
-    <t>TTQAAJ</t>
-  </si>
-  <si>
-    <t>59999713384</t>
-  </si>
-  <si>
-    <t>FNSMCB</t>
-  </si>
-  <si>
-    <t>171.0</t>
-  </si>
-  <si>
-    <t>335577019818225544</t>
-  </si>
-  <si>
-    <t>ICIC91804203989</t>
-  </si>
-  <si>
-    <t>ICIC84317582333</t>
+    <t>335577017196527280</t>
+  </si>
+  <si>
+    <t>ICIC95946066644</t>
+  </si>
+  <si>
+    <t>ICIC91953824428</t>
+  </si>
+  <si>
+    <t>6596864599</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>AatifMerchant70165@example.net</t>
+  </si>
+  <si>
+    <t>1981-03-07</t>
+  </si>
+  <si>
+    <t>922018743345248</t>
+  </si>
+  <si>
+    <t>5293f7f867e8fe98</t>
+  </si>
+  <si>
+    <t>409752880091569</t>
   </si>
 </sst>
 </file>
@@ -5056,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5176,22 +3061,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1498</v>
+        <v>786</v>
       </c>
       <c r="F2" t="s">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>1499</v>
+        <v>787</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -5528,7 +3413,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1481</v>
+        <v>769</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -5625,16 +3510,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1476</v>
+        <v>797</v>
       </c>
       <c r="C2" t="s">
-        <v>1477</v>
+        <v>798</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1475</v>
+        <v>796</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5737,7 +3622,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1501</v>
+        <v>789</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5749,7 +3634,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1502</v>
+        <v>790</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5758,7 +3643,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5850,13 +3735,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1474</v>
+        <v>795</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6205,13 +4090,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1474</v>
+        <v>795</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6520,13 +4405,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1474</v>
+        <v>795</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -6620,13 +4505,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="E2" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1474</v>
+        <v>795</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6935,13 +4820,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1474</v>
+        <v>795</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -7060,7 +4945,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1501</v>
+        <v>789</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -7072,7 +4957,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1503</v>
+        <v>791</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -7081,7 +4966,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -7208,10 +5093,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="E2" t="s">
-        <v>1473</v>
+        <v>794</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -7223,7 +5108,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1475</v>
+        <v>796</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -7232,10 +5117,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="M2" t="n">
-        <v>4233481.0</v>
+        <v>4234174.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -7282,7 +5167,7 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="M3" s="2">
         <v>4215852</v>
@@ -7345,7 +5230,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7362,7 +5247,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7379,7 +5264,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7396,7 +5281,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7413,7 +5298,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1471</v>
+        <v>792</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7582,7 +5467,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1475</v>
+        <v>796</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7826,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1475</v>
+        <v>796</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -8041,7 +5926,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1472</v>
+        <v>793</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8124,7 +6009,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -8422,7 +6307,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8442,7 +6327,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8462,7 +6347,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -8482,7 +6367,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8502,7 +6387,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8522,7 +6407,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8542,7 +6427,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1478</v>
+        <v>763</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8601,7 +6486,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8615,7 +6500,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>
